--- a/input/reg_home_ownership.xlsx
+++ b/input/reg_home_ownership.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F838EC-AEC2-47EC-99A1-843B20AF8BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8EE0ED-53BF-4FCD-89B2-3E55E06E2BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21480" windowHeight="12675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="HO1a" sheetId="5" r:id="rId2"/>
+    <sheet name="HU_HO1a" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/input/reg_home_ownership.xlsx
+++ b/input/reg_home_ownership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8EE0ED-53BF-4FCD-89B2-3E55E06E2BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7935F60-F4E6-4E0D-9D46-02769ABE1D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21480" windowHeight="12675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,6 @@
     <t>Patryk Bronka, Justin van de Ven, Ashley Burdett</t>
   </si>
   <si>
-    <t>REGRESSORS</t>
-  </si>
-  <si>
-    <t>COFFICIENTS</t>
-  </si>
-  <si>
     <t>Dhhtp_c8_2_L1</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>HUB</t>
+  </si>
+  <si>
+    <t>REGRESSOR</t>
+  </si>
+  <si>
+    <t>COFFICIENT</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16AACB8-DCDD-4E05-8142-87FB5C31F593}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -599,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -614,25 +616,25 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
@@ -674,13 +676,13 @@
         <v>11</v>
       </c>
       <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
         <v>40</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>42</v>
       </c>
       <c r="AC1" t="s">
         <v>12</v>
@@ -967,7 +969,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>-0.76050547635561982</v>
@@ -1059,7 +1061,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>8.2111793406450501E-2</v>
@@ -1151,7 +1153,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>0.10010565916112182</v>
@@ -1243,7 +1245,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>0.39626183194749537</v>
@@ -1335,7 +1337,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>-8.7897392049414696E-3</v>
@@ -1427,7 +1429,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>6.7383927689894296E-3</v>
@@ -1519,7 +1521,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>-0.18295811650738977</v>
@@ -2807,7 +2809,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>2.821655515437437</v>
@@ -2899,7 +2901,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>9.6029649680663409E-3</v>
@@ -2991,7 +2993,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>5.7153292287446457E-2</v>

--- a/input/reg_home_ownership.xlsx
+++ b/input/reg_home_ownership.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7935F60-F4E6-4E0D-9D46-02769ABE1D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F29DF-E38B-49FF-9D94-58700D4479A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
     <t>REGRESSOR</t>
   </si>
   <si>
-    <t>COFFICIENT</t>
+    <t>COEFFICIENT</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/reg_home_ownership.xlsx
+++ b/input/reg_home_ownership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F29DF-E38B-49FF-9D94-58700D4479A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C210C64-6B02-48F1-B41C-0CB9F9BF9D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -589,9 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16AACB8-DCDD-4E05-8142-87FB5C31F593}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -696,91 +694,91 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.1895144290269496E-2</v>
+        <v>1.7471860499690562E-2</v>
       </c>
       <c r="C2">
-        <v>3.3851990106618669E-4</v>
+        <v>3.4469968467771986E-4</v>
       </c>
       <c r="D2">
-        <v>2.1426576375573758E-6</v>
+        <v>2.4295184491415575E-6</v>
       </c>
       <c r="E2">
-        <v>-1.090446822645069E-8</v>
+        <v>-1.3509962752792642E-8</v>
       </c>
       <c r="F2">
-        <v>-3.0288560595554534E-5</v>
+        <v>-2.9994801700151595E-5</v>
       </c>
       <c r="G2">
-        <v>-4.6483962574506582E-5</v>
+        <v>-4.8456786653664136E-5</v>
       </c>
       <c r="H2">
-        <v>3.5130773683550722E-5</v>
+        <v>3.5602292080099096E-5</v>
       </c>
       <c r="I2">
-        <v>-8.7246197149925913E-5</v>
+        <v>-8.8938852067183758E-5</v>
       </c>
       <c r="J2">
-        <v>-7.4008190931863094E-5</v>
+        <v>-7.685592233401672E-5</v>
       </c>
       <c r="K2">
-        <v>1.1988913782294086E-5</v>
+        <v>1.1512961108698171E-5</v>
       </c>
       <c r="L2">
-        <v>4.4232088440891728E-5</v>
+        <v>4.3824007452566172E-5</v>
       </c>
       <c r="M2">
-        <v>1.6777763578570414E-5</v>
+        <v>1.1283313509137887E-5</v>
       </c>
       <c r="N2">
-        <v>5.5953319924651567E-5</v>
+        <v>5.6310630456918802E-5</v>
       </c>
       <c r="O2">
-        <v>-2.8840256476670354E-5</v>
+        <v>-3.0495321007982408E-5</v>
       </c>
       <c r="P2">
-        <v>1.9144875172740716E-5</v>
+        <v>1.6485121100518071E-5</v>
       </c>
       <c r="Q2">
-        <v>-3.7409123898879038E-5</v>
+        <v>-3.8601610935795299E-5</v>
       </c>
       <c r="R2">
-        <v>-1.7007094640890741E-5</v>
+        <v>-1.7724799731967107E-5</v>
       </c>
       <c r="S2">
-        <v>-2.3731772375751329E-5</v>
+        <v>-2.4281528836900703E-5</v>
       </c>
       <c r="T2">
-        <v>3.8131582351490765E-6</v>
+        <v>3.5170058560448974E-6</v>
       </c>
       <c r="U2">
-        <v>-1.9057115947769551E-5</v>
+        <v>-1.9610703433109654E-5</v>
       </c>
       <c r="V2">
-        <v>-2.7631583841315253E-5</v>
+        <v>-2.8351947015890952E-5</v>
       </c>
       <c r="W2">
-        <v>-1.5850287951339075E-5</v>
+        <v>-1.7903565143688481E-5</v>
       </c>
       <c r="X2">
-        <v>-2.4966441373417755E-6</v>
+        <v>-6.2932608195010901E-6</v>
       </c>
       <c r="Y2">
-        <v>1.1342369515994708E-5</v>
+        <v>1.1647246696488665E-5</v>
       </c>
       <c r="Z2">
-        <v>-7.2571849706573154E-6</v>
+        <v>-7.1833626879621248E-6</v>
       </c>
       <c r="AA2">
-        <v>-1.5611339308177472E-5</v>
+        <v>-1.3242873499830077E-5</v>
       </c>
       <c r="AB2">
-        <v>-5.3912868974581184E-6</v>
+        <v>-3.4063343145693693E-6</v>
       </c>
       <c r="AC2">
-        <v>-1.0452643220161732E-7</v>
+        <v>-3.2189227123777386E-7</v>
       </c>
       <c r="AD2">
-        <v>-2.0489787544782681E-4</v>
+        <v>-2.0780715512158302E-4</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -788,91 +786,91 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.6486237487627776E-2</v>
+        <v>1.7381928613688154E-2</v>
       </c>
       <c r="C3">
-        <v>2.1426576375573758E-6</v>
+        <v>2.4295184491415575E-6</v>
       </c>
       <c r="D3">
-        <v>1.715525080919615E-5</v>
+        <v>1.7269148048771281E-5</v>
       </c>
       <c r="E3">
-        <v>-1.6296514890880731E-7</v>
+        <v>-1.6450841444946048E-7</v>
       </c>
       <c r="F3">
-        <v>1.4127067484059047E-5</v>
+        <v>1.6651219340925577E-5</v>
       </c>
       <c r="G3">
-        <v>1.5509891425343616E-5</v>
+        <v>1.4123107770112179E-5</v>
       </c>
       <c r="H3">
-        <v>1.0091787063705614E-5</v>
+        <v>9.6871428450491748E-6</v>
       </c>
       <c r="I3">
-        <v>4.5434724051372636E-5</v>
+        <v>4.4236170492813187E-5</v>
       </c>
       <c r="J3">
-        <v>1.1515243667212412E-5</v>
+        <v>1.0208272606426366E-5</v>
       </c>
       <c r="K3">
-        <v>3.778283214025894E-5</v>
+        <v>3.6932764724733487E-5</v>
       </c>
       <c r="L3">
-        <v>1.4667202053383052E-6</v>
+        <v>-5.6570157858541406E-7</v>
       </c>
       <c r="M3">
-        <v>9.2881479086755897E-5</v>
+        <v>8.6885878173154752E-5</v>
       </c>
       <c r="N3">
-        <v>2.2250042582813847E-5</v>
+        <v>2.0684917674601538E-5</v>
       </c>
       <c r="O3">
-        <v>4.6977136442122731E-6</v>
+        <v>4.3647367269524347E-6</v>
       </c>
       <c r="P3">
-        <v>1.9724604842216205E-5</v>
+        <v>1.8100607353163279E-5</v>
       </c>
       <c r="Q3">
-        <v>3.9246329770284698E-7</v>
+        <v>4.3467145017882626E-7</v>
       </c>
       <c r="R3">
-        <v>1.4782571347231565E-6</v>
+        <v>1.627645211806295E-6</v>
       </c>
       <c r="S3">
-        <v>1.5881539518094892E-5</v>
+        <v>1.6350317054166576E-5</v>
       </c>
       <c r="T3">
-        <v>4.3376561003870338E-5</v>
+        <v>4.1459971445692779E-5</v>
       </c>
       <c r="U3">
-        <v>-4.4376798007870718E-6</v>
+        <v>-5.687953819296774E-6</v>
       </c>
       <c r="V3">
-        <v>-9.844848137947412E-6</v>
+        <v>-1.4073407875142426E-5</v>
       </c>
       <c r="W3">
-        <v>-1.235078606380614E-5</v>
+        <v>-1.7997999608136259E-5</v>
       </c>
       <c r="X3">
-        <v>-1.1812049956631674E-5</v>
+        <v>-1.809614851394841E-5</v>
       </c>
       <c r="Y3">
-        <v>-6.8264725573438607E-7</v>
+        <v>-3.125953126768938E-7</v>
       </c>
       <c r="Z3">
-        <v>-3.8969290731097067E-6</v>
+        <v>-3.6333345186804788E-6</v>
       </c>
       <c r="AA3">
-        <v>-4.8365193019155484E-6</v>
+        <v>-5.4659309063974479E-6</v>
       </c>
       <c r="AB3">
-        <v>-2.8033623382160244E-6</v>
+        <v>-3.6108449112757374E-6</v>
       </c>
       <c r="AC3">
-        <v>5.9027756576958271E-8</v>
+        <v>1.1001589113463075E-7</v>
       </c>
       <c r="AD3">
-        <v>-4.4426899948051349E-4</v>
+        <v>-4.4016616110077744E-4</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -880,91 +878,91 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.0856931852433326E-4</v>
+        <v>-1.1810947533890744E-4</v>
       </c>
       <c r="C4">
-        <v>-1.090446822645069E-8</v>
+        <v>-1.3509962752792642E-8</v>
       </c>
       <c r="D4">
-        <v>-1.6296514890880731E-7</v>
+        <v>-1.6450841444946048E-7</v>
       </c>
       <c r="E4">
-        <v>1.6153323461597497E-9</v>
+        <v>1.6352311585416057E-9</v>
       </c>
       <c r="F4">
-        <v>-1.1484879298211521E-7</v>
+        <v>-1.4282555968690068E-7</v>
       </c>
       <c r="G4">
-        <v>-1.6187194829856329E-7</v>
+        <v>-1.4563273470580167E-7</v>
       </c>
       <c r="H4">
-        <v>-3.6209166086648265E-8</v>
+        <v>-3.1422362941855789E-8</v>
       </c>
       <c r="I4">
-        <v>-3.3820072590584963E-7</v>
+        <v>-3.247210927302414E-7</v>
       </c>
       <c r="J4">
-        <v>-4.5560765885229701E-8</v>
+        <v>-3.0458896621467268E-8</v>
       </c>
       <c r="K4">
-        <v>-3.3892183999786132E-7</v>
+        <v>-3.2884613109319891E-7</v>
       </c>
       <c r="L4">
-        <v>4.7665225488959132E-8</v>
+        <v>7.1339762301399931E-8</v>
       </c>
       <c r="M4">
-        <v>-7.6172243301555217E-7</v>
+        <v>-6.9206042089966642E-7</v>
       </c>
       <c r="N4">
-        <v>-2.5003437409885293E-7</v>
+        <v>-2.3136738596879015E-7</v>
       </c>
       <c r="O4">
-        <v>-1.1470665775289799E-8</v>
+        <v>-7.5535570137164516E-9</v>
       </c>
       <c r="P4">
-        <v>-1.5800280784693154E-7</v>
+        <v>-1.3897510374806992E-7</v>
       </c>
       <c r="Q4">
-        <v>-1.5121006984309925E-8</v>
+        <v>-1.5656706702342341E-8</v>
       </c>
       <c r="R4">
-        <v>-1.9947457890268053E-8</v>
+        <v>-2.1789884732486552E-8</v>
       </c>
       <c r="S4">
-        <v>-9.1447011966787893E-8</v>
+        <v>-9.7106408810434712E-8</v>
       </c>
       <c r="T4">
-        <v>-3.0077862962711209E-7</v>
+        <v>-2.8023874667571718E-7</v>
       </c>
       <c r="U4">
-        <v>7.087688133208628E-8</v>
+        <v>8.505038219615223E-8</v>
       </c>
       <c r="V4">
-        <v>1.8624593662436579E-7</v>
+        <v>2.3554743986876129E-7</v>
       </c>
       <c r="W4">
-        <v>2.1338652877377401E-7</v>
+        <v>2.8003819889970642E-7</v>
       </c>
       <c r="X4">
-        <v>2.1172046652556011E-7</v>
+        <v>2.859890011933483E-7</v>
       </c>
       <c r="Y4">
-        <v>5.812884994379255E-10</v>
+        <v>-3.8081024578865059E-9</v>
       </c>
       <c r="Z4">
-        <v>2.5817021046322904E-8</v>
+        <v>2.2846286847226332E-8</v>
       </c>
       <c r="AA4">
-        <v>6.3726933631441986E-8</v>
+        <v>7.072236723403303E-8</v>
       </c>
       <c r="AB4">
-        <v>5.3827069543627077E-8</v>
+        <v>6.2457594494170826E-8</v>
       </c>
       <c r="AC4">
-        <v>-7.2583895243118652E-9</v>
+        <v>-7.9695215301163053E-9</v>
       </c>
       <c r="AD4">
-        <v>3.9770462289206568E-6</v>
+        <v>3.9363642204454033E-6</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -972,91 +970,91 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>-0.76050547635561982</v>
+        <v>-0.75692602585298641</v>
       </c>
       <c r="C5">
-        <v>-3.0288560595554534E-5</v>
+        <v>-2.9994801700151595E-5</v>
       </c>
       <c r="D5">
-        <v>1.4127067484059047E-5</v>
+        <v>1.6651219340925577E-5</v>
       </c>
       <c r="E5">
-        <v>-1.1484879298211521E-7</v>
+        <v>-1.4282555968690068E-7</v>
       </c>
       <c r="F5">
-        <v>4.8148251607307027E-2</v>
+        <v>4.8410915962728944E-2</v>
       </c>
       <c r="G5">
-        <v>5.9610490484309994E-4</v>
+        <v>5.7929709889895835E-4</v>
       </c>
       <c r="H5">
-        <v>6.8296588544334278E-4</v>
+        <v>6.7858669926712653E-4</v>
       </c>
       <c r="I5">
-        <v>1.0106581486190565E-3</v>
+        <v>1.0032223479822342E-3</v>
       </c>
       <c r="J5">
-        <v>6.5638012210757332E-4</v>
+        <v>6.4403411179758175E-4</v>
       </c>
       <c r="K5">
-        <v>7.8763760172483835E-4</v>
+        <v>7.7633893744215798E-4</v>
       </c>
       <c r="L5">
-        <v>7.4208610176692018E-4</v>
+        <v>7.1956828324841297E-4</v>
       </c>
       <c r="M5">
-        <v>-5.8784943841006518E-4</v>
+        <v>-6.3776255660283896E-4</v>
       </c>
       <c r="N5">
-        <v>-1.4239771877512861E-4</v>
+        <v>-1.5625969747496953E-4</v>
       </c>
       <c r="O5">
-        <v>-2.118639768311661E-4</v>
+        <v>-2.1191409991915385E-4</v>
       </c>
       <c r="P5">
-        <v>-6.0442166859164847E-5</v>
+        <v>-8.0867492187076939E-5</v>
       </c>
       <c r="Q5">
-        <v>-1.9099412739481333E-6</v>
+        <v>-6.318749866916773E-7</v>
       </c>
       <c r="R5">
-        <v>2.4020654772532232E-5</v>
+        <v>2.6129471047348161E-5</v>
       </c>
       <c r="S5">
-        <v>-4.9821944104405029E-5</v>
+        <v>-4.4617320318033271E-5</v>
       </c>
       <c r="T5">
-        <v>2.6041290090281417E-5</v>
+        <v>1.1466894920357019E-5</v>
       </c>
       <c r="U5">
-        <v>7.9257067635611267E-5</v>
+        <v>7.0203204770739988E-5</v>
       </c>
       <c r="V5">
-        <v>9.7354583388893011E-5</v>
+        <v>5.9330190637222631E-5</v>
       </c>
       <c r="W5">
-        <v>1.7281861347662872E-5</v>
+        <v>-3.9636169228579539E-5</v>
       </c>
       <c r="X5">
-        <v>1.0813954493342284E-4</v>
+        <v>4.5841628705401295E-5</v>
       </c>
       <c r="Y5">
-        <v>-1.2884146797644566E-4</v>
+        <v>-1.2469244340695436E-4</v>
       </c>
       <c r="Z5">
-        <v>6.338412645198811E-5</v>
+        <v>6.4781398482184521E-5</v>
       </c>
       <c r="AA5">
-        <v>1.5478633488684749E-4</v>
+        <v>1.5051387712596877E-4</v>
       </c>
       <c r="AB5">
-        <v>2.4725360124535733E-4</v>
+        <v>2.4155605615208393E-4</v>
       </c>
       <c r="AC5">
-        <v>-2.1514021356464568E-5</v>
+        <v>-2.1582193959812917E-5</v>
       </c>
       <c r="AD5">
-        <v>-6.2737657628069354E-4</v>
+        <v>-6.1654182884119952E-4</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1064,91 +1062,91 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>8.2111793406450501E-2</v>
+        <v>7.5924195898022309E-2</v>
       </c>
       <c r="C6">
-        <v>-4.6483962574506582E-5</v>
+        <v>-4.8456786653664136E-5</v>
       </c>
       <c r="D6">
-        <v>1.5509891425343616E-5</v>
+        <v>1.4123107770112179E-5</v>
       </c>
       <c r="E6">
-        <v>-1.6187194829856329E-7</v>
+        <v>-1.4563273470580167E-7</v>
       </c>
       <c r="F6">
-        <v>5.9610490484309994E-4</v>
+        <v>5.7929709889895835E-4</v>
       </c>
       <c r="G6">
-        <v>1.5259881784030834E-3</v>
+        <v>1.5397429129524866E-3</v>
       </c>
       <c r="H6">
-        <v>6.5240002434948405E-4</v>
+        <v>6.5603461398082213E-4</v>
       </c>
       <c r="I6">
-        <v>9.5579876238144638E-4</v>
+        <v>9.6837133790572412E-4</v>
       </c>
       <c r="J6">
-        <v>8.4844149232978872E-4</v>
+        <v>8.6332550300890652E-4</v>
       </c>
       <c r="K6">
-        <v>9.1643646334329805E-4</v>
+        <v>9.259704563084818E-4</v>
       </c>
       <c r="L6">
-        <v>8.7800441622448526E-4</v>
+        <v>8.9617713760236088E-4</v>
       </c>
       <c r="M6">
-        <v>7.5222917867646803E-5</v>
+        <v>1.2287753285170891E-4</v>
       </c>
       <c r="N6">
-        <v>-1.2660647351996997E-5</v>
+        <v>6.6477859922836545E-6</v>
       </c>
       <c r="O6">
-        <v>7.0689265092283981E-5</v>
+        <v>7.6569344151638074E-5</v>
       </c>
       <c r="P6">
-        <v>1.1978353449106189E-4</v>
+        <v>1.3562556172955149E-4</v>
       </c>
       <c r="Q6">
-        <v>8.573518320166058E-5</v>
+        <v>8.5825061196614222E-5</v>
       </c>
       <c r="R6">
-        <v>1.0833949491080509E-5</v>
+        <v>9.6291734971585738E-6</v>
       </c>
       <c r="S6">
-        <v>4.8745188810582507E-5</v>
+        <v>4.4995285377654571E-5</v>
       </c>
       <c r="T6">
-        <v>1.5626538023171617E-5</v>
+        <v>2.5774875730491921E-5</v>
       </c>
       <c r="U6">
-        <v>1.8440457622407802E-5</v>
+        <v>2.5123895869876286E-5</v>
       </c>
       <c r="V6">
-        <v>1.7906860260436571E-4</v>
+        <v>2.0488603388563273E-4</v>
       </c>
       <c r="W6">
-        <v>4.4343558851244987E-4</v>
+        <v>4.9138176358450817E-4</v>
       </c>
       <c r="X6">
-        <v>6.0289555788687254E-4</v>
+        <v>6.6116837327779936E-4</v>
       </c>
       <c r="Y6">
-        <v>8.2639702475446999E-6</v>
+        <v>5.8113102953187524E-6</v>
       </c>
       <c r="Z6">
-        <v>-2.8290426230795493E-5</v>
+        <v>-3.0125241689514052E-5</v>
       </c>
       <c r="AA6">
-        <v>-2.7807622003076134E-6</v>
+        <v>-1.0093410460025858E-8</v>
       </c>
       <c r="AB6">
-        <v>1.4111238034241326E-5</v>
+        <v>1.6989477676872364E-5</v>
       </c>
       <c r="AC6">
-        <v>2.4293666284853292E-6</v>
+        <v>1.9089802418905972E-6</v>
       </c>
       <c r="AD6">
-        <v>-1.5320678628814566E-3</v>
+        <v>-1.55589952025228E-3</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1156,91 +1154,91 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>0.10010565916112182</v>
+        <v>9.965675441128892E-2</v>
       </c>
       <c r="C7">
-        <v>3.5130773683550722E-5</v>
+        <v>3.5602292080099096E-5</v>
       </c>
       <c r="D7">
-        <v>1.0091787063705614E-5</v>
+        <v>9.6871428450491748E-6</v>
       </c>
       <c r="E7">
-        <v>-3.6209166086648265E-8</v>
+        <v>-3.1422362941855789E-8</v>
       </c>
       <c r="F7">
-        <v>6.8296588544334278E-4</v>
+        <v>6.7858669926712653E-4</v>
       </c>
       <c r="G7">
-        <v>6.5240002434948405E-4</v>
+        <v>6.5603461398082213E-4</v>
       </c>
       <c r="H7">
-        <v>1.2735430851264805E-3</v>
+        <v>1.2745170267285777E-3</v>
       </c>
       <c r="I7">
-        <v>8.282049350527102E-4</v>
+        <v>8.3148543705644645E-4</v>
       </c>
       <c r="J7">
-        <v>7.3305687724542262E-4</v>
+        <v>7.3679659968394786E-4</v>
       </c>
       <c r="K7">
-        <v>6.9231262893382206E-4</v>
+        <v>6.9502697067806089E-4</v>
       </c>
       <c r="L7">
-        <v>7.4751793753798481E-4</v>
+        <v>7.5249566187997688E-4</v>
       </c>
       <c r="M7">
-        <v>2.2466760710547175E-4</v>
+        <v>2.3730971260161574E-4</v>
       </c>
       <c r="N7">
-        <v>-5.5864956739433018E-5</v>
+        <v>-5.1469658773702423E-5</v>
       </c>
       <c r="O7">
-        <v>5.45536416786489E-5</v>
+        <v>5.5740694027123415E-5</v>
       </c>
       <c r="P7">
-        <v>4.8119559784001587E-5</v>
+        <v>5.2047553917254958E-5</v>
       </c>
       <c r="Q7">
-        <v>1.0273648169203058E-5</v>
+        <v>9.6126119039560687E-6</v>
       </c>
       <c r="R7">
-        <v>-2.0319635916172971E-5</v>
+        <v>-2.1238948742530504E-5</v>
       </c>
       <c r="S7">
-        <v>-5.0874329349843826E-5</v>
+        <v>-5.2838652557854417E-5</v>
       </c>
       <c r="T7">
-        <v>-3.2943549635959101E-5</v>
+        <v>-3.1425977872665131E-5</v>
       </c>
       <c r="U7">
-        <v>4.2628230976583575E-5</v>
+        <v>4.4560815378446416E-5</v>
       </c>
       <c r="V7">
-        <v>9.3949493423995298E-5</v>
+        <v>1.0248486911169929E-4</v>
       </c>
       <c r="W7">
-        <v>1.2126683820862809E-4</v>
+        <v>1.3468779257072976E-4</v>
       </c>
       <c r="X7">
-        <v>2.1839067638003179E-4</v>
+        <v>2.3532229800605405E-4</v>
       </c>
       <c r="Y7">
-        <v>-2.4043476876986413E-5</v>
+        <v>-2.4799669389196739E-5</v>
       </c>
       <c r="Z7">
-        <v>2.0767340209128104E-5</v>
+        <v>2.1052785955505052E-5</v>
       </c>
       <c r="AA7">
-        <v>3.5864637323823416E-5</v>
+        <v>3.7732147862168429E-5</v>
       </c>
       <c r="AB7">
-        <v>5.0621967911679559E-5</v>
+        <v>5.2037944284828122E-5</v>
       </c>
       <c r="AC7">
-        <v>-4.2690768630856079E-6</v>
+        <v>-4.5405630521027794E-6</v>
       </c>
       <c r="AD7">
-        <v>-1.1589133772211243E-3</v>
+        <v>-1.1635143896498528E-3</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1248,91 +1246,91 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>0.39626183194749537</v>
+        <v>0.39295197530629727</v>
       </c>
       <c r="C8">
-        <v>-8.7246197149925913E-5</v>
+        <v>-8.8938852067183758E-5</v>
       </c>
       <c r="D8">
-        <v>4.5434724051372636E-5</v>
+        <v>4.4236170492813187E-5</v>
       </c>
       <c r="E8">
-        <v>-3.3820072590584963E-7</v>
+        <v>-3.247210927302414E-7</v>
       </c>
       <c r="F8">
-        <v>1.0106581486190565E-3</v>
+        <v>1.0032223479822342E-3</v>
       </c>
       <c r="G8">
-        <v>9.5579876238144638E-4</v>
+        <v>9.6837133790572412E-4</v>
       </c>
       <c r="H8">
-        <v>8.282049350527102E-4</v>
+        <v>8.3148543705644645E-4</v>
       </c>
       <c r="I8">
-        <v>0.15533515747410123</v>
+        <v>0.15844047255976354</v>
       </c>
       <c r="J8">
-        <v>9.8941909384901803E-4</v>
+        <v>1.0038560410826189E-3</v>
       </c>
       <c r="K8">
-        <v>1.0210672525431995E-3</v>
+        <v>1.0305938121054194E-3</v>
       </c>
       <c r="L8">
-        <v>1.0607830749213203E-3</v>
+        <v>1.0753117147408815E-3</v>
       </c>
       <c r="M8">
-        <v>4.5620151474097645E-4</v>
+        <v>4.9282370854246329E-4</v>
       </c>
       <c r="N8">
-        <v>-4.7215955976874025E-5</v>
+        <v>-2.9283514022913925E-5</v>
       </c>
       <c r="O8">
-        <v>4.4807148554230989E-5</v>
+        <v>5.0661484745079873E-5</v>
       </c>
       <c r="P8">
-        <v>4.1237485265347015E-5</v>
+        <v>5.2930112342305946E-5</v>
       </c>
       <c r="Q8">
-        <v>-1.1708375165054219E-5</v>
+        <v>-1.2484889016471006E-5</v>
       </c>
       <c r="R8">
-        <v>-9.2831917088120051E-5</v>
+        <v>-9.4561161607925018E-5</v>
       </c>
       <c r="S8">
-        <v>-1.764377416236498E-4</v>
+        <v>-1.8019955872715658E-4</v>
       </c>
       <c r="T8">
-        <v>-7.5461656952052303E-5</v>
+        <v>-7.1143917940326038E-5</v>
       </c>
       <c r="U8">
-        <v>8.7348939200055961E-5</v>
+        <v>8.8394357190585507E-5</v>
       </c>
       <c r="V8">
-        <v>2.4992611616608698E-4</v>
+        <v>2.6619894000028756E-4</v>
       </c>
       <c r="W8">
-        <v>6.2738256049527899E-4</v>
+        <v>6.675023678288281E-4</v>
       </c>
       <c r="X8">
-        <v>7.3725525566631714E-4</v>
+        <v>7.8517417964620788E-4</v>
       </c>
       <c r="Y8">
-        <v>-7.593340443597182E-5</v>
+        <v>-7.746464724032552E-5</v>
       </c>
       <c r="Z8">
-        <v>1.2100615254843591E-4</v>
+        <v>1.2448790341160182E-4</v>
       </c>
       <c r="AA8">
-        <v>4.6585067601897742E-5</v>
+        <v>4.6878236900928E-5</v>
       </c>
       <c r="AB8">
-        <v>1.4488340991838065E-5</v>
+        <v>1.1539463242328475E-5</v>
       </c>
       <c r="AC8">
-        <v>-2.190501879276109E-5</v>
+        <v>-2.2652613101717194E-5</v>
       </c>
       <c r="AD8">
-        <v>-2.1854871866099379E-3</v>
+        <v>-2.1980252996440515E-3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -1340,91 +1338,91 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>-8.7897392049414696E-3</v>
+        <v>-1.5084848588849977E-2</v>
       </c>
       <c r="C9">
-        <v>-7.4008190931863094E-5</v>
+        <v>-7.685592233401672E-5</v>
       </c>
       <c r="D9">
-        <v>1.1515243667212412E-5</v>
+        <v>1.0208272606426366E-5</v>
       </c>
       <c r="E9">
-        <v>-4.5560765885229701E-8</v>
+        <v>-3.0458896621467268E-8</v>
       </c>
       <c r="F9">
-        <v>6.5638012210757332E-4</v>
+        <v>6.4403411179758175E-4</v>
       </c>
       <c r="G9">
-        <v>8.4844149232978872E-4</v>
+        <v>8.6332550300890652E-4</v>
       </c>
       <c r="H9">
-        <v>7.3305687724542262E-4</v>
+        <v>7.3679659968394786E-4</v>
       </c>
       <c r="I9">
-        <v>9.8941909384901803E-4</v>
+        <v>1.0038560410826189E-3</v>
       </c>
       <c r="J9">
-        <v>2.0824134399190053E-3</v>
+        <v>2.0984217399851106E-3</v>
       </c>
       <c r="K9">
-        <v>8.4486161251288658E-4</v>
+        <v>8.5529393069448754E-4</v>
       </c>
       <c r="L9">
-        <v>8.8142349629203047E-4</v>
+        <v>8.9968106527643426E-4</v>
       </c>
       <c r="M9">
-        <v>3.9911398582077141E-4</v>
+        <v>4.4195253553442303E-4</v>
       </c>
       <c r="N9">
-        <v>1.1474578270572963E-4</v>
+        <v>1.3257685795744069E-4</v>
       </c>
       <c r="O9">
-        <v>6.8263610347895888E-5</v>
+        <v>7.4128662664675973E-5</v>
       </c>
       <c r="P9">
-        <v>-1.5440519683485157E-5</v>
+        <v>-6.6840644428518446E-7</v>
       </c>
       <c r="Q9">
-        <v>6.357815195818698E-5</v>
+        <v>6.3544283652006302E-5</v>
       </c>
       <c r="R9">
-        <v>-1.7012667336420098E-5</v>
+        <v>-1.8749805176466604E-5</v>
       </c>
       <c r="S9">
-        <v>-1.4963863208369854E-5</v>
+        <v>-1.9117219565215483E-5</v>
       </c>
       <c r="T9">
-        <v>-2.0674247783785988E-5</v>
+        <v>-1.335729036162312E-5</v>
       </c>
       <c r="U9">
-        <v>7.4774547130665534E-5</v>
+        <v>8.0735413247921077E-5</v>
       </c>
       <c r="V9">
-        <v>1.662632660397789E-4</v>
+        <v>1.8867680076309804E-4</v>
       </c>
       <c r="W9">
-        <v>4.7731149424449441E-4</v>
+        <v>5.2330911044234051E-4</v>
       </c>
       <c r="X9">
-        <v>6.6611633844869259E-4</v>
+        <v>7.2249231921210633E-4</v>
       </c>
       <c r="Y9">
-        <v>-2.6123774211195757E-5</v>
+        <v>-2.8319420335645601E-5</v>
       </c>
       <c r="Z9">
-        <v>4.7783956001505931E-5</v>
+        <v>4.745260777046871E-5</v>
       </c>
       <c r="AA9">
-        <v>6.6250480595014371E-5</v>
+        <v>6.9045560613391647E-5</v>
       </c>
       <c r="AB9">
-        <v>6.5660396510896103E-5</v>
+        <v>6.7399779323503838E-5</v>
       </c>
       <c r="AC9">
-        <v>6.5105484849647797E-6</v>
+        <v>6.0515144080299258E-6</v>
       </c>
       <c r="AD9">
-        <v>-1.7719369992303499E-3</v>
+        <v>-1.7949699590989359E-3</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -1432,91 +1430,91 @@
         <v>36</v>
       </c>
       <c r="B10">
-        <v>6.7383927689894296E-3</v>
+        <v>2.7713618978862944E-3</v>
       </c>
       <c r="C10">
-        <v>1.1988913782294086E-5</v>
+        <v>1.1512961108698171E-5</v>
       </c>
       <c r="D10">
-        <v>3.778283214025894E-5</v>
+        <v>3.6932764724733487E-5</v>
       </c>
       <c r="E10">
-        <v>-3.3892183999786132E-7</v>
+        <v>-3.2884613109319891E-7</v>
       </c>
       <c r="F10">
-        <v>7.8763760172483835E-4</v>
+        <v>7.7633893744215798E-4</v>
       </c>
       <c r="G10">
-        <v>9.1643646334329805E-4</v>
+        <v>9.259704563084818E-4</v>
       </c>
       <c r="H10">
-        <v>6.9231262893382206E-4</v>
+        <v>6.9502697067806089E-4</v>
       </c>
       <c r="I10">
-        <v>1.0210672525431995E-3</v>
+        <v>1.0305938121054194E-3</v>
       </c>
       <c r="J10">
-        <v>8.4486161251288658E-4</v>
+        <v>8.5529393069448754E-4</v>
       </c>
       <c r="K10">
-        <v>1.1372839699701912E-3</v>
+        <v>1.1441721271410702E-3</v>
       </c>
       <c r="L10">
-        <v>8.4422817984500741E-4</v>
+        <v>8.5722527953940029E-4</v>
       </c>
       <c r="M10">
-        <v>1.3802211342620952E-4</v>
+        <v>1.7001795839464431E-4</v>
       </c>
       <c r="N10">
-        <v>1.0895347397911376E-4</v>
+        <v>1.2351266525476202E-4</v>
       </c>
       <c r="O10">
-        <v>5.7266216390993764E-5</v>
+        <v>6.1737000103639369E-5</v>
       </c>
       <c r="P10">
-        <v>7.4436951400354864E-5</v>
+        <v>8.5548235265033761E-5</v>
       </c>
       <c r="Q10">
-        <v>3.3598338003831927E-5</v>
+        <v>3.3120161476423685E-5</v>
       </c>
       <c r="R10">
-        <v>1.9919774480018444E-5</v>
+        <v>1.8230105857946263E-5</v>
       </c>
       <c r="S10">
-        <v>5.8682584845139228E-5</v>
+        <v>5.523373368797194E-5</v>
       </c>
       <c r="T10">
-        <v>2.0119259424406519E-5</v>
+        <v>2.6184620062973465E-5</v>
       </c>
       <c r="U10">
-        <v>4.5279962170205609E-5</v>
+        <v>4.9265290693418498E-5</v>
       </c>
       <c r="V10">
-        <v>2.3308524130019885E-4</v>
+        <v>2.5068920601640946E-4</v>
       </c>
       <c r="W10">
-        <v>4.1304696833198884E-4</v>
+        <v>4.4570093925508304E-4</v>
       </c>
       <c r="X10">
-        <v>5.7639284334197764E-4</v>
+        <v>6.1770042698187531E-4</v>
       </c>
       <c r="Y10">
-        <v>-1.000265193619782E-5</v>
+        <v>-1.1649044822977168E-5</v>
       </c>
       <c r="Z10">
-        <v>6.5707277222185786E-6</v>
+        <v>5.7698711555164429E-6</v>
       </c>
       <c r="AA10">
-        <v>-1.0036227100171944E-6</v>
+        <v>9.9128954024474414E-7</v>
       </c>
       <c r="AB10">
-        <v>2.7171873440409939E-5</v>
+        <v>2.9078983658546633E-5</v>
       </c>
       <c r="AC10">
-        <v>1.5444735694732656E-6</v>
+        <v>1.1234248720514231E-6</v>
       </c>
       <c r="AD10">
-        <v>-2.2144542572893272E-3</v>
+        <v>-2.233145656614254E-3</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -1524,91 +1522,91 @@
         <v>37</v>
       </c>
       <c r="B11">
-        <v>-0.18295811650738977</v>
+        <v>-0.18850003728612913</v>
       </c>
       <c r="C11">
-        <v>4.4232088440891728E-5</v>
+        <v>4.3824007452566172E-5</v>
       </c>
       <c r="D11">
-        <v>1.4667202053383052E-6</v>
+        <v>-5.6570157858541406E-7</v>
       </c>
       <c r="E11">
-        <v>4.7665225488959132E-8</v>
+        <v>7.1339762301399931E-8</v>
       </c>
       <c r="F11">
-        <v>7.4208610176692018E-4</v>
+        <v>7.1956828324841297E-4</v>
       </c>
       <c r="G11">
-        <v>8.7800441622448526E-4</v>
+        <v>8.9617713760236088E-4</v>
       </c>
       <c r="H11">
-        <v>7.4751793753798481E-4</v>
+        <v>7.5249566187997688E-4</v>
       </c>
       <c r="I11">
-        <v>1.0607830749213203E-3</v>
+        <v>1.0753117147408815E-3</v>
       </c>
       <c r="J11">
-        <v>8.8142349629203047E-4</v>
+        <v>8.9968106527643426E-4</v>
       </c>
       <c r="K11">
-        <v>8.4422817984500741E-4</v>
+        <v>8.5722527953940029E-4</v>
       </c>
       <c r="L11">
-        <v>2.8832570795439784E-3</v>
+        <v>2.9033084429566265E-3</v>
       </c>
       <c r="M11">
-        <v>2.2775562688759815E-4</v>
+        <v>2.9427742630518572E-4</v>
       </c>
       <c r="N11">
-        <v>7.6988199465695672E-5</v>
+        <v>1.0214088276696404E-4</v>
       </c>
       <c r="O11">
-        <v>1.3708357693041141E-4</v>
+        <v>1.440283240317853E-4</v>
       </c>
       <c r="P11">
-        <v>8.117845372774052E-5</v>
+        <v>1.0276543207785851E-4</v>
       </c>
       <c r="Q11">
-        <v>6.2530087313310864E-5</v>
+        <v>6.1460262361031769E-5</v>
       </c>
       <c r="R11">
-        <v>-2.6902104521503249E-5</v>
+        <v>-2.9095822681616629E-5</v>
       </c>
       <c r="S11">
-        <v>5.1231170630124773E-5</v>
+        <v>4.5154383622500135E-5</v>
       </c>
       <c r="T11">
-        <v>1.2488841401342248E-4</v>
+        <v>1.3760995302645535E-4</v>
       </c>
       <c r="U11">
-        <v>1.1152034487376928E-4</v>
+        <v>1.2168511698483244E-4</v>
       </c>
       <c r="V11">
-        <v>2.722956339309335E-4</v>
+        <v>3.1280571116906015E-4</v>
       </c>
       <c r="W11">
-        <v>4.749904778692374E-4</v>
+        <v>5.4092170484564949E-4</v>
       </c>
       <c r="X11">
-        <v>7.394537427526859E-4</v>
+        <v>8.1904543504798897E-4</v>
       </c>
       <c r="Y11">
-        <v>-8.7521721421263295E-5</v>
+        <v>-9.1124267502424417E-5</v>
       </c>
       <c r="Z11">
-        <v>-5.9614614963864813E-6</v>
+        <v>-7.9578593696511769E-6</v>
       </c>
       <c r="AA11">
-        <v>-5.048299549326548E-5</v>
+        <v>-4.6062305475433123E-5</v>
       </c>
       <c r="AB11">
-        <v>4.2577382538595441E-6</v>
+        <v>8.9404920027217998E-6</v>
       </c>
       <c r="AC11">
-        <v>2.9072928829870868E-6</v>
+        <v>2.1071866677422159E-6</v>
       </c>
       <c r="AD11">
-        <v>-1.5332327918371603E-3</v>
+        <v>-1.5620043054297666E-3</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -1616,91 +1614,91 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>0.19163250056361864</v>
+        <v>0.1693494409267369</v>
       </c>
       <c r="C12">
-        <v>1.6777763578570414E-5</v>
+        <v>1.1283313509137887E-5</v>
       </c>
       <c r="D12">
-        <v>9.2881479086755897E-5</v>
+        <v>8.6885878173154752E-5</v>
       </c>
       <c r="E12">
-        <v>-7.6172243301555217E-7</v>
+        <v>-6.9206042089966642E-7</v>
       </c>
       <c r="F12">
-        <v>-5.8784943841006518E-4</v>
+        <v>-6.3776255660283896E-4</v>
       </c>
       <c r="G12">
-        <v>7.5222917867646803E-5</v>
+        <v>1.2287753285170891E-4</v>
       </c>
       <c r="H12">
-        <v>2.2466760710547175E-4</v>
+        <v>2.3730971260161574E-4</v>
       </c>
       <c r="I12">
-        <v>4.5620151474097645E-4</v>
+        <v>4.9282370854246329E-4</v>
       </c>
       <c r="J12">
-        <v>3.9911398582077141E-4</v>
+        <v>4.4195253553442303E-4</v>
       </c>
       <c r="K12">
-        <v>1.3802211342620952E-4</v>
+        <v>1.7001795839464431E-4</v>
       </c>
       <c r="L12">
-        <v>2.2775562688759815E-4</v>
+        <v>2.9427742630518572E-4</v>
       </c>
       <c r="M12">
-        <v>2.313815312643614E-3</v>
+        <v>2.4628773263375347E-3</v>
       </c>
       <c r="N12">
-        <v>5.6833390532529408E-4</v>
+        <v>6.2145734611609028E-4</v>
       </c>
       <c r="O12">
-        <v>3.2064987264459526E-5</v>
+        <v>4.6305667901356303E-5</v>
       </c>
       <c r="P12">
-        <v>-7.0228547638395331E-5</v>
+        <v>-1.0533554918295955E-5</v>
       </c>
       <c r="Q12">
-        <v>7.9122976030210042E-6</v>
+        <v>4.7066431968171424E-6</v>
       </c>
       <c r="R12">
-        <v>-4.2103540333904396E-5</v>
+        <v>-5.0345485596907553E-5</v>
       </c>
       <c r="S12">
-        <v>3.7445523130034183E-5</v>
+        <v>2.1113513455878522E-5</v>
       </c>
       <c r="T12">
-        <v>-7.3547001261476145E-5</v>
+        <v>-2.669784840277729E-5</v>
       </c>
       <c r="U12">
-        <v>1.5415455233814293E-4</v>
+        <v>1.8623344748680071E-4</v>
       </c>
       <c r="V12">
-        <v>4.8720850638509861E-4</v>
+        <v>6.0333186073440663E-4</v>
       </c>
       <c r="W12">
-        <v>7.0149569737864106E-4</v>
+        <v>8.7711961535056325E-4</v>
       </c>
       <c r="X12">
-        <v>7.8388511199911745E-4</v>
+        <v>9.8391886714822006E-4</v>
       </c>
       <c r="Y12">
-        <v>-3.4700604572199571E-5</v>
+        <v>-4.59493556410208E-5</v>
       </c>
       <c r="Z12">
-        <v>-6.4857795031604657E-5</v>
+        <v>-7.1708992522854958E-5</v>
       </c>
       <c r="AA12">
-        <v>4.1383567177713954E-5</v>
+        <v>5.6456434881620816E-5</v>
       </c>
       <c r="AB12">
-        <v>5.7266201384370162E-5</v>
+        <v>7.566786134163405E-5</v>
       </c>
       <c r="AC12">
-        <v>-1.0663837474658038E-5</v>
+        <v>-1.2443696482285964E-5</v>
       </c>
       <c r="AD12">
-        <v>-3.346969367666883E-3</v>
+        <v>-3.4064766889406002E-3</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -1708,91 +1706,91 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>-3.5334993657603252E-2</v>
+        <v>-4.1304381727000801E-2</v>
       </c>
       <c r="C13">
-        <v>5.5953319924651567E-5</v>
+        <v>5.6310630456918802E-5</v>
       </c>
       <c r="D13">
-        <v>2.2250042582813847E-5</v>
+        <v>2.0684917674601538E-5</v>
       </c>
       <c r="E13">
-        <v>-2.5003437409885293E-7</v>
+        <v>-2.3136738596879015E-7</v>
       </c>
       <c r="F13">
-        <v>-1.4239771877512861E-4</v>
+        <v>-1.5625969747496953E-4</v>
       </c>
       <c r="G13">
-        <v>-1.2660647351996997E-5</v>
+        <v>6.6477859922836545E-6</v>
       </c>
       <c r="H13">
-        <v>-5.5864956739433018E-5</v>
+        <v>-5.1469658773702423E-5</v>
       </c>
       <c r="I13">
-        <v>-4.7215955976874025E-5</v>
+        <v>-2.9283514022913925E-5</v>
       </c>
       <c r="J13">
-        <v>1.1474578270572963E-4</v>
+        <v>1.3257685795744069E-4</v>
       </c>
       <c r="K13">
-        <v>1.0895347397911376E-4</v>
+        <v>1.2351266525476202E-4</v>
       </c>
       <c r="L13">
-        <v>7.6988199465695672E-5</v>
+        <v>1.0214088276696404E-4</v>
       </c>
       <c r="M13">
-        <v>5.6833390532529408E-4</v>
+        <v>6.2145734611609028E-4</v>
       </c>
       <c r="N13">
-        <v>1.0355044386131144E-3</v>
+        <v>1.0558633814117249E-3</v>
       </c>
       <c r="O13">
-        <v>1.5042155523117059E-5</v>
+        <v>2.1317479068237364E-5</v>
       </c>
       <c r="P13">
-        <v>-2.6352772005930857E-5</v>
+        <v>-7.2423135197997716E-6</v>
       </c>
       <c r="Q13">
-        <v>3.4966978684780993E-5</v>
+        <v>3.4126131904624964E-5</v>
       </c>
       <c r="R13">
-        <v>1.0077334859888659E-4</v>
+        <v>9.8332640786354282E-5</v>
       </c>
       <c r="S13">
-        <v>2.2205486577997957E-4</v>
+        <v>2.1675209601894661E-4</v>
       </c>
       <c r="T13">
-        <v>2.574345687735587E-4</v>
+        <v>2.6904788192767121E-4</v>
       </c>
       <c r="U13">
-        <v>1.5718549154543319E-5</v>
+        <v>2.2918808233293579E-5</v>
       </c>
       <c r="V13">
-        <v>2.8191756535852965E-4</v>
+        <v>3.1181249931265943E-4</v>
       </c>
       <c r="W13">
-        <v>5.965367842740339E-4</v>
+        <v>6.534943117463088E-4</v>
       </c>
       <c r="X13">
-        <v>7.3697217533512968E-4</v>
+        <v>8.0464783959886691E-4</v>
       </c>
       <c r="Y13">
-        <v>-6.2355526859710829E-6</v>
+        <v>-9.1918582762697578E-6</v>
       </c>
       <c r="Z13">
-        <v>1.359706826310011E-5</v>
+        <v>1.2135547101695217E-5</v>
       </c>
       <c r="AA13">
-        <v>-1.0961621746382114E-5</v>
+        <v>-7.5258279043242862E-6</v>
       </c>
       <c r="AB13">
-        <v>-3.0011765981332325E-6</v>
+        <v>3.1061448538532033E-7</v>
       </c>
       <c r="AC13">
-        <v>5.7139831235015982E-6</v>
+        <v>5.1507851540163367E-6</v>
       </c>
       <c r="AD13">
-        <v>-1.6060231628778248E-3</v>
+        <v>-1.6376659116148766E-3</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -1800,91 +1798,91 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>7.1787385451457138E-3</v>
+        <v>5.5481603257131178E-3</v>
       </c>
       <c r="C14">
-        <v>-2.8840256476670354E-5</v>
+        <v>-3.0495321007982408E-5</v>
       </c>
       <c r="D14">
-        <v>4.6977136442122731E-6</v>
+        <v>4.3647367269524347E-6</v>
       </c>
       <c r="E14">
-        <v>-1.1470665775289799E-8</v>
+        <v>-7.5535570137164516E-9</v>
       </c>
       <c r="F14">
-        <v>-2.118639768311661E-4</v>
+        <v>-2.1191409991915385E-4</v>
       </c>
       <c r="G14">
-        <v>7.0689265092283981E-5</v>
+        <v>7.6569344151638074E-5</v>
       </c>
       <c r="H14">
-        <v>5.45536416786489E-5</v>
+        <v>5.5740694027123415E-5</v>
       </c>
       <c r="I14">
-        <v>4.4807148554230989E-5</v>
+        <v>5.0661484745079873E-5</v>
       </c>
       <c r="J14">
-        <v>6.8263610347895888E-5</v>
+        <v>7.4128662664675973E-5</v>
       </c>
       <c r="K14">
-        <v>5.7266216390993764E-5</v>
+        <v>6.1737000103639369E-5</v>
       </c>
       <c r="L14">
-        <v>1.3708357693041141E-4</v>
+        <v>1.440283240317853E-4</v>
       </c>
       <c r="M14">
-        <v>3.2064987264459526E-5</v>
+        <v>4.6305667901356303E-5</v>
       </c>
       <c r="N14">
-        <v>1.5042155523117059E-5</v>
+        <v>2.1317479068237364E-5</v>
       </c>
       <c r="O14">
-        <v>7.4495484156694898E-4</v>
+        <v>7.4794386196144714E-4</v>
       </c>
       <c r="P14">
-        <v>6.2625269509408287E-4</v>
+        <v>6.3201297693575261E-4</v>
       </c>
       <c r="Q14">
-        <v>1.394239156036811E-5</v>
+        <v>1.3742051058896658E-5</v>
       </c>
       <c r="R14">
-        <v>6.3935352168144544E-5</v>
+        <v>6.3453070401176686E-5</v>
       </c>
       <c r="S14">
-        <v>1.0652966174377098E-4</v>
+        <v>1.0536245065765097E-4</v>
       </c>
       <c r="T14">
-        <v>1.9726695754410751E-4</v>
+        <v>1.9920600446616865E-4</v>
       </c>
       <c r="U14">
-        <v>4.5352469938515526E-5</v>
+        <v>4.8131331374545524E-5</v>
       </c>
       <c r="V14">
-        <v>6.090625615735866E-5</v>
+        <v>6.9848962494340304E-5</v>
       </c>
       <c r="W14">
-        <v>7.456991525111914E-5</v>
+        <v>8.93717942027804E-5</v>
       </c>
       <c r="X14">
-        <v>2.4893450046370907E-4</v>
+        <v>2.702652556161179E-4</v>
       </c>
       <c r="Y14">
-        <v>2.6763623333086062E-7</v>
+        <v>-5.745202019215084E-7</v>
       </c>
       <c r="Z14">
-        <v>-1.0117653725995762E-5</v>
+        <v>-1.0436390166290389E-5</v>
       </c>
       <c r="AA14">
-        <v>-8.049086669047027E-5</v>
+        <v>-8.0606366586424404E-5</v>
       </c>
       <c r="AB14">
-        <v>-3.2629725973231727E-5</v>
+        <v>-3.207100310766858E-5</v>
       </c>
       <c r="AC14">
-        <v>-2.4071507640015222E-6</v>
+        <v>-2.7066710404196123E-6</v>
       </c>
       <c r="AD14">
-        <v>-9.4212988079484222E-4</v>
+        <v>-9.5113405554368171E-4</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -1892,91 +1890,91 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>-0.12122568670024937</v>
+        <v>-0.12792619617646805</v>
       </c>
       <c r="C15">
-        <v>1.9144875172740716E-5</v>
+        <v>1.6485121100518071E-5</v>
       </c>
       <c r="D15">
-        <v>1.9724604842216205E-5</v>
+        <v>1.8100607353163279E-5</v>
       </c>
       <c r="E15">
-        <v>-1.5800280784693154E-7</v>
+        <v>-1.3897510374806992E-7</v>
       </c>
       <c r="F15">
-        <v>-6.0442166859164847E-5</v>
+        <v>-8.0867492187076939E-5</v>
       </c>
       <c r="G15">
-        <v>1.1978353449106189E-4</v>
+        <v>1.3562556172955149E-4</v>
       </c>
       <c r="H15">
-        <v>4.8119559784001587E-5</v>
+        <v>5.2047553917254958E-5</v>
       </c>
       <c r="I15">
-        <v>4.1237485265347015E-5</v>
+        <v>5.2930112342305946E-5</v>
       </c>
       <c r="J15">
-        <v>-1.5440519683485157E-5</v>
+        <v>-6.6840644428518446E-7</v>
       </c>
       <c r="K15">
-        <v>7.4436951400354864E-5</v>
+        <v>8.5548235265033761E-5</v>
       </c>
       <c r="L15">
-        <v>8.117845372774052E-5</v>
+        <v>1.0276543207785851E-4</v>
       </c>
       <c r="M15">
-        <v>-7.0228547638395331E-5</v>
+        <v>-1.0533554918295955E-5</v>
       </c>
       <c r="N15">
-        <v>-2.6352772005930857E-5</v>
+        <v>-7.2423135197997716E-6</v>
       </c>
       <c r="O15">
-        <v>6.2625269509408287E-4</v>
+        <v>6.3201297693575261E-4</v>
       </c>
       <c r="P15">
-        <v>9.7079772383058317E-4</v>
+        <v>9.8816652141149293E-4</v>
       </c>
       <c r="Q15">
-        <v>-9.7515318101160813E-6</v>
+        <v>-1.0616052265107357E-5</v>
       </c>
       <c r="R15">
-        <v>1.0291486443931747E-4</v>
+        <v>1.0038057565750926E-4</v>
       </c>
       <c r="S15">
-        <v>1.723299783836315E-4</v>
+        <v>1.6708737659502029E-4</v>
       </c>
       <c r="T15">
-        <v>3.2729511392209448E-4</v>
+        <v>3.4036597496612148E-4</v>
       </c>
       <c r="U15">
-        <v>1.0194087373257139E-5</v>
+        <v>2.1754826164116159E-5</v>
       </c>
       <c r="V15">
-        <v>1.9072114284941858E-5</v>
+        <v>5.7269925868806716E-5</v>
       </c>
       <c r="W15">
-        <v>8.7254015380073695E-5</v>
+        <v>1.4335301690129859E-4</v>
       </c>
       <c r="X15">
-        <v>2.572437061079907E-4</v>
+        <v>3.252408949891934E-4</v>
       </c>
       <c r="Y15">
-        <v>7.3095194424077143E-6</v>
+        <v>3.750749272439879E-6</v>
       </c>
       <c r="Z15">
-        <v>1.1115147698239779E-5</v>
+        <v>9.7194984517920481E-6</v>
       </c>
       <c r="AA15">
-        <v>-1.1559730414877029E-4</v>
+        <v>-1.1170540711789129E-4</v>
       </c>
       <c r="AB15">
-        <v>-6.8566931840202054E-5</v>
+        <v>-6.2389965577039591E-5</v>
       </c>
       <c r="AC15">
-        <v>-9.4171581318187099E-7</v>
+        <v>-1.5644579949693563E-6</v>
       </c>
       <c r="AD15">
-        <v>-1.3757216707146133E-3</v>
+        <v>-1.403220276419188E-3</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -1984,91 +1982,91 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-8.4406306144779487E-3</v>
+        <v>-7.4582014073961188E-3</v>
       </c>
       <c r="C16">
-        <v>-3.7409123898879038E-5</v>
+        <v>-3.8601610935795299E-5</v>
       </c>
       <c r="D16">
-        <v>3.9246329770284698E-7</v>
+        <v>4.3467145017882626E-7</v>
       </c>
       <c r="E16">
-        <v>-1.5121006984309925E-8</v>
+        <v>-1.5656706702342341E-8</v>
       </c>
       <c r="F16">
-        <v>-1.9099412739481333E-6</v>
+        <v>-6.318749866916773E-7</v>
       </c>
       <c r="G16">
-        <v>8.573518320166058E-5</v>
+        <v>8.5825061196614222E-5</v>
       </c>
       <c r="H16">
-        <v>1.0273648169203058E-5</v>
+        <v>9.6126119039560687E-6</v>
       </c>
       <c r="I16">
-        <v>-1.1708375165054219E-5</v>
+        <v>-1.2484889016471006E-5</v>
       </c>
       <c r="J16">
-        <v>6.357815195818698E-5</v>
+        <v>6.3544283652006302E-5</v>
       </c>
       <c r="K16">
-        <v>3.3598338003831927E-5</v>
+        <v>3.3120161476423685E-5</v>
       </c>
       <c r="L16">
-        <v>6.2530087313310864E-5</v>
+        <v>6.1460262361031769E-5</v>
       </c>
       <c r="M16">
-        <v>7.9122976030210042E-6</v>
+        <v>4.7066431968171424E-6</v>
       </c>
       <c r="N16">
-        <v>3.4966978684780993E-5</v>
+        <v>3.4126131904624964E-5</v>
       </c>
       <c r="O16">
-        <v>1.394239156036811E-5</v>
+        <v>1.3742051058896658E-5</v>
       </c>
       <c r="P16">
-        <v>-9.7515318101160813E-6</v>
+        <v>-1.0616052265107357E-5</v>
       </c>
       <c r="Q16">
-        <v>3.6648478457204665E-3</v>
+        <v>3.6560092222287541E-3</v>
       </c>
       <c r="R16">
-        <v>2.9793789682289944E-3</v>
+        <v>2.9714446627858672E-3</v>
       </c>
       <c r="S16">
-        <v>3.0033092254243862E-3</v>
+        <v>2.995874629758579E-3</v>
       </c>
       <c r="T16">
-        <v>2.9979214110835151E-3</v>
+        <v>2.9896034276769689E-3</v>
       </c>
       <c r="U16">
-        <v>-4.348806907392437E-5</v>
+        <v>-4.4002262691528432E-5</v>
       </c>
       <c r="V16">
-        <v>-4.1077843802707218E-5</v>
+        <v>-4.3001309074033352E-5</v>
       </c>
       <c r="W16">
-        <v>-5.0551151508961001E-6</v>
+        <v>-7.2348442458853917E-6</v>
       </c>
       <c r="X16">
-        <v>-3.2017793091872627E-6</v>
+        <v>-5.7461587788532336E-6</v>
       </c>
       <c r="Y16">
-        <v>4.1452600738073201E-6</v>
+        <v>4.345699938701562E-6</v>
       </c>
       <c r="Z16">
-        <v>-4.5017936534530231E-5</v>
+        <v>-4.5790092608613304E-5</v>
       </c>
       <c r="AA16">
-        <v>1.5789389938710655E-6</v>
+        <v>2.2321246328270775E-6</v>
       </c>
       <c r="AB16">
-        <v>5.3137933041388051E-7</v>
+        <v>1.0069743427286882E-6</v>
       </c>
       <c r="AC16">
-        <v>2.5553467763045085E-6</v>
+        <v>2.6130965551010425E-6</v>
       </c>
       <c r="AD16">
-        <v>-3.0089011951098879E-3</v>
+        <v>-2.9992981902713816E-3</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -2076,91 +2074,91 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>1.6761576995882838E-2</v>
+        <v>1.7639626563258987E-2</v>
       </c>
       <c r="C17">
-        <v>-1.7007094640890741E-5</v>
+        <v>-1.7724799731967107E-5</v>
       </c>
       <c r="D17">
-        <v>1.4782571347231565E-6</v>
+        <v>1.627645211806295E-6</v>
       </c>
       <c r="E17">
-        <v>-1.9947457890268053E-8</v>
+        <v>-2.1789884732486552E-8</v>
       </c>
       <c r="F17">
-        <v>2.4020654772532232E-5</v>
+        <v>2.6129471047348161E-5</v>
       </c>
       <c r="G17">
-        <v>1.0833949491080509E-5</v>
+        <v>9.6291734971585738E-6</v>
       </c>
       <c r="H17">
-        <v>-2.0319635916172971E-5</v>
+        <v>-2.1238948742530504E-5</v>
       </c>
       <c r="I17">
-        <v>-9.2831917088120051E-5</v>
+        <v>-9.4561161607925018E-5</v>
       </c>
       <c r="J17">
-        <v>-1.7012667336420098E-5</v>
+        <v>-1.8749805176466604E-5</v>
       </c>
       <c r="K17">
-        <v>1.9919774480018444E-5</v>
+        <v>1.8230105857946263E-5</v>
       </c>
       <c r="L17">
-        <v>-2.6902104521503249E-5</v>
+        <v>-2.9095822681616629E-5</v>
       </c>
       <c r="M17">
-        <v>-4.2103540333904396E-5</v>
+        <v>-5.0345485596907553E-5</v>
       </c>
       <c r="N17">
-        <v>1.0077334859888659E-4</v>
+        <v>9.8332640786354282E-5</v>
       </c>
       <c r="O17">
-        <v>6.3935352168144544E-5</v>
+        <v>6.3453070401176686E-5</v>
       </c>
       <c r="P17">
-        <v>1.0291486443931747E-4</v>
+        <v>1.0038057565750926E-4</v>
       </c>
       <c r="Q17">
-        <v>2.9793789682289944E-3</v>
+        <v>2.9714446627858672E-3</v>
       </c>
       <c r="R17">
-        <v>3.2850523219416306E-3</v>
+        <v>3.2775383388123688E-3</v>
       </c>
       <c r="S17">
-        <v>3.0263746986479109E-3</v>
+        <v>3.0199797877742329E-3</v>
       </c>
       <c r="T17">
-        <v>3.0415654638831584E-3</v>
+        <v>3.0333347176274171E-3</v>
       </c>
       <c r="U17">
-        <v>-1.0058853944305525E-4</v>
+        <v>-1.0087639555631808E-4</v>
       </c>
       <c r="V17">
-        <v>-1.6626675038876763E-4</v>
+        <v>-1.7115661792587816E-4</v>
       </c>
       <c r="W17">
-        <v>-1.3778803708224408E-4</v>
+        <v>-1.4505285668995805E-4</v>
       </c>
       <c r="X17">
-        <v>-1.2087003787579882E-4</v>
+        <v>-1.2827309140040882E-4</v>
       </c>
       <c r="Y17">
-        <v>1.716478555516428E-5</v>
+        <v>1.7585199453686831E-5</v>
       </c>
       <c r="Z17">
-        <v>-1.1557884584724939E-5</v>
+        <v>-1.1768744238756167E-5</v>
       </c>
       <c r="AA17">
-        <v>-2.9219035261665582E-5</v>
+        <v>-2.9312438923120594E-5</v>
       </c>
       <c r="AB17">
-        <v>-1.6345309096856908E-5</v>
+        <v>-1.5901169902214282E-5</v>
       </c>
       <c r="AC17">
-        <v>1.3220662028659417E-6</v>
+        <v>1.4002269469135529E-6</v>
       </c>
       <c r="AD17">
-        <v>-3.0221047304212776E-3</v>
+        <v>-3.0104610530649611E-3</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -2168,91 +2166,91 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>5.1119617064254205E-2</v>
+        <v>5.3588327763666156E-2</v>
       </c>
       <c r="C18">
-        <v>-2.3731772375751329E-5</v>
+        <v>-2.4281528836900703E-5</v>
       </c>
       <c r="D18">
-        <v>1.5881539518094892E-5</v>
+        <v>1.6350317054166576E-5</v>
       </c>
       <c r="E18">
-        <v>-9.1447011966787893E-8</v>
+        <v>-9.7106408810434712E-8</v>
       </c>
       <c r="F18">
-        <v>-4.9821944104405029E-5</v>
+        <v>-4.4617320318033271E-5</v>
       </c>
       <c r="G18">
-        <v>4.8745188810582507E-5</v>
+        <v>4.4995285377654571E-5</v>
       </c>
       <c r="H18">
-        <v>-5.0874329349843826E-5</v>
+        <v>-5.2838652557854417E-5</v>
       </c>
       <c r="I18">
-        <v>-1.764377416236498E-4</v>
+        <v>-1.8019955872715658E-4</v>
       </c>
       <c r="J18">
-        <v>-1.4963863208369854E-5</v>
+        <v>-1.9117219565215483E-5</v>
       </c>
       <c r="K18">
-        <v>5.8682584845139228E-5</v>
+        <v>5.523373368797194E-5</v>
       </c>
       <c r="L18">
-        <v>5.1231170630124773E-5</v>
+        <v>4.5154383622500135E-5</v>
       </c>
       <c r="M18">
-        <v>3.7445523130034183E-5</v>
+        <v>2.1113513455878522E-5</v>
       </c>
       <c r="N18">
-        <v>2.2205486577997957E-4</v>
+        <v>2.1675209601894661E-4</v>
       </c>
       <c r="O18">
-        <v>1.0652966174377098E-4</v>
+        <v>1.0536245065765097E-4</v>
       </c>
       <c r="P18">
-        <v>1.723299783836315E-4</v>
+        <v>1.6708737659502029E-4</v>
       </c>
       <c r="Q18">
-        <v>3.0033092254243862E-3</v>
+        <v>2.995874629758579E-3</v>
       </c>
       <c r="R18">
-        <v>3.0263746986479109E-3</v>
+        <v>3.0199797877742329E-3</v>
       </c>
       <c r="S18">
-        <v>3.5043529273669017E-3</v>
+        <v>3.4994759041610548E-3</v>
       </c>
       <c r="T18">
-        <v>3.3919518162987159E-3</v>
+        <v>3.3815273007693205E-3</v>
       </c>
       <c r="U18">
-        <v>-8.4680726281086333E-5</v>
+        <v>-8.7962845326113005E-5</v>
       </c>
       <c r="V18">
-        <v>-1.2714757227014667E-4</v>
+        <v>-1.3968915017133701E-4</v>
       </c>
       <c r="W18">
-        <v>-1.1419972493129725E-4</v>
+        <v>-1.3167404671813948E-4</v>
       </c>
       <c r="X18">
-        <v>-9.0103788622933518E-5</v>
+        <v>-1.0909908728926526E-4</v>
       </c>
       <c r="Y18">
-        <v>1.7334650353572842E-5</v>
+        <v>1.8413231915007761E-5</v>
       </c>
       <c r="Z18">
-        <v>-3.190197380185879E-5</v>
+        <v>-3.2762476024829332E-5</v>
       </c>
       <c r="AA18">
-        <v>3.7090860218985493E-6</v>
+        <v>2.8717852274097802E-6</v>
       </c>
       <c r="AB18">
-        <v>1.4064916578572419E-5</v>
+        <v>1.3706657989752576E-5</v>
       </c>
       <c r="AC18">
-        <v>2.0873649393405832E-7</v>
+        <v>4.9722036481609491E-7</v>
       </c>
       <c r="AD18">
-        <v>-3.8488537466427287E-3</v>
+        <v>-3.834371698435592E-3</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -2260,91 +2258,91 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>1.0353943034810385E-2</v>
+        <v>7.7842035515172719E-3</v>
       </c>
       <c r="C19">
-        <v>3.8131582351490765E-6</v>
+        <v>3.5170058560448974E-6</v>
       </c>
       <c r="D19">
-        <v>4.3376561003870338E-5</v>
+        <v>4.1459971445692779E-5</v>
       </c>
       <c r="E19">
-        <v>-3.0077862962711209E-7</v>
+        <v>-2.8023874667571718E-7</v>
       </c>
       <c r="F19">
-        <v>2.6041290090281417E-5</v>
+        <v>1.1466894920357019E-5</v>
       </c>
       <c r="G19">
-        <v>1.5626538023171617E-5</v>
+        <v>2.5774875730491921E-5</v>
       </c>
       <c r="H19">
-        <v>-3.2943549635959101E-5</v>
+        <v>-3.1425977872665131E-5</v>
       </c>
       <c r="I19">
-        <v>-7.5461656952052303E-5</v>
+        <v>-7.1143917940326038E-5</v>
       </c>
       <c r="J19">
-        <v>-2.0674247783785988E-5</v>
+        <v>-1.335729036162312E-5</v>
       </c>
       <c r="K19">
-        <v>2.0119259424406519E-5</v>
+        <v>2.6184620062973465E-5</v>
       </c>
       <c r="L19">
-        <v>1.2488841401342248E-4</v>
+        <v>1.3760995302645535E-4</v>
       </c>
       <c r="M19">
-        <v>-7.3547001261476145E-5</v>
+        <v>-2.669784840277729E-5</v>
       </c>
       <c r="N19">
-        <v>2.574345687735587E-4</v>
+        <v>2.6904788192767121E-4</v>
       </c>
       <c r="O19">
-        <v>1.9726695754410751E-4</v>
+        <v>1.9920600446616865E-4</v>
       </c>
       <c r="P19">
-        <v>3.2729511392209448E-4</v>
+        <v>3.4036597496612148E-4</v>
       </c>
       <c r="Q19">
-        <v>2.9979214110835151E-3</v>
+        <v>2.9896034276769689E-3</v>
       </c>
       <c r="R19">
-        <v>3.0415654638831584E-3</v>
+        <v>3.0333347176274171E-3</v>
       </c>
       <c r="S19">
-        <v>3.3919518162987159E-3</v>
+        <v>3.3815273007693205E-3</v>
       </c>
       <c r="T19">
-        <v>4.234217106209073E-3</v>
+        <v>4.2258901398387885E-3</v>
       </c>
       <c r="U19">
-        <v>-8.920547728026297E-5</v>
+        <v>-7.9649070402374464E-5</v>
       </c>
       <c r="V19">
-        <v>-9.5473216786919686E-5</v>
+        <v>-6.611164103573745E-5</v>
       </c>
       <c r="W19">
-        <v>-1.0332041388928315E-4</v>
+        <v>-6.2646978597321365E-5</v>
       </c>
       <c r="X19">
-        <v>-5.3033553115525134E-5</v>
+        <v>-5.9206227656681066E-6</v>
       </c>
       <c r="Y19">
-        <v>7.7128823213908591E-6</v>
+        <v>4.740866892594803E-6</v>
       </c>
       <c r="Z19">
-        <v>-3.5909114560733361E-5</v>
+        <v>-3.598999923486393E-5</v>
       </c>
       <c r="AA19">
-        <v>5.2743824093780256E-6</v>
+        <v>8.1500266957907144E-6</v>
       </c>
       <c r="AB19">
-        <v>3.2623512771008667E-5</v>
+        <v>3.6135183751034861E-5</v>
       </c>
       <c r="AC19">
-        <v>-8.4616678351383994E-6</v>
+        <v>-8.853157101686767E-6</v>
       </c>
       <c r="AD19">
-        <v>-4.7219484574980803E-3</v>
+        <v>-4.713237696354261E-3</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -2352,91 +2350,91 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>-2.7766517842394184E-3</v>
+        <v>-1.432253830919021E-3</v>
       </c>
       <c r="C20">
-        <v>-1.9057115947769551E-5</v>
+        <v>-1.9610703433109654E-5</v>
       </c>
       <c r="D20">
-        <v>-4.4376798007870718E-6</v>
+        <v>-5.687953819296774E-6</v>
       </c>
       <c r="E20">
-        <v>7.087688133208628E-8</v>
+        <v>8.505038219615223E-8</v>
       </c>
       <c r="F20">
-        <v>7.9257067635611267E-5</v>
+        <v>7.0203204770739988E-5</v>
       </c>
       <c r="G20">
-        <v>1.8440457622407802E-5</v>
+        <v>2.5123895869876286E-5</v>
       </c>
       <c r="H20">
-        <v>4.2628230976583575E-5</v>
+        <v>4.4560815378446416E-5</v>
       </c>
       <c r="I20">
-        <v>8.7348939200055961E-5</v>
+        <v>8.8394357190585507E-5</v>
       </c>
       <c r="J20">
-        <v>7.4774547130665534E-5</v>
+        <v>8.0735413247921077E-5</v>
       </c>
       <c r="K20">
-        <v>4.5279962170205609E-5</v>
+        <v>4.9265290693418498E-5</v>
       </c>
       <c r="L20">
-        <v>1.1152034487376928E-4</v>
+        <v>1.2168511698483244E-4</v>
       </c>
       <c r="M20">
-        <v>1.5415455233814293E-4</v>
+        <v>1.8623344748680071E-4</v>
       </c>
       <c r="N20">
-        <v>1.5718549154543319E-5</v>
+        <v>2.2918808233293579E-5</v>
       </c>
       <c r="O20">
-        <v>4.5352469938515526E-5</v>
+        <v>4.8131331374545524E-5</v>
       </c>
       <c r="P20">
-        <v>1.0194087373257139E-5</v>
+        <v>2.1754826164116159E-5</v>
       </c>
       <c r="Q20">
-        <v>-4.348806907392437E-5</v>
+        <v>-4.4002262691528432E-5</v>
       </c>
       <c r="R20">
-        <v>-1.0058853944305525E-4</v>
+        <v>-1.0087639555631808E-4</v>
       </c>
       <c r="S20">
-        <v>-8.4680726281086333E-5</v>
+        <v>-8.7962845326113005E-5</v>
       </c>
       <c r="T20">
-        <v>-8.920547728026297E-5</v>
+        <v>-7.9649070402374464E-5</v>
       </c>
       <c r="U20">
-        <v>1.1229113759274427E-3</v>
+        <v>1.1230038894904713E-3</v>
       </c>
       <c r="V20">
-        <v>7.1652285561836146E-4</v>
+        <v>7.3207358801855146E-4</v>
       </c>
       <c r="W20">
-        <v>7.3520722113716163E-4</v>
+        <v>7.5975323077722161E-4</v>
       </c>
       <c r="X20">
-        <v>7.6717612812438095E-4</v>
+        <v>7.961010533673507E-4</v>
       </c>
       <c r="Y20">
-        <v>-4.5126985734511223E-5</v>
+        <v>-4.7274924866088596E-5</v>
       </c>
       <c r="Z20">
-        <v>-1.8620745409963414E-5</v>
+        <v>-2.1077333874939307E-5</v>
       </c>
       <c r="AA20">
-        <v>-7.9245155506339499E-6</v>
+        <v>-5.5762633972294582E-6</v>
       </c>
       <c r="AB20">
-        <v>8.5233923730911303E-7</v>
+        <v>3.9058225289171668E-6</v>
       </c>
       <c r="AC20">
-        <v>-5.6634438702386362E-7</v>
+        <v>-9.7108333139442565E-7</v>
       </c>
       <c r="AD20">
-        <v>-5.9960904058767664E-4</v>
+        <v>-5.9701550402020752E-4</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -2444,91 +2442,91 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>-4.8781669191650619E-2</v>
+        <v>-5.8268169713516761E-2</v>
       </c>
       <c r="C21">
-        <v>-2.7631583841315253E-5</v>
+        <v>-2.8351947015890952E-5</v>
       </c>
       <c r="D21">
-        <v>-9.844848137947412E-6</v>
+        <v>-1.4073407875142426E-5</v>
       </c>
       <c r="E21">
-        <v>1.8624593662436579E-7</v>
+        <v>2.3554743986876129E-7</v>
       </c>
       <c r="F21">
-        <v>9.7354583388893011E-5</v>
+        <v>5.9330190637222631E-5</v>
       </c>
       <c r="G21">
-        <v>1.7906860260436571E-4</v>
+        <v>2.0488603388563273E-4</v>
       </c>
       <c r="H21">
-        <v>9.3949493423995298E-5</v>
+        <v>1.0248486911169929E-4</v>
       </c>
       <c r="I21">
-        <v>2.4992611616608698E-4</v>
+        <v>2.6619894000028756E-4</v>
       </c>
       <c r="J21">
-        <v>1.662632660397789E-4</v>
+        <v>1.8867680076309804E-4</v>
       </c>
       <c r="K21">
-        <v>2.3308524130019885E-4</v>
+        <v>2.5068920601640946E-4</v>
       </c>
       <c r="L21">
-        <v>2.722956339309335E-4</v>
+        <v>3.1280571116906015E-4</v>
       </c>
       <c r="M21">
-        <v>4.8720850638509861E-4</v>
+        <v>6.0333186073440663E-4</v>
       </c>
       <c r="N21">
-        <v>2.8191756535852965E-4</v>
+        <v>3.1181249931265943E-4</v>
       </c>
       <c r="O21">
-        <v>6.090625615735866E-5</v>
+        <v>6.9848962494340304E-5</v>
       </c>
       <c r="P21">
-        <v>1.9072114284941858E-5</v>
+        <v>5.7269925868806716E-5</v>
       </c>
       <c r="Q21">
-        <v>-4.1077843802707218E-5</v>
+        <v>-4.3001309074033352E-5</v>
       </c>
       <c r="R21">
-        <v>-1.6626675038876763E-4</v>
+        <v>-1.7115661792587816E-4</v>
       </c>
       <c r="S21">
-        <v>-1.2714757227014667E-4</v>
+        <v>-1.3968915017133701E-4</v>
       </c>
       <c r="T21">
-        <v>-9.5473216786919686E-5</v>
+        <v>-6.611164103573745E-5</v>
       </c>
       <c r="U21">
-        <v>7.1652285561836146E-4</v>
+        <v>7.3207358801855146E-4</v>
       </c>
       <c r="V21">
-        <v>1.4579239012968053E-3</v>
+        <v>1.543177171337341E-3</v>
       </c>
       <c r="W21">
-        <v>1.181556848692067E-3</v>
+        <v>1.2894325302710459E-3</v>
       </c>
       <c r="X21">
-        <v>1.3078388516952867E-3</v>
+        <v>1.4339579931072015E-3</v>
       </c>
       <c r="Y21">
-        <v>-7.3199610828737663E-5</v>
+        <v>-8.1550957982710496E-5</v>
       </c>
       <c r="Z21">
-        <v>-1.4843096167703609E-6</v>
+        <v>-5.5788672486054048E-6</v>
       </c>
       <c r="AA21">
-        <v>-1.2240604814831198E-5</v>
+        <v>-3.926421203958772E-6</v>
       </c>
       <c r="AB21">
-        <v>-1.5757387900331246E-5</v>
+        <v>-7.2228634225533772E-6</v>
       </c>
       <c r="AC21">
-        <v>-5.4827398737990131E-6</v>
+        <v>-6.8674560454065847E-6</v>
       </c>
       <c r="AD21">
-        <v>-1.1155347580902053E-3</v>
+        <v>-1.1386516811092602E-3</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -2536,91 +2534,91 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>-3.9055602047939827E-2</v>
+        <v>-5.8503194852529403E-2</v>
       </c>
       <c r="C22">
-        <v>-1.5850287951339075E-5</v>
+        <v>-1.7903565143688481E-5</v>
       </c>
       <c r="D22">
-        <v>-1.235078606380614E-5</v>
+        <v>-1.7997999608136259E-5</v>
       </c>
       <c r="E22">
-        <v>2.1338652877377401E-7</v>
+        <v>2.8003819889970642E-7</v>
       </c>
       <c r="F22">
-        <v>1.7281861347662872E-5</v>
+        <v>-3.9636169228579539E-5</v>
       </c>
       <c r="G22">
-        <v>4.4343558851244987E-4</v>
+        <v>4.9138176358450817E-4</v>
       </c>
       <c r="H22">
-        <v>1.2126683820862809E-4</v>
+        <v>1.3468779257072976E-4</v>
       </c>
       <c r="I22">
-        <v>6.2738256049527899E-4</v>
+        <v>6.675023678288281E-4</v>
       </c>
       <c r="J22">
-        <v>4.7731149424449441E-4</v>
+        <v>5.2330911044234051E-4</v>
       </c>
       <c r="K22">
-        <v>4.1304696833198884E-4</v>
+        <v>4.4570093925508304E-4</v>
       </c>
       <c r="L22">
-        <v>4.749904778692374E-4</v>
+        <v>5.4092170484564949E-4</v>
       </c>
       <c r="M22">
-        <v>7.0149569737864106E-4</v>
+        <v>8.7711961535056325E-4</v>
       </c>
       <c r="N22">
-        <v>5.965367842740339E-4</v>
+        <v>6.534943117463088E-4</v>
       </c>
       <c r="O22">
-        <v>7.456991525111914E-5</v>
+        <v>8.93717942027804E-5</v>
       </c>
       <c r="P22">
-        <v>8.7254015380073695E-5</v>
+        <v>1.4335301690129859E-4</v>
       </c>
       <c r="Q22">
-        <v>-5.0551151508961001E-6</v>
+        <v>-7.2348442458853917E-6</v>
       </c>
       <c r="R22">
-        <v>-1.3778803708224408E-4</v>
+        <v>-1.4505285668995805E-4</v>
       </c>
       <c r="S22">
-        <v>-1.1419972493129725E-4</v>
+        <v>-1.3167404671813948E-4</v>
       </c>
       <c r="T22">
-        <v>-1.0332041388928315E-4</v>
+        <v>-6.2646978597321365E-5</v>
       </c>
       <c r="U22">
-        <v>7.3520722113716163E-4</v>
+        <v>7.5975323077722161E-4</v>
       </c>
       <c r="V22">
-        <v>1.181556848692067E-3</v>
+        <v>1.2894325302710459E-3</v>
       </c>
       <c r="W22">
-        <v>1.9951188641928173E-3</v>
+        <v>2.1762188421693904E-3</v>
       </c>
       <c r="X22">
-        <v>1.7378215247588515E-3</v>
+        <v>1.9364495606816684E-3</v>
       </c>
       <c r="Y22">
-        <v>-3.733706622976203E-5</v>
+        <v>-4.7623960717977036E-5</v>
       </c>
       <c r="Z22">
-        <v>-1.97511204982259E-5</v>
+        <v>-2.5911424923522912E-5</v>
       </c>
       <c r="AA22">
-        <v>-4.2749205502508802E-5</v>
+        <v>-3.1830909818298335E-5</v>
       </c>
       <c r="AB22">
-        <v>-1.4384174130217613E-5</v>
+        <v>-2.8686340434021457E-6</v>
       </c>
       <c r="AC22">
-        <v>-7.9278342152638506E-6</v>
+        <v>-9.8535882423835843E-6</v>
       </c>
       <c r="AD22">
-        <v>-1.614796790293512E-3</v>
+        <v>-1.6813031951556192E-3</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -2628,91 +2626,91 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>-3.8467245679269964E-3</v>
+        <v>-2.5048746384850627E-2</v>
       </c>
       <c r="C23">
-        <v>-2.4966441373417755E-6</v>
+        <v>-6.2932608195010901E-6</v>
       </c>
       <c r="D23">
-        <v>-1.1812049956631674E-5</v>
+        <v>-1.809614851394841E-5</v>
       </c>
       <c r="E23">
-        <v>2.1172046652556011E-7</v>
+        <v>2.859890011933483E-7</v>
       </c>
       <c r="F23">
-        <v>1.0813954493342284E-4</v>
+        <v>4.5841628705401295E-5</v>
       </c>
       <c r="G23">
-        <v>6.0289555788687254E-4</v>
+        <v>6.6116837327779936E-4</v>
       </c>
       <c r="H23">
-        <v>2.1839067638003179E-4</v>
+        <v>2.3532229800605405E-4</v>
       </c>
       <c r="I23">
-        <v>7.3725525566631714E-4</v>
+        <v>7.8517417964620788E-4</v>
       </c>
       <c r="J23">
-        <v>6.6611633844869259E-4</v>
+        <v>7.2249231921210633E-4</v>
       </c>
       <c r="K23">
-        <v>5.7639284334197764E-4</v>
+        <v>6.1770042698187531E-4</v>
       </c>
       <c r="L23">
-        <v>7.394537427526859E-4</v>
+        <v>8.1904543504798897E-4</v>
       </c>
       <c r="M23">
-        <v>7.8388511199911745E-4</v>
+        <v>9.8391886714822006E-4</v>
       </c>
       <c r="N23">
-        <v>7.3697217533512968E-4</v>
+        <v>8.0464783959886691E-4</v>
       </c>
       <c r="O23">
-        <v>2.4893450046370907E-4</v>
+        <v>2.702652556161179E-4</v>
       </c>
       <c r="P23">
-        <v>2.572437061079907E-4</v>
+        <v>3.252408949891934E-4</v>
       </c>
       <c r="Q23">
-        <v>-3.2017793091872627E-6</v>
+        <v>-5.7461587788532336E-6</v>
       </c>
       <c r="R23">
-        <v>-1.2087003787579882E-4</v>
+        <v>-1.2827309140040882E-4</v>
       </c>
       <c r="S23">
-        <v>-9.0103788622933518E-5</v>
+        <v>-1.0909908728926526E-4</v>
       </c>
       <c r="T23">
-        <v>-5.3033553115525134E-5</v>
+        <v>-5.9206227656681066E-6</v>
       </c>
       <c r="U23">
-        <v>7.6717612812438095E-4</v>
+        <v>7.961010533673507E-4</v>
       </c>
       <c r="V23">
-        <v>1.3078388516952867E-3</v>
+        <v>1.4339579931072015E-3</v>
       </c>
       <c r="W23">
-        <v>1.7378215247588515E-3</v>
+        <v>1.9364495606816684E-3</v>
       </c>
       <c r="X23">
-        <v>2.446835967601646E-3</v>
+        <v>2.6881786865619772E-3</v>
       </c>
       <c r="Y23">
-        <v>-6.2719579050219876E-5</v>
+        <v>-7.4681090492866061E-5</v>
       </c>
       <c r="Z23">
-        <v>-6.1844370644382129E-5</v>
+        <v>-6.90795387540385E-5</v>
       </c>
       <c r="AA23">
-        <v>2.1547621427973115E-5</v>
+        <v>3.5995399121339531E-5</v>
       </c>
       <c r="AB23">
-        <v>8.0966710195043206E-5</v>
+        <v>9.6756427574099099E-5</v>
       </c>
       <c r="AC23">
-        <v>-7.1489349317638501E-6</v>
+        <v>-9.7392316492405707E-6</v>
       </c>
       <c r="AD23">
-        <v>-2.169548169154004E-3</v>
+        <v>-2.2536634477345464E-3</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -2720,91 +2718,91 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>-3.9415584317693715E-2</v>
+        <v>-3.7969906055846901E-2</v>
       </c>
       <c r="C24">
-        <v>1.1342369515994708E-5</v>
+        <v>1.1647246696488665E-5</v>
       </c>
       <c r="D24">
-        <v>-6.8264725573438607E-7</v>
+        <v>-3.125953126768938E-7</v>
       </c>
       <c r="E24">
-        <v>5.812884994379255E-10</v>
+        <v>-3.8081024578865059E-9</v>
       </c>
       <c r="F24">
-        <v>-1.2884146797644566E-4</v>
+        <v>-1.2469244340695436E-4</v>
       </c>
       <c r="G24">
-        <v>8.2639702475446999E-6</v>
+        <v>5.8113102953187524E-6</v>
       </c>
       <c r="H24">
-        <v>-2.4043476876986413E-5</v>
+        <v>-2.4799669389196739E-5</v>
       </c>
       <c r="I24">
-        <v>-7.593340443597182E-5</v>
+        <v>-7.746464724032552E-5</v>
       </c>
       <c r="J24">
-        <v>-2.6123774211195757E-5</v>
+        <v>-2.8319420335645601E-5</v>
       </c>
       <c r="K24">
-        <v>-1.000265193619782E-5</v>
+        <v>-1.1649044822977168E-5</v>
       </c>
       <c r="L24">
-        <v>-8.7521721421263295E-5</v>
+        <v>-9.1124267502424417E-5</v>
       </c>
       <c r="M24">
-        <v>-3.4700604572199571E-5</v>
+        <v>-4.59493556410208E-5</v>
       </c>
       <c r="N24">
-        <v>-6.2355526859710829E-6</v>
+        <v>-9.1918582762697578E-6</v>
       </c>
       <c r="O24">
-        <v>2.6763623333086062E-7</v>
+        <v>-5.745202019215084E-7</v>
       </c>
       <c r="P24">
-        <v>7.3095194424077143E-6</v>
+        <v>3.750749272439879E-6</v>
       </c>
       <c r="Q24">
-        <v>4.1452600738073201E-6</v>
+        <v>4.345699938701562E-6</v>
       </c>
       <c r="R24">
-        <v>1.716478555516428E-5</v>
+        <v>1.7585199453686831E-5</v>
       </c>
       <c r="S24">
-        <v>1.7334650353572842E-5</v>
+        <v>1.8413231915007761E-5</v>
       </c>
       <c r="T24">
-        <v>7.7128823213908591E-6</v>
+        <v>4.740866892594803E-6</v>
       </c>
       <c r="U24">
-        <v>-4.5126985734511223E-5</v>
+        <v>-4.7274924866088596E-5</v>
       </c>
       <c r="V24">
-        <v>-7.3199610828737663E-5</v>
+        <v>-8.1550957982710496E-5</v>
       </c>
       <c r="W24">
-        <v>-3.733706622976203E-5</v>
+        <v>-4.7623960717977036E-5</v>
       </c>
       <c r="X24">
-        <v>-6.2719579050219876E-5</v>
+        <v>-7.4681090492866061E-5</v>
       </c>
       <c r="Y24">
-        <v>5.0015360700279081E-5</v>
+        <v>5.0799627194016354E-5</v>
       </c>
       <c r="Z24">
-        <v>2.1842242259050147E-5</v>
+        <v>2.2715097038470133E-5</v>
       </c>
       <c r="AA24">
-        <v>-1.7073558137765823E-5</v>
+        <v>-1.8196391516843783E-5</v>
       </c>
       <c r="AB24">
-        <v>-2.4049806210192064E-5</v>
+        <v>-2.5462931566400986E-5</v>
       </c>
       <c r="AC24">
-        <v>1.4815284959770003E-6</v>
+        <v>1.6113897047876372E-6</v>
       </c>
       <c r="AD24">
-        <v>1.9827781344031855E-5</v>
+        <v>2.3087186717192971E-5</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -2812,91 +2810,91 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>2.821655515437437</v>
+        <v>2.8206687266242949</v>
       </c>
       <c r="C25">
-        <v>-7.2571849706573154E-6</v>
+        <v>-7.1833626879621248E-6</v>
       </c>
       <c r="D25">
-        <v>-3.8969290731097067E-6</v>
+        <v>-3.6333345186804788E-6</v>
       </c>
       <c r="E25">
-        <v>2.5817021046322904E-8</v>
+        <v>2.2846286847226332E-8</v>
       </c>
       <c r="F25">
-        <v>6.338412645198811E-5</v>
+        <v>6.4781398482184521E-5</v>
       </c>
       <c r="G25">
-        <v>-2.8290426230795493E-5</v>
+        <v>-3.0125241689514052E-5</v>
       </c>
       <c r="H25">
-        <v>2.0767340209128104E-5</v>
+        <v>2.1052785955505052E-5</v>
       </c>
       <c r="I25">
-        <v>1.2100615254843591E-4</v>
+        <v>1.2448790341160182E-4</v>
       </c>
       <c r="J25">
-        <v>4.7783956001505931E-5</v>
+        <v>4.745260777046871E-5</v>
       </c>
       <c r="K25">
-        <v>6.5707277222185786E-6</v>
+        <v>5.7698711555164429E-6</v>
       </c>
       <c r="L25">
-        <v>-5.9614614963864813E-6</v>
+        <v>-7.9578593696511769E-6</v>
       </c>
       <c r="M25">
-        <v>-6.4857795031604657E-5</v>
+        <v>-7.1708992522854958E-5</v>
       </c>
       <c r="N25">
-        <v>1.359706826310011E-5</v>
+        <v>1.2135547101695217E-5</v>
       </c>
       <c r="O25">
-        <v>-1.0117653725995762E-5</v>
+        <v>-1.0436390166290389E-5</v>
       </c>
       <c r="P25">
-        <v>1.1115147698239779E-5</v>
+        <v>9.7194984517920481E-6</v>
       </c>
       <c r="Q25">
-        <v>-4.5017936534530231E-5</v>
+        <v>-4.5790092608613304E-5</v>
       </c>
       <c r="R25">
-        <v>-1.1557884584724939E-5</v>
+        <v>-1.1768744238756167E-5</v>
       </c>
       <c r="S25">
-        <v>-3.190197380185879E-5</v>
+        <v>-3.2762476024829332E-5</v>
       </c>
       <c r="T25">
-        <v>-3.5909114560733361E-5</v>
+        <v>-3.598999923486393E-5</v>
       </c>
       <c r="U25">
-        <v>-1.8620745409963414E-5</v>
+        <v>-2.1077333874939307E-5</v>
       </c>
       <c r="V25">
-        <v>-1.4843096167703609E-6</v>
+        <v>-5.5788672486054048E-6</v>
       </c>
       <c r="W25">
-        <v>-1.97511204982259E-5</v>
+        <v>-2.5911424923522912E-5</v>
       </c>
       <c r="X25">
-        <v>-6.1844370644382129E-5</v>
+        <v>-6.90795387540385E-5</v>
       </c>
       <c r="Y25">
-        <v>2.1842242259050147E-5</v>
+        <v>2.2715097038470133E-5</v>
       </c>
       <c r="Z25">
-        <v>6.3486934074557372E-4</v>
+        <v>6.4620624257407397E-4</v>
       </c>
       <c r="AA25">
-        <v>-4.2532640396488014E-5</v>
+        <v>-4.3860425802981081E-5</v>
       </c>
       <c r="AB25">
-        <v>-5.7401183139088152E-5</v>
+        <v>-6.0059150752220415E-5</v>
       </c>
       <c r="AC25">
-        <v>5.631982860058705E-6</v>
+        <v>5.7389437288298666E-6</v>
       </c>
       <c r="AD25">
-        <v>-3.1840192183786923E-4</v>
+        <v>-3.2456043645599748E-4</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -2904,91 +2902,91 @@
         <v>39</v>
       </c>
       <c r="B26">
-        <v>9.6029649680663409E-3</v>
+        <v>6.7966590948947891E-3</v>
       </c>
       <c r="C26">
-        <v>-1.5611339308177472E-5</v>
+        <v>-1.3242873499830077E-5</v>
       </c>
       <c r="D26">
-        <v>-4.8365193019155484E-6</v>
+        <v>-5.4659309063974479E-6</v>
       </c>
       <c r="E26">
-        <v>6.3726933631441986E-8</v>
+        <v>7.072236723403303E-8</v>
       </c>
       <c r="F26">
-        <v>1.5478633488684749E-4</v>
+        <v>1.5051387712596877E-4</v>
       </c>
       <c r="G26">
-        <v>-2.7807622003076134E-6</v>
+        <v>-1.0093410460025858E-8</v>
       </c>
       <c r="H26">
-        <v>3.5864637323823416E-5</v>
+        <v>3.7732147862168429E-5</v>
       </c>
       <c r="I26">
-        <v>4.6585067601897742E-5</v>
+        <v>4.6878236900928E-5</v>
       </c>
       <c r="J26">
-        <v>6.6250480595014371E-5</v>
+        <v>6.9045560613391647E-5</v>
       </c>
       <c r="K26">
-        <v>-1.0036227100171944E-6</v>
+        <v>9.9128954024474414E-7</v>
       </c>
       <c r="L26">
-        <v>-5.048299549326548E-5</v>
+        <v>-4.6062305475433123E-5</v>
       </c>
       <c r="M26">
-        <v>4.1383567177713954E-5</v>
+        <v>5.6456434881620816E-5</v>
       </c>
       <c r="N26">
-        <v>-1.0961621746382114E-5</v>
+        <v>-7.5258279043242862E-6</v>
       </c>
       <c r="O26">
-        <v>-8.049086669047027E-5</v>
+        <v>-8.0606366586424404E-5</v>
       </c>
       <c r="P26">
-        <v>-1.1559730414877029E-4</v>
+        <v>-1.1170540711789129E-4</v>
       </c>
       <c r="Q26">
-        <v>1.5789389938710655E-6</v>
+        <v>2.2321246328270775E-6</v>
       </c>
       <c r="R26">
-        <v>-2.9219035261665582E-5</v>
+        <v>-2.9312438923120594E-5</v>
       </c>
       <c r="S26">
-        <v>3.7090860218985493E-6</v>
+        <v>2.8717852274097802E-6</v>
       </c>
       <c r="T26">
-        <v>5.2743824093780256E-6</v>
+        <v>8.1500266957907144E-6</v>
       </c>
       <c r="U26">
-        <v>-7.9245155506339499E-6</v>
+        <v>-5.5762633972294582E-6</v>
       </c>
       <c r="V26">
-        <v>-1.2240604814831198E-5</v>
+        <v>-3.926421203958772E-6</v>
       </c>
       <c r="W26">
-        <v>-4.2749205502508802E-5</v>
+        <v>-3.1830909818298335E-5</v>
       </c>
       <c r="X26">
-        <v>2.1547621427973115E-5</v>
+        <v>3.5995399121339531E-5</v>
       </c>
       <c r="Y26">
-        <v>-1.7073558137765823E-5</v>
+        <v>-1.8196391516843783E-5</v>
       </c>
       <c r="Z26">
-        <v>-4.2532640396488014E-5</v>
+        <v>-4.3860425802981081E-5</v>
       </c>
       <c r="AA26">
-        <v>6.0112224569724049E-4</v>
+        <v>6.0932158886954212E-4</v>
       </c>
       <c r="AB26">
-        <v>3.7237533845454725E-4</v>
+        <v>3.7667569243945878E-4</v>
       </c>
       <c r="AC26">
-        <v>-1.2190304360221191E-5</v>
+        <v>-1.2402794569501609E-5</v>
       </c>
       <c r="AD26">
-        <v>2.3030866521173908E-5</v>
+        <v>2.0867652028259959E-5</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -2996,91 +2994,91 @@
         <v>40</v>
       </c>
       <c r="B27">
-        <v>5.7153292287446457E-2</v>
+        <v>5.3518827608091291E-2</v>
       </c>
       <c r="C27">
-        <v>-5.3912868974581184E-6</v>
+        <v>-3.4063343145693693E-6</v>
       </c>
       <c r="D27">
-        <v>-2.8033623382160244E-6</v>
+        <v>-3.6108449112757374E-6</v>
       </c>
       <c r="E27">
-        <v>5.3827069543627077E-8</v>
+        <v>6.2457594494170826E-8</v>
       </c>
       <c r="F27">
-        <v>2.4725360124535733E-4</v>
+        <v>2.4155605615208393E-4</v>
       </c>
       <c r="G27">
-        <v>1.4111238034241326E-5</v>
+        <v>1.6989477676872364E-5</v>
       </c>
       <c r="H27">
-        <v>5.0621967911679559E-5</v>
+        <v>5.2037944284828122E-5</v>
       </c>
       <c r="I27">
-        <v>1.4488340991838065E-5</v>
+        <v>1.1539463242328475E-5</v>
       </c>
       <c r="J27">
-        <v>6.5660396510896103E-5</v>
+        <v>6.7399779323503838E-5</v>
       </c>
       <c r="K27">
-        <v>2.7171873440409939E-5</v>
+        <v>2.9078983658546633E-5</v>
       </c>
       <c r="L27">
-        <v>4.2577382538595441E-6</v>
+        <v>8.9404920027217998E-6</v>
       </c>
       <c r="M27">
-        <v>5.7266201384370162E-5</v>
+        <v>7.566786134163405E-5</v>
       </c>
       <c r="N27">
-        <v>-3.0011765981332325E-6</v>
+        <v>3.1061448538532033E-7</v>
       </c>
       <c r="O27">
-        <v>-3.2629725973231727E-5</v>
+        <v>-3.207100310766858E-5</v>
       </c>
       <c r="P27">
-        <v>-6.8566931840202054E-5</v>
+        <v>-6.2389965577039591E-5</v>
       </c>
       <c r="Q27">
-        <v>5.3137933041388051E-7</v>
+        <v>1.0069743427286882E-6</v>
       </c>
       <c r="R27">
-        <v>-1.6345309096856908E-5</v>
+        <v>-1.5901169902214282E-5</v>
       </c>
       <c r="S27">
-        <v>1.4064916578572419E-5</v>
+        <v>1.3706657989752576E-5</v>
       </c>
       <c r="T27">
-        <v>3.2623512771008667E-5</v>
+        <v>3.6135183751034861E-5</v>
       </c>
       <c r="U27">
-        <v>8.5233923730911303E-7</v>
+        <v>3.9058225289171668E-6</v>
       </c>
       <c r="V27">
-        <v>-1.5757387900331246E-5</v>
+        <v>-7.2228634225533772E-6</v>
       </c>
       <c r="W27">
-        <v>-1.4384174130217613E-5</v>
+        <v>-2.8686340434021457E-6</v>
       </c>
       <c r="X27">
-        <v>8.0966710195043206E-5</v>
+        <v>9.6756427574099099E-5</v>
       </c>
       <c r="Y27">
-        <v>-2.4049806210192064E-5</v>
+        <v>-2.5462931566400986E-5</v>
       </c>
       <c r="Z27">
-        <v>-5.7401183139088152E-5</v>
+        <v>-6.0059150752220415E-5</v>
       </c>
       <c r="AA27">
-        <v>3.7237533845454725E-4</v>
+        <v>3.7667569243945878E-4</v>
       </c>
       <c r="AB27">
-        <v>5.16199879656372E-4</v>
+        <v>5.2343112008707189E-4</v>
       </c>
       <c r="AC27">
-        <v>-1.4268434411921812E-5</v>
+        <v>-1.4472019947989573E-5</v>
       </c>
       <c r="AD27">
-        <v>-1.0372507424774567E-4</v>
+        <v>-1.0244896070965313E-4</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -3088,91 +3086,91 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>1.3427056219404083E-2</v>
+        <v>1.357176777060916E-2</v>
       </c>
       <c r="C28">
-        <v>-1.0452643220161732E-7</v>
+        <v>-3.2189227123777386E-7</v>
       </c>
       <c r="D28">
-        <v>5.9027756576958271E-8</v>
+        <v>1.1001589113463075E-7</v>
       </c>
       <c r="E28">
-        <v>-7.2583895243118652E-9</v>
+        <v>-7.9695215301163053E-9</v>
       </c>
       <c r="F28">
-        <v>-2.1514021356464568E-5</v>
+        <v>-2.1582193959812917E-5</v>
       </c>
       <c r="G28">
-        <v>2.4293666284853292E-6</v>
+        <v>1.9089802418905972E-6</v>
       </c>
       <c r="H28">
-        <v>-4.2690768630856079E-6</v>
+        <v>-4.5405630521027794E-6</v>
       </c>
       <c r="I28">
-        <v>-2.190501879276109E-5</v>
+        <v>-2.2652613101717194E-5</v>
       </c>
       <c r="J28">
-        <v>6.5105484849647797E-6</v>
+        <v>6.0515144080299258E-6</v>
       </c>
       <c r="K28">
-        <v>1.5444735694732656E-6</v>
+        <v>1.1234248720514231E-6</v>
       </c>
       <c r="L28">
-        <v>2.9072928829870868E-6</v>
+        <v>2.1071866677422159E-6</v>
       </c>
       <c r="M28">
-        <v>-1.0663837474658038E-5</v>
+        <v>-1.2443696482285964E-5</v>
       </c>
       <c r="N28">
-        <v>5.7139831235015982E-6</v>
+        <v>5.1507851540163367E-6</v>
       </c>
       <c r="O28">
-        <v>-2.4071507640015222E-6</v>
+        <v>-2.7066710404196123E-6</v>
       </c>
       <c r="P28">
-        <v>-9.4171581318187099E-7</v>
+        <v>-1.5644579949693563E-6</v>
       </c>
       <c r="Q28">
-        <v>2.5553467763045085E-6</v>
+        <v>2.6130965551010425E-6</v>
       </c>
       <c r="R28">
-        <v>1.3220662028659417E-6</v>
+        <v>1.4002269469135529E-6</v>
       </c>
       <c r="S28">
-        <v>2.0873649393405832E-7</v>
+        <v>4.9722036481609491E-7</v>
       </c>
       <c r="T28">
-        <v>-8.4616678351383994E-6</v>
+        <v>-8.853157101686767E-6</v>
       </c>
       <c r="U28">
-        <v>-5.6634438702386362E-7</v>
+        <v>-9.7108333139442565E-7</v>
       </c>
       <c r="V28">
-        <v>-5.4827398737990131E-6</v>
+        <v>-6.8674560454065847E-6</v>
       </c>
       <c r="W28">
-        <v>-7.9278342152638506E-6</v>
+        <v>-9.8535882423835843E-6</v>
       </c>
       <c r="X28">
-        <v>-7.1489349317638501E-6</v>
+        <v>-9.7392316492405707E-6</v>
       </c>
       <c r="Y28">
-        <v>1.4815284959770003E-6</v>
+        <v>1.6113897047876372E-6</v>
       </c>
       <c r="Z28">
-        <v>5.631982860058705E-6</v>
+        <v>5.7389437288298666E-6</v>
       </c>
       <c r="AA28">
-        <v>-1.2190304360221191E-5</v>
+        <v>-1.2402794569501609E-5</v>
       </c>
       <c r="AB28">
-        <v>-1.4268434411921812E-5</v>
+        <v>-1.4472019947989573E-5</v>
       </c>
       <c r="AC28">
-        <v>8.3574524109262957E-6</v>
+        <v>8.5142059127245173E-6</v>
       </c>
       <c r="AD28">
-        <v>-9.571063497494047E-5</v>
+        <v>-9.6137958120475717E-5</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -3180,91 +3178,91 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>-1.4735105928764414</v>
+        <v>-1.4752424918368394</v>
       </c>
       <c r="C29">
-        <v>-2.0489787544782681E-4</v>
+        <v>-2.0780715512158302E-4</v>
       </c>
       <c r="D29">
-        <v>-4.4426899948051349E-4</v>
+        <v>-4.4016616110077744E-4</v>
       </c>
       <c r="E29">
-        <v>3.9770462289206568E-6</v>
+        <v>3.9363642204454033E-6</v>
       </c>
       <c r="F29">
-        <v>-6.2737657628069354E-4</v>
+        <v>-6.1654182884119952E-4</v>
       </c>
       <c r="G29">
-        <v>-1.5320678628814566E-3</v>
+        <v>-1.55589952025228E-3</v>
       </c>
       <c r="H29">
-        <v>-1.1589133772211243E-3</v>
+        <v>-1.1635143896498528E-3</v>
       </c>
       <c r="I29">
-        <v>-2.1854871866099379E-3</v>
+        <v>-2.1980252996440515E-3</v>
       </c>
       <c r="J29">
-        <v>-1.7719369992303499E-3</v>
+        <v>-1.7949699590989359E-3</v>
       </c>
       <c r="K29">
-        <v>-2.2144542572893272E-3</v>
+        <v>-2.233145656614254E-3</v>
       </c>
       <c r="L29">
-        <v>-1.5332327918371603E-3</v>
+        <v>-1.5620043054297666E-3</v>
       </c>
       <c r="M29">
-        <v>-3.346969367666883E-3</v>
+        <v>-3.4064766889406002E-3</v>
       </c>
       <c r="N29">
-        <v>-1.6060231628778248E-3</v>
+        <v>-1.6376659116148766E-3</v>
       </c>
       <c r="O29">
-        <v>-9.4212988079484222E-4</v>
+        <v>-9.5113405554368171E-4</v>
       </c>
       <c r="P29">
-        <v>-1.3757216707146133E-3</v>
+        <v>-1.403220276419188E-3</v>
       </c>
       <c r="Q29">
-        <v>-3.0089011951098879E-3</v>
+        <v>-2.9992981902713816E-3</v>
       </c>
       <c r="R29">
-        <v>-3.0221047304212776E-3</v>
+        <v>-3.0104610530649611E-3</v>
       </c>
       <c r="S29">
-        <v>-3.8488537466427287E-3</v>
+        <v>-3.834371698435592E-3</v>
       </c>
       <c r="T29">
-        <v>-4.7219484574980803E-3</v>
+        <v>-4.713237696354261E-3</v>
       </c>
       <c r="U29">
-        <v>-5.9960904058767664E-4</v>
+        <v>-5.9701550402020752E-4</v>
       </c>
       <c r="V29">
-        <v>-1.1155347580902053E-3</v>
+        <v>-1.1386516811092602E-3</v>
       </c>
       <c r="W29">
-        <v>-1.614796790293512E-3</v>
+        <v>-1.6813031951556192E-3</v>
       </c>
       <c r="X29">
-        <v>-2.169548169154004E-3</v>
+        <v>-2.2536634477345464E-3</v>
       </c>
       <c r="Y29">
-        <v>1.9827781344031855E-5</v>
+        <v>2.3087186717192971E-5</v>
       </c>
       <c r="Z29">
-        <v>-3.1840192183786923E-4</v>
+        <v>-3.2456043645599748E-4</v>
       </c>
       <c r="AA29">
-        <v>2.3030866521173908E-5</v>
+        <v>2.0867652028259959E-5</v>
       </c>
       <c r="AB29">
-        <v>-1.0372507424774567E-4</v>
+        <v>-1.0244896070965313E-4</v>
       </c>
       <c r="AC29">
-        <v>-9.571063497494047E-5</v>
+        <v>-9.6137958120475717E-5</v>
       </c>
       <c r="AD29">
-        <v>2.0887380959873102E-2</v>
+        <v>2.087407448326627E-2</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_home_ownership.xlsx
+++ b/input/reg_home_ownership.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D56FA5-8985-4CBB-A23B-599CF9515CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E48F1A-1323-481D-AB44-E106DC4B65B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="4320" windowWidth="28800" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="HO1a" sheetId="3" r:id="rId2"/>
+    <sheet name="PL_HO1a" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/input/reg_home_ownership.xlsx
+++ b/input/reg_home_ownership.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E48F1A-1323-481D-AB44-E106DC4B65B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669DD4AF-9887-4C51-91B4-546214683BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -349,162 +349,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -515,224 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="70">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1010,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1050,37 +677,6 @@
     <xf numFmtId="2" fontId="36" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="37" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="53" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="62" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="65" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="66" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="68" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="69" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,9 +1015,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1445,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1453,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -1469,12 +1065,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1578,3332 +1174,3332 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.1892299286673068E-2</v>
+      <c r="B2" s="38">
+        <v>1.2487487083175952E-2</v>
       </c>
       <c r="C2">
-        <v>5.0418839437402837E-4</v>
+        <v>5.0985729011693E-4</v>
       </c>
       <c r="D2">
-        <v>5.053735266895021E-6</v>
+        <v>6.4854030724188281E-6</v>
       </c>
       <c r="E2">
-        <v>-3.6337415337541067E-8</v>
+        <v>-4.9808900163760097E-8</v>
       </c>
       <c r="F2">
-        <v>-2.5698604810712712E-4</v>
+        <v>-2.4743283289578686E-4</v>
       </c>
       <c r="G2">
-        <v>-1.0661892450199516E-4</v>
+        <v>-1.0541909258182646E-4</v>
       </c>
       <c r="H2">
-        <v>2.997484227518191E-5</v>
+        <v>3.8525010158422438E-5</v>
       </c>
       <c r="I2">
-        <v>-2.1109738720653278E-4</v>
+        <v>-2.1214856275671525E-4</v>
       </c>
       <c r="J2">
-        <v>-1.6135944399468853E-4</v>
+        <v>-1.7764136541972137E-4</v>
       </c>
       <c r="K2">
-        <v>-3.4945807522841325E-5</v>
+        <v>-3.3658451280356341E-5</v>
       </c>
       <c r="L2">
-        <v>3.0110113295382009E-5</v>
+        <v>1.7605670946978404E-4</v>
       </c>
       <c r="M2">
-        <v>9.047759327167607E-5</v>
+        <v>1.0057101337731058E-4</v>
       </c>
       <c r="N2">
-        <v>1.0504402187973964E-4</v>
+        <v>9.8666199291812376E-5</v>
       </c>
       <c r="O2">
-        <v>-1.1815602974034921E-5</v>
+        <v>-1.0924282851627542E-5</v>
       </c>
       <c r="P2">
-        <v>2.0837772611533294E-5</v>
+        <v>3.1957366783621534E-5</v>
       </c>
       <c r="Q2">
-        <v>1.3855055554239223E-5</v>
+        <v>-2.7555455138435986E-5</v>
       </c>
       <c r="R2">
-        <v>7.3469263644106882E-5</v>
+        <v>1.8024529134122181E-5</v>
       </c>
       <c r="S2">
-        <v>6.0446357645128367E-5</v>
+        <v>3.4910458367521947E-5</v>
       </c>
       <c r="T2">
-        <v>2.7780879205700751E-5</v>
+        <v>-2.1923498827584511E-5</v>
       </c>
       <c r="U2">
-        <v>1.2098599662989835E-5</v>
+        <v>-1.5840744043522951E-5</v>
       </c>
       <c r="V2">
-        <v>1.7360704589079108E-5</v>
+        <v>3.428607753602349E-7</v>
       </c>
       <c r="W2">
-        <v>-9.2793961306231263E-6</v>
+        <v>-3.2138066265636529E-5</v>
       </c>
       <c r="X2">
-        <v>-7.089001106372751E-6</v>
+        <v>-2.7153992286396879E-5</v>
       </c>
       <c r="Y2">
-        <v>9.7878751075113931E-6</v>
+        <v>8.0515421347049005E-6</v>
       </c>
       <c r="Z2">
-        <v>-6.1205457242536241E-6</v>
+        <v>-1.0205046965530909E-5</v>
       </c>
       <c r="AA2">
-        <v>-4.056772450564697E-7</v>
+        <v>-1.7689634487173019E-5</v>
       </c>
       <c r="AB2">
-        <v>9.3958191388533599E-6</v>
+        <v>4.612929186166963E-6</v>
       </c>
       <c r="AC2">
-        <v>-3.545632903946866E-6</v>
+        <v>-7.9311031574697379E-6</v>
       </c>
       <c r="AD2">
-        <v>1.2427165550104781E-5</v>
+        <v>6.3496126118559745E-6</v>
       </c>
       <c r="AE2">
-        <v>3.0761744745300646E-7</v>
+        <v>3.0977092293611811E-8</v>
       </c>
       <c r="AF2">
-        <v>4.496927203891495E-5</v>
+        <v>3.32270419110664E-5</v>
       </c>
       <c r="AG2">
-        <v>9.7643883036438607E-7</v>
+        <v>1.2110335424800447E-6</v>
       </c>
       <c r="AH2">
-        <v>-4.6910158154282473E-4</v>
+        <v>-4.389932419707138E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
-        <v>1.4510803386203347E-3</v>
+      <c r="B3" s="38">
+        <v>5.3532753582598023E-3</v>
       </c>
       <c r="C3">
-        <v>5.053735266895021E-6</v>
+        <v>6.4854030724188281E-6</v>
       </c>
       <c r="D3">
-        <v>2.1561831220090316E-5</v>
+        <v>2.1660384801116284E-5</v>
       </c>
       <c r="E3">
-        <v>-2.055190580955221E-7</v>
+        <v>-2.0803222121749734E-7</v>
       </c>
       <c r="F3">
-        <v>4.1064109284851566E-5</v>
+        <v>3.9063685022342441E-5</v>
       </c>
       <c r="G3">
-        <v>2.521515773266451E-5</v>
+        <v>2.8039615149102677E-5</v>
       </c>
       <c r="H3">
-        <v>1.3278632542221324E-5</v>
+        <v>1.6567949034397149E-5</v>
       </c>
       <c r="I3">
-        <v>6.46452001291181E-5</v>
+        <v>6.7984836813901963E-5</v>
       </c>
       <c r="J3">
-        <v>1.7276930337083862E-5</v>
+        <v>1.6449721361476606E-5</v>
       </c>
       <c r="K3">
-        <v>4.3547507614112956E-5</v>
+        <v>3.6970493449951839E-5</v>
       </c>
       <c r="L3">
-        <v>-3.5725995352219958E-5</v>
+        <v>-7.8546018753381799E-6</v>
       </c>
       <c r="M3">
-        <v>1.1248658431331471E-4</v>
+        <v>1.2103669801985173E-4</v>
       </c>
       <c r="N3">
-        <v>2.3924714301625081E-5</v>
+        <v>2.2042337206114292E-5</v>
       </c>
       <c r="O3">
-        <v>-1.4663375271449432E-5</v>
+        <v>-1.5313396933818924E-5</v>
       </c>
       <c r="P3">
-        <v>5.4532852206292228E-6</v>
+        <v>8.358582316831504E-7</v>
       </c>
       <c r="Q3">
-        <v>6.1029163190067079E-5</v>
+        <v>-1.9218169860092027E-5</v>
       </c>
       <c r="R3">
-        <v>5.2585018609669861E-5</v>
+        <v>-3.7207368112170017E-5</v>
       </c>
       <c r="S3">
-        <v>7.1586980121487553E-5</v>
+        <v>-1.3260913622587542E-5</v>
       </c>
       <c r="T3">
-        <v>1.0255993846590609E-4</v>
+        <v>1.86722563590956E-5</v>
       </c>
       <c r="U3">
-        <v>2.2198182605843539E-5</v>
+        <v>-1.5084395861254279E-6</v>
       </c>
       <c r="V3">
-        <v>-6.3534743826387872E-6</v>
+        <v>-1.7773091032660448E-5</v>
       </c>
       <c r="W3">
-        <v>-4.1561952613704462E-6</v>
+        <v>-1.7725428851976158E-5</v>
       </c>
       <c r="X3">
-        <v>-1.5207856862799456E-5</v>
+        <v>-2.6832264878845274E-5</v>
       </c>
       <c r="Y3">
-        <v>1.2608819795081817E-6</v>
+        <v>5.1918775570460752E-7</v>
       </c>
       <c r="Z3">
-        <v>-8.2687164796980766E-6</v>
+        <v>-8.1333625158732075E-6</v>
       </c>
       <c r="AA3">
-        <v>-1.9867687695990341E-5</v>
+        <v>-1.8397904489040462E-5</v>
       </c>
       <c r="AB3">
-        <v>9.3830642327975356E-6</v>
+        <v>1.0447901649068521E-5</v>
       </c>
       <c r="AC3">
-        <v>-4.6001721137547974E-6</v>
+        <v>-2.3432938846477044E-6</v>
       </c>
       <c r="AD3">
-        <v>3.2828042794734653E-6</v>
+        <v>4.5155970790922975E-6</v>
       </c>
       <c r="AE3">
-        <v>2.3663193246634901E-7</v>
+        <v>3.6245662912667931E-7</v>
       </c>
       <c r="AF3">
-        <v>-2.4683859500704828E-5</v>
+        <v>-2.5326301482947759E-5</v>
       </c>
       <c r="AG3">
-        <v>3.8381221354766721E-6</v>
+        <v>4.5151840262410841E-6</v>
       </c>
       <c r="AH3">
-        <v>-5.9880934276264428E-4</v>
+        <v>-5.0419684697400064E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11">
-        <v>-2.0010486393179066E-5</v>
+      <c r="B4" s="38">
+        <v>-5.757175106583059E-5</v>
       </c>
       <c r="C4">
-        <v>-3.6337415337541067E-8</v>
+        <v>-4.9808900163760097E-8</v>
       </c>
       <c r="D4">
-        <v>-2.055190580955221E-7</v>
+        <v>-2.0803222121749734E-7</v>
       </c>
       <c r="E4">
-        <v>2.0331128173925679E-9</v>
+        <v>2.0808047414278053E-9</v>
       </c>
       <c r="F4">
-        <v>-3.3678350228289543E-7</v>
+        <v>-3.0825181736381939E-7</v>
       </c>
       <c r="G4">
-        <v>-2.9419331696467484E-7</v>
+        <v>-3.3984130975312779E-7</v>
       </c>
       <c r="H4">
-        <v>-7.2299358059815818E-8</v>
+        <v>-8.5872270288606773E-8</v>
       </c>
       <c r="I4">
-        <v>-5.4126581130467751E-7</v>
+        <v>-5.5640182834899678E-7</v>
       </c>
       <c r="J4">
-        <v>-1.4442147521298529E-7</v>
+        <v>-9.4248956200806748E-8</v>
       </c>
       <c r="K4">
-        <v>-3.9601763308624533E-7</v>
+        <v>-3.3710584744285328E-7</v>
       </c>
       <c r="L4">
-        <v>3.9613313157774023E-7</v>
+        <v>1.5753064026408259E-7</v>
       </c>
       <c r="M4">
-        <v>-9.0245233822688026E-7</v>
+        <v>-9.7985669002792154E-7</v>
       </c>
       <c r="N4">
-        <v>-2.5639676714155113E-7</v>
+        <v>-2.3939063866782768E-7</v>
       </c>
       <c r="O4">
-        <v>1.4986951370056177E-7</v>
+        <v>1.6328392364650055E-7</v>
       </c>
       <c r="P4">
-        <v>-7.3329484118067092E-8</v>
+        <v>-2.9336888750264367E-8</v>
       </c>
       <c r="Q4">
-        <v>-6.7995460119026119E-7</v>
+        <v>1.9027469277679189E-7</v>
       </c>
       <c r="R4">
-        <v>-5.7720558607914749E-7</v>
+        <v>4.0940823915512384E-7</v>
       </c>
       <c r="S4">
-        <v>-7.1448725578759086E-7</v>
+        <v>2.158837279470273E-7</v>
       </c>
       <c r="T4">
-        <v>-9.4903537141617547E-7</v>
+        <v>-2.756862630082573E-8</v>
       </c>
       <c r="U4">
-        <v>-2.251318452114249E-7</v>
+        <v>4.2763933223505174E-8</v>
       </c>
       <c r="V4">
-        <v>1.2571068043487022E-7</v>
+        <v>2.4770518453236893E-7</v>
       </c>
       <c r="W4">
-        <v>1.1910685540199171E-7</v>
+        <v>2.5616557819447479E-7</v>
       </c>
       <c r="X4">
-        <v>2.0042060489345799E-7</v>
+        <v>3.2423004978606971E-7</v>
       </c>
       <c r="Y4">
-        <v>-1.3474318859143832E-8</v>
+        <v>-7.5615373483454625E-9</v>
       </c>
       <c r="Z4">
-        <v>4.7124408692850468E-8</v>
+        <v>4.7555092811607297E-8</v>
       </c>
       <c r="AA4">
-        <v>1.862815858672165E-7</v>
+        <v>1.9060474720314273E-7</v>
       </c>
       <c r="AB4">
-        <v>-1.381567093656694E-7</v>
+        <v>-1.4672956866600413E-7</v>
       </c>
       <c r="AC4">
-        <v>3.336980444128973E-8</v>
+        <v>1.2311374896594582E-8</v>
       </c>
       <c r="AD4">
-        <v>-4.6230390851904865E-8</v>
+        <v>-5.5003523428832741E-8</v>
       </c>
       <c r="AE4">
-        <v>-3.2522072139534201E-9</v>
+        <v>-4.8959188265797088E-9</v>
       </c>
       <c r="AF4">
-        <v>2.5478794861104744E-7</v>
+        <v>2.7862920030196577E-7</v>
       </c>
       <c r="AG4">
-        <v>-3.2024672225910991E-8</v>
+        <v>-3.6515081838127517E-8</v>
       </c>
       <c r="AH4">
-        <v>5.5313949397190798E-6</v>
+        <v>4.5094976109574447E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13">
-        <v>-0.65577869613068718</v>
+      <c r="B5" s="38">
+        <v>-0.66492794250826726</v>
       </c>
       <c r="C5">
-        <v>-2.5698604810712712E-4</v>
+        <v>-2.4743283289578686E-4</v>
       </c>
       <c r="D5">
-        <v>4.1064109284851566E-5</v>
+        <v>3.9063685022342441E-5</v>
       </c>
       <c r="E5">
-        <v>-3.3678350228289543E-7</v>
+        <v>-3.0825181736381939E-7</v>
       </c>
       <c r="F5">
-        <v>9.9044047963788476E-2</v>
+        <v>8.8690328609476746E-2</v>
       </c>
       <c r="G5">
-        <v>1.1612022000448538E-3</v>
+        <v>1.0515478119431003E-3</v>
       </c>
       <c r="H5">
-        <v>1.2813180480027221E-3</v>
+        <v>1.2331149964523067E-3</v>
       </c>
       <c r="I5">
-        <v>1.804826533341887E-3</v>
+        <v>1.6809860089147251E-3</v>
       </c>
       <c r="J5">
-        <v>1.313452857868906E-3</v>
+        <v>1.2913200070251533E-3</v>
       </c>
       <c r="K5">
-        <v>1.3924524340781885E-3</v>
+        <v>1.2886766417957731E-3</v>
       </c>
       <c r="L5">
-        <v>1.4185492429817171E-3</v>
+        <v>1.5207710018248256E-3</v>
       </c>
       <c r="M5">
-        <v>-8.0065555875485873E-5</v>
+        <v>-1.4682399845287108E-5</v>
       </c>
       <c r="N5">
-        <v>1.3464825100318749E-4</v>
+        <v>1.5621787693530291E-4</v>
       </c>
       <c r="O5">
-        <v>1.8271045531447226E-4</v>
+        <v>2.0739502319431954E-4</v>
       </c>
       <c r="P5">
-        <v>1.5544812474926678E-4</v>
+        <v>1.6702388738696976E-4</v>
       </c>
       <c r="Q5">
-        <v>-1.8130593298579852E-5</v>
+        <v>5.7832150575601397E-5</v>
       </c>
       <c r="R5">
-        <v>-1.1246954323995478E-4</v>
+        <v>-1.6557425093882347E-5</v>
       </c>
       <c r="S5">
-        <v>-2.6402564164334412E-5</v>
+        <v>5.8865848806807027E-5</v>
       </c>
       <c r="T5">
-        <v>-5.1774444919549644E-5</v>
+        <v>-1.2533749472519212E-5</v>
       </c>
       <c r="U5">
-        <v>9.8633166500601544E-5</v>
+        <v>1.3167381407566887E-4</v>
       </c>
       <c r="V5">
-        <v>2.9731754531386959E-4</v>
+        <v>3.1487986948351465E-4</v>
       </c>
       <c r="W5">
-        <v>4.3947856825448414E-4</v>
+        <v>4.3253707584346994E-4</v>
       </c>
       <c r="X5">
-        <v>4.9234959880652737E-4</v>
+        <v>5.3990332216988712E-4</v>
       </c>
       <c r="Y5">
-        <v>-2.2051679413343791E-4</v>
+        <v>-2.1635937740960531E-4</v>
       </c>
       <c r="Z5">
-        <v>-3.3607188787137675E-5</v>
+        <v>-3.0239507218456736E-5</v>
       </c>
       <c r="AA5">
-        <v>1.0477412167395625E-4</v>
+        <v>1.4686935196862243E-4</v>
       </c>
       <c r="AB5">
-        <v>-8.9264406866626901E-5</v>
+        <v>-7.6569608895826194E-5</v>
       </c>
       <c r="AC5">
-        <v>-1.9368041539139479E-4</v>
+        <v>-1.7238271619967905E-4</v>
       </c>
       <c r="AD5">
-        <v>-7.3417235927266864E-5</v>
+        <v>-5.0332282732335636E-5</v>
       </c>
       <c r="AE5">
-        <v>-1.0636862134422837E-6</v>
+        <v>-2.3914255136231141E-6</v>
       </c>
       <c r="AF5">
-        <v>1.6706246867416452E-4</v>
+        <v>1.6239433735017184E-4</v>
       </c>
       <c r="AG5">
-        <v>1.3858483880576196E-4</v>
+        <v>1.3194007397571703E-4</v>
       </c>
       <c r="AH5">
-        <v>-2.493404589152098E-3</v>
+        <v>-2.5091965914107684E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="15">
-        <v>-3.8585294160416832E-2</v>
+      <c r="B6" s="38">
+        <v>-3.574969724152248E-2</v>
       </c>
       <c r="C6">
-        <v>-1.0661892450199516E-4</v>
+        <v>-1.0541909258182646E-4</v>
       </c>
       <c r="D6">
-        <v>2.521515773266451E-5</v>
+        <v>2.8039615149102677E-5</v>
       </c>
       <c r="E6">
-        <v>-2.9419331696467484E-7</v>
+        <v>-3.3984130975312779E-7</v>
       </c>
       <c r="F6">
-        <v>1.1612022000448538E-3</v>
+        <v>1.0515478119431003E-3</v>
       </c>
       <c r="G6">
-        <v>1.9237398734630968E-3</v>
+        <v>1.750822412097647E-3</v>
       </c>
       <c r="H6">
-        <v>1.0676249685692921E-3</v>
+        <v>9.3290752121171373E-4</v>
       </c>
       <c r="I6">
-        <v>1.1156661665937095E-3</v>
+        <v>9.6013520493620796E-4</v>
       </c>
       <c r="J6">
-        <v>1.2677483276252353E-3</v>
+        <v>1.0256298788018166E-3</v>
       </c>
       <c r="K6">
-        <v>1.3775802002879332E-3</v>
+        <v>1.2754308078886884E-3</v>
       </c>
       <c r="L6">
-        <v>1.2732150905629541E-3</v>
+        <v>1.015254636147824E-3</v>
       </c>
       <c r="M6">
-        <v>1.7423597679036421E-4</v>
+        <v>1.302547532667631E-4</v>
       </c>
       <c r="N6">
-        <v>2.1123355712690626E-4</v>
+        <v>1.9813386069095985E-4</v>
       </c>
       <c r="O6">
-        <v>-3.0931326600875487E-5</v>
+        <v>-2.9674475556790142E-5</v>
       </c>
       <c r="P6">
-        <v>-1.6356624426009845E-5</v>
+        <v>-1.5851946490376954E-5</v>
       </c>
       <c r="Q6">
-        <v>3.5830976957621418E-4</v>
+        <v>1.6464719343808849E-4</v>
       </c>
       <c r="R6">
-        <v>2.5981415584288572E-4</v>
+        <v>3.2193064053452533E-6</v>
       </c>
       <c r="S6">
-        <v>3.328351078815254E-4</v>
+        <v>1.1470441331172956E-4</v>
       </c>
       <c r="T6">
-        <v>3.4344699642052104E-4</v>
+        <v>1.1051684733845332E-4</v>
       </c>
       <c r="U6">
-        <v>7.935908036896193E-5</v>
+        <v>-3.4383000366098766E-5</v>
       </c>
       <c r="V6">
-        <v>3.8173341185931861E-4</v>
+        <v>3.2146133830892188E-4</v>
       </c>
       <c r="W6">
-        <v>5.5009022115652131E-4</v>
+        <v>4.8632484079167186E-4</v>
       </c>
       <c r="X6">
-        <v>7.923783680604242E-4</v>
+        <v>6.8591481507435798E-4</v>
       </c>
       <c r="Y6">
-        <v>-4.1425740108425057E-5</v>
+        <v>-3.7349350146862023E-5</v>
       </c>
       <c r="Z6">
-        <v>-8.5266714189329224E-6</v>
+        <v>-1.9885634365762668E-5</v>
       </c>
       <c r="AA6">
-        <v>4.6695138995545243E-5</v>
+        <v>1.8511991698582438E-5</v>
       </c>
       <c r="AB6">
-        <v>8.5076966754507296E-5</v>
+        <v>8.8908170665578088E-5</v>
       </c>
       <c r="AC6">
-        <v>2.0312529209368809E-5</v>
+        <v>2.5286114352692546E-5</v>
       </c>
       <c r="AD6">
-        <v>-2.1713485628197242E-5</v>
+        <v>-2.8405712424238184E-5</v>
       </c>
       <c r="AE6">
-        <v>2.0475337662922901E-6</v>
+        <v>2.2080578359214394E-6</v>
       </c>
       <c r="AF6">
-        <v>-3.459793163936584E-5</v>
+        <v>-4.703733868216195E-5</v>
       </c>
       <c r="AG6">
-        <v>2.0030377416101962E-5</v>
+        <v>2.083220296619163E-5</v>
       </c>
       <c r="AH6">
-        <v>-2.3725246817269292E-3</v>
+        <v>-1.9787970871808299E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="17">
-        <v>-3.5771625499835609E-3</v>
+      <c r="B7" s="38">
+        <v>-2.6846470875708673E-2</v>
       </c>
       <c r="C7">
-        <v>2.997484227518191E-5</v>
+        <v>3.8525010158422438E-5</v>
       </c>
       <c r="D7">
-        <v>1.3278632542221324E-5</v>
+        <v>1.6567949034397149E-5</v>
       </c>
       <c r="E7">
-        <v>-7.2299358059815818E-8</v>
+        <v>-8.5872270288606773E-8</v>
       </c>
       <c r="F7">
-        <v>1.2813180480027221E-3</v>
+        <v>1.2331149964523067E-3</v>
       </c>
       <c r="G7">
-        <v>1.0676249685692921E-3</v>
+        <v>9.3290752121171373E-4</v>
       </c>
       <c r="H7">
-        <v>1.8784679764604082E-3</v>
+        <v>1.8935329691799666E-3</v>
       </c>
       <c r="I7">
-        <v>1.1329866508338112E-3</v>
+        <v>1.0541916959392853E-3</v>
       </c>
       <c r="J7">
-        <v>1.1607302751812743E-3</v>
+        <v>1.1270907390464925E-3</v>
       </c>
       <c r="K7">
-        <v>1.1549089241855491E-3</v>
+        <v>1.0535717612629612E-3</v>
       </c>
       <c r="L7">
-        <v>1.2196105102340144E-3</v>
+        <v>1.2010937064264285E-3</v>
       </c>
       <c r="M7">
-        <v>3.7594602478987669E-4</v>
+        <v>4.4703791866715072E-4</v>
       </c>
       <c r="N7">
-        <v>9.0434435122593537E-5</v>
+        <v>9.2294129888505883E-5</v>
       </c>
       <c r="O7">
-        <v>3.841347375658702E-5</v>
+        <v>6.4557767285431316E-5</v>
       </c>
       <c r="P7">
-        <v>-3.0780507263373016E-6</v>
+        <v>2.4897916565003761E-5</v>
       </c>
       <c r="Q7">
-        <v>8.5276882643911533E-8</v>
+        <v>6.2037303488563411E-5</v>
       </c>
       <c r="R7">
-        <v>-6.8111388888904951E-5</v>
+        <v>-8.3915241487303541E-6</v>
       </c>
       <c r="S7">
-        <v>6.6134290837157553E-6</v>
+        <v>6.3377568663052262E-5</v>
       </c>
       <c r="T7">
-        <v>-5.1010299507062802E-5</v>
+        <v>-3.3214981508635541E-6</v>
       </c>
       <c r="U7">
-        <v>1.2879312960827511E-5</v>
+        <v>2.4219941243844184E-5</v>
       </c>
       <c r="V7">
-        <v>6.0388958464525363E-5</v>
+        <v>7.3890610862375236E-5</v>
       </c>
       <c r="W7">
-        <v>1.8477890355789422E-4</v>
+        <v>1.8472645389788257E-4</v>
       </c>
       <c r="X7">
-        <v>4.7839724239335624E-4</v>
+        <v>4.724673710286998E-4</v>
       </c>
       <c r="Y7">
-        <v>-4.2311381177184145E-5</v>
+        <v>-3.9699879976002196E-5</v>
       </c>
       <c r="Z7">
-        <v>2.8420276270288712E-5</v>
+        <v>4.2808629502101054E-5</v>
       </c>
       <c r="AA7">
-        <v>2.7528092111360665E-4</v>
+        <v>3.0388947663734884E-4</v>
       </c>
       <c r="AB7">
-        <v>7.8478269833157652E-6</v>
+        <v>4.4070149807506898E-6</v>
       </c>
       <c r="AC7">
-        <v>4.3795471930631147E-5</v>
+        <v>4.0779667238832129E-5</v>
       </c>
       <c r="AD7">
-        <v>-7.6480983198290957E-5</v>
+        <v>-6.5293459625085401E-5</v>
       </c>
       <c r="AE7">
-        <v>-2.1914488477377925E-6</v>
+        <v>-2.567455903458273E-6</v>
       </c>
       <c r="AF7">
-        <v>3.1125598985604053E-4</v>
+        <v>3.3967607555305786E-4</v>
       </c>
       <c r="AG7">
-        <v>1.6639924246453474E-4</v>
+        <v>1.5782179638358933E-4</v>
       </c>
       <c r="AH7">
-        <v>-1.8071975676144016E-3</v>
+        <v>-1.9366021769109106E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="19">
-        <v>0.92215276727861573</v>
+      <c r="B8" s="38">
+        <v>0.96330241363388047</v>
       </c>
       <c r="C8">
-        <v>-2.1109738720653278E-4</v>
+        <v>-2.1214856275671525E-4</v>
       </c>
       <c r="D8">
-        <v>6.46452001291181E-5</v>
+        <v>6.7984836813901963E-5</v>
       </c>
       <c r="E8">
-        <v>-5.4126581130467751E-7</v>
+        <v>-5.5640182834899678E-7</v>
       </c>
       <c r="F8">
-        <v>1.804826533341887E-3</v>
+        <v>1.6809860089147251E-3</v>
       </c>
       <c r="G8">
-        <v>1.1156661665937095E-3</v>
+        <v>9.6013520493620796E-4</v>
       </c>
       <c r="H8">
-        <v>1.1329866508338112E-3</v>
+        <v>1.0541916959392853E-3</v>
       </c>
       <c r="I8">
-        <v>0.23731061118928515</v>
+        <v>0.24713787311209692</v>
       </c>
       <c r="J8">
-        <v>1.273500296844322E-3</v>
+        <v>1.2502711347349288E-3</v>
       </c>
       <c r="K8">
-        <v>1.2881698970222313E-3</v>
+        <v>1.1468785112426483E-3</v>
       </c>
       <c r="L8">
-        <v>1.2992251307502945E-3</v>
+        <v>1.2747554776659877E-3</v>
       </c>
       <c r="M8">
-        <v>9.2220317192378285E-4</v>
+        <v>9.5444436451339791E-4</v>
       </c>
       <c r="N8">
-        <v>2.9259083391541043E-4</v>
+        <v>2.760852986160759E-4</v>
       </c>
       <c r="O8">
-        <v>-1.2407562529272035E-4</v>
+        <v>-9.2978151404032395E-5</v>
       </c>
       <c r="P8">
-        <v>-1.8616078482612021E-4</v>
+        <v>-1.694361713841879E-4</v>
       </c>
       <c r="Q8">
-        <v>7.1498385297943858E-5</v>
+        <v>2.0591049505648123E-5</v>
       </c>
       <c r="R8">
-        <v>6.2564774603302703E-5</v>
+        <v>1.0436404571546138E-5</v>
       </c>
       <c r="S8">
-        <v>1.0941541648609048E-4</v>
+        <v>2.974429594526766E-5</v>
       </c>
       <c r="T8">
-        <v>1.156396735697428E-4</v>
+        <v>1.3770076818322372E-4</v>
       </c>
       <c r="U8">
-        <v>1.0888482939671343E-4</v>
+        <v>1.0099203508079872E-4</v>
       </c>
       <c r="V8">
-        <v>4.2332194407335952E-4</v>
+        <v>3.7164053050896609E-4</v>
       </c>
       <c r="W8">
-        <v>5.7161569426428921E-4</v>
+        <v>5.4424387010272492E-4</v>
       </c>
       <c r="X8">
-        <v>7.1774835012900808E-4</v>
+        <v>6.2478990679459313E-4</v>
       </c>
       <c r="Y8">
-        <v>-2.0392020664317944E-4</v>
+        <v>-1.791520235219863E-4</v>
       </c>
       <c r="Z8">
-        <v>1.7837974699363388E-4</v>
+        <v>1.9066378968074667E-4</v>
       </c>
       <c r="AA8">
-        <v>5.1303277659873483E-4</v>
+        <v>4.5996614135651115E-4</v>
       </c>
       <c r="AB8">
-        <v>-5.9195190628703312E-5</v>
+        <v>-1.1806564953034779E-4</v>
       </c>
       <c r="AC8">
-        <v>7.7292504382442623E-5</v>
+        <v>1.9614943429843598E-5</v>
       </c>
       <c r="AD8">
-        <v>6.8670440425905657E-7</v>
+        <v>-3.7827204830434124E-5</v>
       </c>
       <c r="AE8">
-        <v>1.3951112691775944E-5</v>
+        <v>1.2811792203293087E-5</v>
       </c>
       <c r="AF8">
-        <v>-1.4805581647869045E-4</v>
+        <v>-1.7230223417134469E-4</v>
       </c>
       <c r="AG8">
-        <v>-1.0785677356718918E-4</v>
+        <v>-1.2946490247114494E-4</v>
       </c>
       <c r="AH8">
-        <v>-3.609188875821635E-3</v>
+        <v>-3.4975229634165482E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="21">
-        <v>-7.5814296811975157E-2</v>
+      <c r="B9" s="38">
+        <v>-0.15121059652217747</v>
       </c>
       <c r="C9">
-        <v>-1.6135944399468853E-4</v>
+        <v>-1.7764136541972137E-4</v>
       </c>
       <c r="D9">
-        <v>1.7276930337083862E-5</v>
+        <v>1.6449721361476606E-5</v>
       </c>
       <c r="E9">
-        <v>-1.4442147521298529E-7</v>
+        <v>-9.4248956200806748E-8</v>
       </c>
       <c r="F9">
-        <v>1.313452857868906E-3</v>
+        <v>1.2913200070251533E-3</v>
       </c>
       <c r="G9">
-        <v>1.2677483276252353E-3</v>
+        <v>1.0256298788018166E-3</v>
       </c>
       <c r="H9">
-        <v>1.1607302751812743E-3</v>
+        <v>1.1270907390464925E-3</v>
       </c>
       <c r="I9">
-        <v>1.273500296844322E-3</v>
+        <v>1.2502711347349288E-3</v>
       </c>
       <c r="J9">
-        <v>2.2316874763775012E-3</v>
+        <v>2.9211954085671447E-3</v>
       </c>
       <c r="K9">
-        <v>1.3047087208591219E-3</v>
+        <v>1.1261357875651072E-3</v>
       </c>
       <c r="L9">
-        <v>1.3191331394972923E-3</v>
+        <v>1.1950131812774796E-3</v>
       </c>
       <c r="M9">
-        <v>4.4058713485466497E-4</v>
+        <v>6.0994332705733775E-4</v>
       </c>
       <c r="N9">
-        <v>2.8805690852095348E-4</v>
+        <v>3.6093354463471728E-4</v>
       </c>
       <c r="O9">
-        <v>-6.4095318241342365E-6</v>
+        <v>2.5226372102594443E-5</v>
       </c>
       <c r="P9">
-        <v>-1.2667266145538134E-4</v>
+        <v>-1.0500731929633737E-4</v>
       </c>
       <c r="Q9">
-        <v>1.7810016650827033E-5</v>
+        <v>1.0881890631719752E-4</v>
       </c>
       <c r="R9">
-        <v>-5.4152883259342638E-5</v>
+        <v>4.2584494704953256E-5</v>
       </c>
       <c r="S9">
-        <v>-1.8550754057977507E-6</v>
+        <v>3.4509861956094192E-5</v>
       </c>
       <c r="T9">
-        <v>2.3724013805094687E-5</v>
+        <v>5.8840747626688503E-5</v>
       </c>
       <c r="U9">
-        <v>-6.9915125277718521E-6</v>
+        <v>8.3600379723594378E-5</v>
       </c>
       <c r="V9">
-        <v>2.2630312282522961E-4</v>
+        <v>2.0800919217396817E-4</v>
       </c>
       <c r="W9">
-        <v>5.4043205573054169E-4</v>
+        <v>5.7406931778274811E-4</v>
       </c>
       <c r="X9">
-        <v>7.803990256382053E-4</v>
+        <v>8.0977191829111408E-4</v>
       </c>
       <c r="Y9">
-        <v>-6.1969893848274222E-5</v>
+        <v>-5.0371644623542834E-5</v>
       </c>
       <c r="Z9">
-        <v>-3.8148550516794614E-5</v>
+        <v>-2.0095609045942399E-5</v>
       </c>
       <c r="AA9">
-        <v>1.2885175055347292E-4</v>
+        <v>1.7189041247273453E-4</v>
       </c>
       <c r="AB9">
-        <v>8.2484571566148867E-5</v>
+        <v>5.8821881373327103E-5</v>
       </c>
       <c r="AC9">
-        <v>2.7262341816099809E-5</v>
+        <v>3.7500102589792906E-6</v>
       </c>
       <c r="AD9">
-        <v>-5.8193357564931687E-5</v>
+        <v>-3.8218019447430556E-5</v>
       </c>
       <c r="AE9">
-        <v>3.7305054959058961E-6</v>
+        <v>6.781075355056696E-6</v>
       </c>
       <c r="AF9">
-        <v>4.9038183066014117E-6</v>
+        <v>-1.2288994651668377E-5</v>
       </c>
       <c r="AG9">
-        <v>5.8921211904840626E-5</v>
+        <v>2.0085313754435229E-5</v>
       </c>
       <c r="AH9">
-        <v>-2.026476004516995E-3</v>
+        <v>-2.2024325942323745E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="23">
-        <v>-0.17493554227997657</v>
+      <c r="B10" s="38">
+        <v>-0.17359470518393269</v>
       </c>
       <c r="C10">
-        <v>-3.4945807522841325E-5</v>
+        <v>-3.3658451280356341E-5</v>
       </c>
       <c r="D10">
-        <v>4.3547507614112956E-5</v>
+        <v>3.6970493449951839E-5</v>
       </c>
       <c r="E10">
-        <v>-3.9601763308624533E-7</v>
+        <v>-3.3710584744285328E-7</v>
       </c>
       <c r="F10">
-        <v>1.3924524340781885E-3</v>
+        <v>1.2886766417957731E-3</v>
       </c>
       <c r="G10">
-        <v>1.3775802002879332E-3</v>
+        <v>1.2754308078886884E-3</v>
       </c>
       <c r="H10">
-        <v>1.1549089241855491E-3</v>
+        <v>1.0535717612629612E-3</v>
       </c>
       <c r="I10">
-        <v>1.2881698970222313E-3</v>
+        <v>1.1468785112426483E-3</v>
       </c>
       <c r="J10">
-        <v>1.3047087208591219E-3</v>
+        <v>1.1261357875651072E-3</v>
       </c>
       <c r="K10">
-        <v>1.7681885185716877E-3</v>
+        <v>1.6350614783507979E-3</v>
       </c>
       <c r="L10">
-        <v>1.2999919130684905E-3</v>
+        <v>1.1900077349596922E-3</v>
       </c>
       <c r="M10">
-        <v>2.0083883365664378E-4</v>
+        <v>1.881914719503051E-4</v>
       </c>
       <c r="N10">
-        <v>2.1532843809034762E-4</v>
+        <v>2.10221685509251E-4</v>
       </c>
       <c r="O10">
-        <v>9.0034128364601079E-6</v>
+        <v>1.7759470640185844E-5</v>
       </c>
       <c r="P10">
-        <v>5.0170903030742186E-6</v>
+        <v>-2.5856482314989696E-5</v>
       </c>
       <c r="Q10">
-        <v>2.3008613315246627E-4</v>
+        <v>2.9859158132289733E-5</v>
       </c>
       <c r="R10">
-        <v>2.0365733618561786E-4</v>
+        <v>1.8451252783496965E-5</v>
       </c>
       <c r="S10">
-        <v>2.8170596621126783E-4</v>
+        <v>8.1658996643294487E-5</v>
       </c>
       <c r="T10">
-        <v>2.638616920566082E-4</v>
+        <v>5.5186444124918519E-5</v>
       </c>
       <c r="U10">
-        <v>1.0417138051483727E-4</v>
+        <v>5.2769921137823525E-5</v>
       </c>
       <c r="V10">
-        <v>4.5366869551931321E-4</v>
+        <v>4.466868135523679E-4</v>
       </c>
       <c r="W10">
-        <v>6.0199828231807426E-4</v>
+        <v>5.8373464004820316E-4</v>
       </c>
       <c r="X10">
-        <v>8.2153715682737249E-4</v>
+        <v>7.8361098591835728E-4</v>
       </c>
       <c r="Y10">
-        <v>-6.5685079364036263E-5</v>
+        <v>-6.529180612947682E-5</v>
       </c>
       <c r="Z10">
-        <v>-6.4246964760740976E-5</v>
+        <v>-5.821300778029295E-5</v>
       </c>
       <c r="AA10">
-        <v>4.6155742009692711E-5</v>
+        <v>9.6741080698260263E-5</v>
       </c>
       <c r="AB10">
-        <v>6.4195978308986303E-6</v>
+        <v>1.4600923072762787E-5</v>
       </c>
       <c r="AC10">
-        <v>2.1527058578578321E-5</v>
+        <v>4.3845543146300544E-5</v>
       </c>
       <c r="AD10">
-        <v>-2.9849512646699103E-5</v>
+        <v>-1.887191945801125E-5</v>
       </c>
       <c r="AE10">
-        <v>-3.4898532160764514E-6</v>
+        <v>-4.201631069943436E-6</v>
       </c>
       <c r="AF10">
-        <v>7.923741332107638E-6</v>
+        <v>5.4115955237877059E-5</v>
       </c>
       <c r="AG10">
-        <v>3.7196816803828541E-5</v>
+        <v>2.9719533482842257E-5</v>
       </c>
       <c r="AH10">
-        <v>-2.9653407764467839E-3</v>
+        <v>-2.4930414776556916E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25">
-        <v>-0.13650995247101524</v>
+      <c r="B11" s="38">
+        <v>-0.43154486684818433</v>
       </c>
       <c r="C11">
-        <v>3.0110113295382009E-5</v>
+        <v>1.7605670946978404E-4</v>
       </c>
       <c r="D11">
-        <v>-3.5725995352219958E-5</v>
+        <v>-7.8546018753381799E-6</v>
       </c>
       <c r="E11">
-        <v>3.9613313157774023E-7</v>
+        <v>1.5753064026408259E-7</v>
       </c>
       <c r="F11">
-        <v>1.4185492429817171E-3</v>
+        <v>1.5207710018248256E-3</v>
       </c>
       <c r="G11">
-        <v>1.2732150905629541E-3</v>
+        <v>1.015254636147824E-3</v>
       </c>
       <c r="H11">
-        <v>1.2196105102340144E-3</v>
+        <v>1.2010937064264285E-3</v>
       </c>
       <c r="I11">
-        <v>1.2992251307502945E-3</v>
+        <v>1.2747554776659877E-3</v>
       </c>
       <c r="J11">
-        <v>1.3191331394972923E-3</v>
+        <v>1.1950131812774796E-3</v>
       </c>
       <c r="K11">
-        <v>1.2999919130684905E-3</v>
+        <v>1.1900077349596922E-3</v>
       </c>
       <c r="L11">
-        <v>4.465143703772715E-3</v>
+        <v>6.0294294484116735E-3</v>
       </c>
       <c r="M11">
-        <v>3.924645117953494E-4</v>
+        <v>4.3452344334346136E-4</v>
       </c>
       <c r="N11">
-        <v>2.4518121610489897E-4</v>
+        <v>2.2072813586299217E-4</v>
       </c>
       <c r="O11">
-        <v>7.3266666859023459E-5</v>
+        <v>1.7413530219372237E-4</v>
       </c>
       <c r="P11">
-        <v>-3.2441284724106078E-4</v>
+        <v>5.3800580307657078E-5</v>
       </c>
       <c r="Q11">
-        <v>-1.7359476648038386E-3</v>
+        <v>1.0072660652707026E-4</v>
       </c>
       <c r="R11">
-        <v>-1.7355556559609288E-3</v>
+        <v>3.1861013057887927E-5</v>
       </c>
       <c r="S11">
-        <v>-1.7619603723598386E-3</v>
+        <v>5.749034905495369E-5</v>
       </c>
       <c r="T11">
-        <v>-1.678928842624235E-3</v>
+        <v>6.6940835592817926E-5</v>
       </c>
       <c r="U11">
-        <v>-2.834385863511308E-4</v>
+        <v>1.4587059313632913E-4</v>
       </c>
       <c r="V11">
-        <v>3.0442971523934648E-4</v>
+        <v>3.5983673626866381E-4</v>
       </c>
       <c r="W11">
-        <v>5.318297115206261E-4</v>
+        <v>5.57798561796076E-4</v>
       </c>
       <c r="X11">
-        <v>9.0153106086200458E-4</v>
+        <v>8.9737561584387433E-4</v>
       </c>
       <c r="Y11">
-        <v>-1.8226593008873862E-4</v>
+        <v>-2.341532135862371E-4</v>
       </c>
       <c r="Z11">
-        <v>-2.0788511863088636E-5</v>
+        <v>-4.5275792717046738E-5</v>
       </c>
       <c r="AA11">
-        <v>3.9948604829765082E-4</v>
+        <v>-2.1940515186037843E-5</v>
       </c>
       <c r="AB11">
-        <v>2.6968541413126723E-5</v>
+        <v>-1.0920512550130761E-4</v>
       </c>
       <c r="AC11">
-        <v>1.2705992111152414E-4</v>
+        <v>-1.0800691103895562E-4</v>
       </c>
       <c r="AD11">
-        <v>-3.3682198314806573E-5</v>
+        <v>-1.5209831411845418E-4</v>
       </c>
       <c r="AE11">
-        <v>-1.4985622887797283E-5</v>
+        <v>-2.0020844927266175E-5</v>
       </c>
       <c r="AF11">
-        <v>3.7817401651645249E-4</v>
+        <v>1.0189970461703087E-4</v>
       </c>
       <c r="AG11">
-        <v>9.8909800096058008E-5</v>
+        <v>9.6704351279939681E-5</v>
       </c>
       <c r="AH11">
-        <v>9.3887692389006162E-4</v>
+        <v>-1.3800031623558101E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="27">
-        <v>0.125711893427016</v>
+      <c r="B12" s="38">
+        <v>0.12629668664812199</v>
       </c>
       <c r="C12">
-        <v>9.047759327167607E-5</v>
+        <v>1.0057101337731058E-4</v>
       </c>
       <c r="D12">
-        <v>1.1248658431331471E-4</v>
+        <v>1.2103669801985173E-4</v>
       </c>
       <c r="E12">
-        <v>-9.0245233822688026E-7</v>
+        <v>-9.7985669002792154E-7</v>
       </c>
       <c r="F12">
-        <v>-8.0065555875485873E-5</v>
+        <v>-1.4682399845287108E-5</v>
       </c>
       <c r="G12">
-        <v>1.7423597679036421E-4</v>
+        <v>1.302547532667631E-4</v>
       </c>
       <c r="H12">
-        <v>3.7594602478987669E-4</v>
+        <v>4.4703791866715072E-4</v>
       </c>
       <c r="I12">
-        <v>9.2220317192378285E-4</v>
+        <v>9.5444436451339791E-4</v>
       </c>
       <c r="J12">
-        <v>4.4058713485466497E-4</v>
+        <v>6.0994332705733775E-4</v>
       </c>
       <c r="K12">
-        <v>2.0083883365664378E-4</v>
+        <v>1.881914719503051E-4</v>
       </c>
       <c r="L12">
-        <v>3.924645117953494E-4</v>
+        <v>4.3452344334346136E-4</v>
       </c>
       <c r="M12">
-        <v>3.7632643667324553E-3</v>
+        <v>3.8395072377592041E-3</v>
       </c>
       <c r="N12">
-        <v>6.9526198085593399E-4</v>
+        <v>6.706096459341141E-4</v>
       </c>
       <c r="O12">
-        <v>-7.5099422873116644E-5</v>
+        <v>-4.8615051631315876E-5</v>
       </c>
       <c r="P12">
-        <v>-3.6065639856645631E-4</v>
+        <v>-3.5313989492048552E-4</v>
       </c>
       <c r="Q12">
-        <v>-1.1993614612797058E-4</v>
+        <v>-7.6659681429089939E-5</v>
       </c>
       <c r="R12">
-        <v>-1.467642159410816E-4</v>
+        <v>-1.3154136450195807E-4</v>
       </c>
       <c r="S12">
-        <v>-1.2976444595529839E-4</v>
+        <v>-9.5036095835912085E-5</v>
       </c>
       <c r="T12">
-        <v>-1.0594458590574467E-4</v>
+        <v>-5.5436293389776953E-5</v>
       </c>
       <c r="U12">
-        <v>-2.9463059988328079E-6</v>
+        <v>5.3473035034097701E-5</v>
       </c>
       <c r="V12">
-        <v>5.5508755485227752E-4</v>
+        <v>4.988396089586726E-4</v>
       </c>
       <c r="W12">
-        <v>7.7786868514355639E-4</v>
+        <v>6.856433321663876E-4</v>
       </c>
       <c r="X12">
-        <v>7.7192801148681309E-4</v>
+        <v>6.8706747879231783E-4</v>
       </c>
       <c r="Y12">
-        <v>-3.9262659128674049E-5</v>
+        <v>-4.1611690133029898E-5</v>
       </c>
       <c r="Z12">
-        <v>-8.9511593020511078E-5</v>
+        <v>-9.9796331324579078E-5</v>
       </c>
       <c r="AA12">
-        <v>3.2438049678014174E-5</v>
+        <v>4.7475255631971702E-6</v>
       </c>
       <c r="AB12">
-        <v>5.2909892606047742E-5</v>
+        <v>4.5800296727457413E-5</v>
       </c>
       <c r="AC12">
-        <v>-6.9256314348566507E-5</v>
+        <v>-7.2491134002944911E-5</v>
       </c>
       <c r="AD12">
-        <v>-4.0071936086135502E-5</v>
+        <v>-5.997029590319009E-6</v>
       </c>
       <c r="AE12">
-        <v>9.6243274508973041E-7</v>
+        <v>1.9220223265266811E-6</v>
       </c>
       <c r="AF12">
-        <v>-6.7586578846626569E-5</v>
+        <v>-9.6390245881394256E-5</v>
       </c>
       <c r="AG12">
-        <v>-3.0725762118957028E-6</v>
+        <v>-8.0860940325496811E-6</v>
       </c>
       <c r="AH12">
-        <v>-4.017761955151555E-3</v>
+        <v>-4.2386937410304254E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="29">
-        <v>-4.7419773456700863E-2</v>
+      <c r="B13" s="38">
+        <v>-7.6298840673617349E-2</v>
       </c>
       <c r="C13">
-        <v>1.0504402187973964E-4</v>
+        <v>9.8666199291812376E-5</v>
       </c>
       <c r="D13">
-        <v>2.3924714301625081E-5</v>
+        <v>2.2042337206114292E-5</v>
       </c>
       <c r="E13">
-        <v>-2.5639676714155113E-7</v>
+        <v>-2.3939063866782768E-7</v>
       </c>
       <c r="F13">
-        <v>1.3464825100318749E-4</v>
+        <v>1.5621787693530291E-4</v>
       </c>
       <c r="G13">
-        <v>2.1123355712690626E-4</v>
+        <v>1.9813386069095985E-4</v>
       </c>
       <c r="H13">
-        <v>9.0434435122593537E-5</v>
+        <v>9.2294129888505883E-5</v>
       </c>
       <c r="I13">
-        <v>2.9259083391541043E-4</v>
+        <v>2.760852986160759E-4</v>
       </c>
       <c r="J13">
-        <v>2.8805690852095348E-4</v>
+        <v>3.6093354463471728E-4</v>
       </c>
       <c r="K13">
-        <v>2.1532843809034762E-4</v>
+        <v>2.10221685509251E-4</v>
       </c>
       <c r="L13">
-        <v>2.4518121610489897E-4</v>
+        <v>2.2072813586299217E-4</v>
       </c>
       <c r="M13">
-        <v>6.9526198085593399E-4</v>
+        <v>6.706096459341141E-4</v>
       </c>
       <c r="N13">
-        <v>9.4888984268861666E-4</v>
+        <v>9.4573086549016444E-4</v>
       </c>
       <c r="O13">
-        <v>-4.3040476903019918E-5</v>
+        <v>-3.5575292421954907E-5</v>
       </c>
       <c r="P13">
-        <v>-1.085270751648138E-4</v>
+        <v>-9.8627559245884956E-5</v>
       </c>
       <c r="Q13">
-        <v>5.4179187351769418E-5</v>
+        <v>-1.9499275139665348E-5</v>
       </c>
       <c r="R13">
-        <v>7.0196869286822988E-5</v>
+        <v>-5.3898042333655168E-6</v>
       </c>
       <c r="S13">
-        <v>1.6663293675853565E-4</v>
+        <v>9.4398407177180671E-5</v>
       </c>
       <c r="T13">
-        <v>2.4262247426446522E-4</v>
+        <v>1.4641137070244529E-4</v>
       </c>
       <c r="U13">
-        <v>5.1096876189821584E-5</v>
+        <v>5.9130161145322344E-5</v>
       </c>
       <c r="V13">
-        <v>3.9970975442887125E-4</v>
+        <v>3.8877699133514306E-4</v>
       </c>
       <c r="W13">
-        <v>6.3604261809904208E-4</v>
+        <v>6.2806160884849339E-4</v>
       </c>
       <c r="X13">
-        <v>6.9667285271236823E-4</v>
+        <v>6.8831969895167579E-4</v>
       </c>
       <c r="Y13">
-        <v>-2.9757289642358742E-5</v>
+        <v>-2.6599524330350141E-5</v>
       </c>
       <c r="Z13">
-        <v>-3.2876253668686007E-5</v>
+        <v>-3.5321640385382441E-5</v>
       </c>
       <c r="AA13">
-        <v>-1.3985877289548294E-5</v>
+        <v>-2.0650844614895371E-5</v>
       </c>
       <c r="AB13">
-        <v>6.8715826441091568E-6</v>
+        <v>-2.4085914463144176E-6</v>
       </c>
       <c r="AC13">
-        <v>-2.8592980036730819E-5</v>
+        <v>-3.1048504886437689E-5</v>
       </c>
       <c r="AD13">
-        <v>8.9646194075640082E-6</v>
+        <v>-7.7963127592529219E-6</v>
       </c>
       <c r="AE13">
-        <v>3.4875065859819057E-6</v>
+        <v>2.5838965733139215E-6</v>
       </c>
       <c r="AF13">
-        <v>-1.1086100281734257E-4</v>
+        <v>-1.1326044079120866E-4</v>
       </c>
       <c r="AG13">
-        <v>-6.0322964043136413E-5</v>
+        <v>-5.9733467422663853E-5</v>
       </c>
       <c r="AH13">
-        <v>-1.6393827474140768E-3</v>
+        <v>-1.4919844743905264E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="31">
-        <v>-0.15029136881835253</v>
+      <c r="B14" s="38">
+        <v>-0.15079621405099455</v>
       </c>
       <c r="C14">
-        <v>-1.1815602974034921E-5</v>
+        <v>-1.0924282851627542E-5</v>
       </c>
       <c r="D14">
-        <v>-1.4663375271449432E-5</v>
+        <v>-1.5313396933818924E-5</v>
       </c>
       <c r="E14">
-        <v>1.4986951370056177E-7</v>
+        <v>1.6328392364650055E-7</v>
       </c>
       <c r="F14">
-        <v>1.8271045531447226E-4</v>
+        <v>2.0739502319431954E-4</v>
       </c>
       <c r="G14">
-        <v>-3.0931326600875487E-5</v>
+        <v>-2.9674475556790142E-5</v>
       </c>
       <c r="H14">
-        <v>3.841347375658702E-5</v>
+        <v>6.4557767285431316E-5</v>
       </c>
       <c r="I14">
-        <v>-1.2407562529272035E-4</v>
+        <v>-9.2978151404032395E-5</v>
       </c>
       <c r="J14">
-        <v>-6.4095318241342365E-6</v>
+        <v>2.5226372102594443E-5</v>
       </c>
       <c r="K14">
-        <v>9.0034128364601079E-6</v>
+        <v>1.7759470640185844E-5</v>
       </c>
       <c r="L14">
-        <v>7.3266666859023459E-5</v>
+        <v>1.7413530219372237E-4</v>
       </c>
       <c r="M14">
-        <v>-7.5099422873116644E-5</v>
+        <v>-4.8615051631315876E-5</v>
       </c>
       <c r="N14">
-        <v>-4.3040476903019918E-5</v>
+        <v>-3.5575292421954907E-5</v>
       </c>
       <c r="O14">
-        <v>1.0477298743354129E-3</v>
+        <v>1.0341113573618817E-3</v>
       </c>
       <c r="P14">
-        <v>8.6974704335801198E-4</v>
+        <v>8.5751853544994831E-4</v>
       </c>
       <c r="Q14">
-        <v>-6.4680871356944129E-5</v>
+        <v>3.1859642313753042E-6</v>
       </c>
       <c r="R14">
-        <v>-6.0800051303373402E-5</v>
+        <v>2.9206197083012763E-5</v>
       </c>
       <c r="S14">
-        <v>-4.5098866538817624E-5</v>
+        <v>5.0678643793409294E-5</v>
       </c>
       <c r="T14">
-        <v>-7.8701850020517438E-5</v>
+        <v>6.8257525522385056E-6</v>
       </c>
       <c r="U14">
-        <v>-3.2434851413640621E-5</v>
+        <v>-4.5789038649276221E-6</v>
       </c>
       <c r="V14">
-        <v>-3.4715965665872538E-5</v>
+        <v>-2.0181807083701603E-5</v>
       </c>
       <c r="W14">
-        <v>7.8520444765874236E-5</v>
+        <v>1.0048167739524259E-4</v>
       </c>
       <c r="X14">
-        <v>2.0819522245047893E-4</v>
+        <v>2.2480254162542107E-4</v>
       </c>
       <c r="Y14">
-        <v>1.3424519631258153E-5</v>
+        <v>1.1519968285874962E-5</v>
       </c>
       <c r="Z14">
-        <v>-6.0804608705071153E-5</v>
+        <v>-6.2128115490988963E-5</v>
       </c>
       <c r="AA14">
-        <v>3.5395475209260122E-5</v>
+        <v>4.094663567218344E-5</v>
       </c>
       <c r="AB14">
-        <v>2.9423655930054839E-5</v>
+        <v>2.9208941476129718E-5</v>
       </c>
       <c r="AC14">
-        <v>4.5997019198112162E-6</v>
+        <v>7.5366144045245143E-6</v>
       </c>
       <c r="AD14">
-        <v>5.817743494932319E-5</v>
+        <v>5.376536666589865E-5</v>
       </c>
       <c r="AE14">
-        <v>2.0774350155332058E-6</v>
+        <v>1.7229577971110744E-6</v>
       </c>
       <c r="AF14">
-        <v>9.1409996676747405E-5</v>
+        <v>9.4935005273254908E-5</v>
       </c>
       <c r="AG14">
-        <v>8.50400859311901E-5</v>
+        <v>8.5421860749300009E-5</v>
       </c>
       <c r="AH14">
-        <v>-5.4090441678877671E-4</v>
+        <v>-6.4282798152245023E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="33">
-        <v>-0.18468859002825352</v>
+      <c r="B15" s="38">
+        <v>-0.18678273043474292</v>
       </c>
       <c r="C15">
-        <v>2.0837772611533294E-5</v>
+        <v>3.1957366783621534E-5</v>
       </c>
       <c r="D15">
-        <v>5.4532852206292228E-6</v>
+        <v>8.358582316831504E-7</v>
       </c>
       <c r="E15">
-        <v>-7.3329484118067092E-8</v>
+        <v>-2.9336888750264367E-8</v>
       </c>
       <c r="F15">
-        <v>1.5544812474926678E-4</v>
+        <v>1.6702388738696976E-4</v>
       </c>
       <c r="G15">
-        <v>-1.6356624426009845E-5</v>
+        <v>-1.5851946490376954E-5</v>
       </c>
       <c r="H15">
-        <v>-3.0780507263373016E-6</v>
+        <v>2.4897916565003761E-5</v>
       </c>
       <c r="I15">
-        <v>-1.8616078482612021E-4</v>
+        <v>-1.694361713841879E-4</v>
       </c>
       <c r="J15">
-        <v>-1.2667266145538134E-4</v>
+        <v>-1.0500731929633737E-4</v>
       </c>
       <c r="K15">
-        <v>5.0170903030742186E-6</v>
+        <v>-2.5856482314989696E-5</v>
       </c>
       <c r="L15">
-        <v>-3.2441284724106078E-4</v>
+        <v>5.3800580307657078E-5</v>
       </c>
       <c r="M15">
-        <v>-3.6065639856645631E-4</v>
+        <v>-3.5313989492048552E-4</v>
       </c>
       <c r="N15">
-        <v>-1.085270751648138E-4</v>
+        <v>-9.8627559245884956E-5</v>
       </c>
       <c r="O15">
-        <v>8.6974704335801198E-4</v>
+        <v>8.5751853544994831E-4</v>
       </c>
       <c r="P15">
-        <v>1.3857938497758727E-3</v>
+        <v>1.3446327426517159E-3</v>
       </c>
       <c r="Q15">
-        <v>3.6277890671914152E-4</v>
+        <v>-8.6946603838422912E-6</v>
       </c>
       <c r="R15">
-        <v>4.216961710178545E-4</v>
+        <v>5.4346538046266786E-6</v>
       </c>
       <c r="S15">
-        <v>4.8987107870782749E-4</v>
+        <v>1.0342830134684488E-4</v>
       </c>
       <c r="T15">
-        <v>4.2439538432026788E-4</v>
+        <v>3.183919478322303E-5</v>
       </c>
       <c r="U15">
-        <v>4.1658463825562403E-5</v>
+        <v>-5.0995602545465774E-5</v>
       </c>
       <c r="V15">
-        <v>5.7025342010960748E-5</v>
+        <v>1.5832554673048479E-5</v>
       </c>
       <c r="W15">
-        <v>9.4169323221917397E-5</v>
+        <v>7.2218339928240211E-5</v>
       </c>
       <c r="X15">
-        <v>2.0585698259415754E-4</v>
+        <v>1.8241408358552944E-4</v>
       </c>
       <c r="Y15">
-        <v>2.8108800088894086E-5</v>
+        <v>1.8629891985236596E-5</v>
       </c>
       <c r="Z15">
-        <v>-7.5565394094769146E-5</v>
+        <v>-7.9618278410355069E-5</v>
       </c>
       <c r="AA15">
-        <v>-1.0051573970878145E-4</v>
+        <v>-8.8914509201160671E-5</v>
       </c>
       <c r="AB15">
-        <v>-5.5430539821281185E-5</v>
+        <v>-6.0230418948652989E-5</v>
       </c>
       <c r="AC15">
-        <v>-4.1656840097896856E-5</v>
+        <v>-3.8375340942774648E-5</v>
       </c>
       <c r="AD15">
-        <v>4.8647158228234033E-5</v>
+        <v>3.7479989587589673E-5</v>
       </c>
       <c r="AE15">
-        <v>8.3895824023987048E-6</v>
+        <v>7.9513890486140767E-6</v>
       </c>
       <c r="AF15">
-        <v>2.7184180237555325E-5</v>
+        <v>4.2648919476111734E-5</v>
       </c>
       <c r="AG15">
-        <v>8.4721834231898084E-5</v>
+        <v>9.1476558443811271E-5</v>
       </c>
       <c r="AH15">
-        <v>-1.4582929850578074E-3</v>
+        <v>-9.2485224058497933E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="35">
-        <v>0.10064390234066789</v>
+      <c r="B16" s="38">
+        <v>5.5929962339993144E-2</v>
       </c>
       <c r="C16">
-        <v>1.3855055554239223E-5</v>
+        <v>-2.7555455138435986E-5</v>
       </c>
       <c r="D16">
-        <v>6.1029163190067079E-5</v>
+        <v>-1.9218169860092027E-5</v>
       </c>
       <c r="E16">
-        <v>-6.7995460119026119E-7</v>
+        <v>1.9027469277679189E-7</v>
       </c>
       <c r="F16">
-        <v>-1.8130593298579852E-5</v>
+        <v>5.7832150575601397E-5</v>
       </c>
       <c r="G16">
-        <v>3.5830976957621418E-4</v>
+        <v>1.6464719343808849E-4</v>
       </c>
       <c r="H16">
-        <v>8.5276882643911533E-8</v>
+        <v>6.2037303488563411E-5</v>
       </c>
       <c r="I16">
-        <v>7.1498385297943858E-5</v>
+        <v>2.0591049505648123E-5</v>
       </c>
       <c r="J16">
-        <v>1.7810016650827033E-5</v>
+        <v>1.0881890631719752E-4</v>
       </c>
       <c r="K16">
-        <v>2.3008613315246627E-4</v>
+        <v>2.9859158132289733E-5</v>
       </c>
       <c r="L16">
-        <v>-1.7359476648038386E-3</v>
+        <v>1.0072660652707026E-4</v>
       </c>
       <c r="M16">
-        <v>-1.1993614612797058E-4</v>
+        <v>-7.6659681429089939E-5</v>
       </c>
       <c r="N16">
-        <v>5.4179187351769418E-5</v>
+        <v>-1.9499275139665348E-5</v>
       </c>
       <c r="O16">
-        <v>-6.4680871356944129E-5</v>
+        <v>3.1859642313753042E-6</v>
       </c>
       <c r="P16">
-        <v>3.6277890671914152E-4</v>
+        <v>-8.6946603838422912E-6</v>
       </c>
       <c r="Q16">
-        <v>6.6960493306258504E-3</v>
+        <v>4.0084915469471337E-3</v>
       </c>
       <c r="R16">
-        <v>6.123394891162863E-3</v>
+        <v>3.4403911098617799E-3</v>
       </c>
       <c r="S16">
-        <v>6.1160079406422435E-3</v>
+        <v>3.4336132584923537E-3</v>
       </c>
       <c r="T16">
-        <v>6.0958224646374291E-3</v>
+        <v>3.4078270663167377E-3</v>
       </c>
       <c r="U16">
-        <v>3.2612079106849804E-4</v>
+        <v>-1.2588117597152354E-4</v>
       </c>
       <c r="V16">
-        <v>9.6840141789974782E-5</v>
+        <v>-9.2762782948857037E-5</v>
       </c>
       <c r="W16">
-        <v>5.1642819483582085E-5</v>
+        <v>-5.4033641786654517E-5</v>
       </c>
       <c r="X16">
-        <v>4.3203529037960046E-5</v>
+        <v>-5.6471694608827699E-5</v>
       </c>
       <c r="Y16">
-        <v>3.8195797884196033E-5</v>
+        <v>-6.3420942375914052E-6</v>
       </c>
       <c r="Z16">
-        <v>5.5444621098579339E-5</v>
+        <v>2.7065457217272993E-5</v>
       </c>
       <c r="AA16">
-        <v>-6.0140615803797829E-4</v>
+        <v>-8.1321952506481542E-5</v>
       </c>
       <c r="AB16">
-        <v>-1.3954848571941063E-5</v>
+        <v>-3.6292188235961809E-5</v>
       </c>
       <c r="AC16">
-        <v>-4.4549353012039315E-5</v>
+        <v>-2.8108093008049825E-6</v>
       </c>
       <c r="AD16">
-        <v>3.157012582836636E-5</v>
+        <v>7.4357286008350188E-6</v>
       </c>
       <c r="AE16">
-        <v>5.9624847384186024E-6</v>
+        <v>7.5249961743966527E-6</v>
       </c>
       <c r="AF16">
-        <v>-7.3217274049544763E-4</v>
+        <v>-6.7387341905088792E-5</v>
       </c>
       <c r="AG16">
-        <v>-2.0264985222053227E-5</v>
+        <v>-3.8202984609505782E-5</v>
       </c>
       <c r="AH16">
-        <v>-7.4408624844434328E-3</v>
+        <v>-3.0812215633848651E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="37">
-        <v>0.22030504220393413</v>
+      <c r="B17" s="38">
+        <v>0.14611599663638014</v>
       </c>
       <c r="C17">
-        <v>7.3469263644106882E-5</v>
+        <v>1.8024529134122181E-5</v>
       </c>
       <c r="D17">
-        <v>5.2585018609669861E-5</v>
+        <v>-3.7207368112170017E-5</v>
       </c>
       <c r="E17">
-        <v>-5.7720558607914749E-7</v>
+        <v>4.0940823915512384E-7</v>
       </c>
       <c r="F17">
-        <v>-1.1246954323995478E-4</v>
+        <v>-1.6557425093882347E-5</v>
       </c>
       <c r="G17">
-        <v>2.5981415584288572E-4</v>
+        <v>3.2193064053452533E-6</v>
       </c>
       <c r="H17">
-        <v>-6.8111388888904951E-5</v>
+        <v>-8.3915241487303541E-6</v>
       </c>
       <c r="I17">
-        <v>6.2564774603302703E-5</v>
+        <v>1.0436404571546138E-5</v>
       </c>
       <c r="J17">
-        <v>-5.4152883259342638E-5</v>
+        <v>4.2584494704953256E-5</v>
       </c>
       <c r="K17">
-        <v>2.0365733618561786E-4</v>
+        <v>1.8451252783496965E-5</v>
       </c>
       <c r="L17">
-        <v>-1.7355556559609288E-3</v>
+        <v>3.1861013057887927E-5</v>
       </c>
       <c r="M17">
-        <v>-1.467642159410816E-4</v>
+        <v>-1.3154136450195807E-4</v>
       </c>
       <c r="N17">
-        <v>7.0196869286822988E-5</v>
+        <v>-5.3898042333655168E-6</v>
       </c>
       <c r="O17">
-        <v>-6.0800051303373402E-5</v>
+        <v>2.9206197083012763E-5</v>
       </c>
       <c r="P17">
-        <v>4.216961710178545E-4</v>
+        <v>5.4346538046266786E-6</v>
       </c>
       <c r="Q17">
-        <v>6.123394891162863E-3</v>
+        <v>3.4403911098617799E-3</v>
       </c>
       <c r="R17">
-        <v>6.5148974373712473E-3</v>
+        <v>3.9163592011834079E-3</v>
       </c>
       <c r="S17">
-        <v>6.19444598660167E-3</v>
+        <v>3.579681092796595E-3</v>
       </c>
       <c r="T17">
-        <v>6.1677973093988399E-3</v>
+        <v>3.5529897874271342E-3</v>
       </c>
       <c r="U17">
-        <v>2.792809819745167E-4</v>
+        <v>-8.7527212304665822E-5</v>
       </c>
       <c r="V17">
-        <v>8.9829705567851252E-5</v>
+        <v>-5.3259432133181614E-5</v>
       </c>
       <c r="W17">
-        <v>4.2067995173445619E-5</v>
+        <v>-1.8176483037295773E-5</v>
       </c>
       <c r="X17">
-        <v>5.3177711136095495E-5</v>
+        <v>-4.31946801037527E-6</v>
       </c>
       <c r="Y17">
-        <v>4.6573796021439543E-5</v>
+        <v>-1.4434844579493559E-6</v>
       </c>
       <c r="Z17">
-        <v>6.6774193905188585E-5</v>
+        <v>3.9087850740341388E-5</v>
       </c>
       <c r="AA17">
-        <v>-6.015593214503481E-4</v>
+        <v>-8.3701324050491129E-6</v>
       </c>
       <c r="AB17">
-        <v>-4.4849389135949175E-5</v>
+        <v>-6.5249161864832598E-5</v>
       </c>
       <c r="AC17">
-        <v>-5.2374833074170137E-5</v>
+        <v>-9.6954628974193374E-6</v>
       </c>
       <c r="AD17">
-        <v>7.0398482313889835E-5</v>
+        <v>4.7125377417273399E-5</v>
       </c>
       <c r="AE17">
-        <v>-4.5583375467845156E-7</v>
+        <v>-1.5207664489067278E-6</v>
       </c>
       <c r="AF17">
-        <v>-6.3332607441530468E-4</v>
+        <v>1.1248230807839148E-4</v>
       </c>
       <c r="AG17">
-        <v>-3.769191773252481E-5</v>
+        <v>-6.1138647521071453E-5</v>
       </c>
       <c r="AH17">
-        <v>-7.2941815338438895E-3</v>
+        <v>-2.8473312645004769E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="39">
-        <v>0.18928668028276066</v>
+      <c r="B18" s="38">
+        <v>0.13111754238930215</v>
       </c>
       <c r="C18">
-        <v>6.0446357645128367E-5</v>
+        <v>3.4910458367521947E-5</v>
       </c>
       <c r="D18">
-        <v>7.1586980121487553E-5</v>
+        <v>-1.3260913622587542E-5</v>
       </c>
       <c r="E18">
-        <v>-7.1448725578759086E-7</v>
+        <v>2.158837279470273E-7</v>
       </c>
       <c r="F18">
-        <v>-2.6402564164334412E-5</v>
+        <v>5.8865848806807027E-5</v>
       </c>
       <c r="G18">
-        <v>3.328351078815254E-4</v>
+        <v>1.1470441331172956E-4</v>
       </c>
       <c r="H18">
-        <v>6.6134290837157553E-6</v>
+        <v>6.3377568663052262E-5</v>
       </c>
       <c r="I18">
-        <v>1.0941541648609048E-4</v>
+        <v>2.974429594526766E-5</v>
       </c>
       <c r="J18">
-        <v>-1.8550754057977507E-6</v>
+        <v>3.4509861956094192E-5</v>
       </c>
       <c r="K18">
-        <v>2.8170596621126783E-4</v>
+        <v>8.1658996643294487E-5</v>
       </c>
       <c r="L18">
-        <v>-1.7619603723598386E-3</v>
+        <v>5.749034905495369E-5</v>
       </c>
       <c r="M18">
-        <v>-1.2976444595529839E-4</v>
+        <v>-9.5036095835912085E-5</v>
       </c>
       <c r="N18">
-        <v>1.6663293675853565E-4</v>
+        <v>9.4398407177180671E-5</v>
       </c>
       <c r="O18">
-        <v>-4.5098866538817624E-5</v>
+        <v>5.0678643793409294E-5</v>
       </c>
       <c r="P18">
-        <v>4.8987107870782749E-4</v>
+        <v>1.0342830134684488E-4</v>
       </c>
       <c r="Q18">
-        <v>6.1160079406422435E-3</v>
+        <v>3.4336132584923537E-3</v>
       </c>
       <c r="R18">
-        <v>6.19444598660167E-3</v>
+        <v>3.579681092796595E-3</v>
       </c>
       <c r="S18">
-        <v>6.6768380402347435E-3</v>
+        <v>4.0700066228423612E-3</v>
       </c>
       <c r="T18">
-        <v>6.4353675279038161E-3</v>
+        <v>3.8293432459748549E-3</v>
       </c>
       <c r="U18">
-        <v>3.2205022169095937E-4</v>
+        <v>-9.9541216228124545E-5</v>
       </c>
       <c r="V18">
-        <v>2.8034468140183651E-5</v>
+        <v>-1.3036468124629104E-4</v>
       </c>
       <c r="W18">
-        <v>-2.940272922092365E-5</v>
+        <v>-1.1579194471208749E-4</v>
       </c>
       <c r="X18">
-        <v>-9.4543161090406523E-5</v>
+        <v>-1.8635472954370985E-4</v>
       </c>
       <c r="Y18">
-        <v>5.4749016120563801E-5</v>
+        <v>9.2564692295668712E-6</v>
       </c>
       <c r="Z18">
-        <v>2.1585363705380663E-5</v>
+        <v>-1.0713185267097647E-5</v>
       </c>
       <c r="AA18">
-        <v>-5.4616065148323603E-4</v>
+        <v>7.8938083454248038E-6</v>
       </c>
       <c r="AB18">
-        <v>-1.6066073749834708E-5</v>
+        <v>-2.1729824573275391E-5</v>
       </c>
       <c r="AC18">
-        <v>-5.0311236005917757E-5</v>
+        <v>-3.2451264433821592E-6</v>
       </c>
       <c r="AD18">
-        <v>1.0022237687663273E-4</v>
+        <v>7.2611698492275399E-5</v>
       </c>
       <c r="AE18">
-        <v>-1.340892547361226E-6</v>
+        <v>-3.8592124665402837E-6</v>
       </c>
       <c r="AF18">
-        <v>-6.7851697374286118E-4</v>
+        <v>2.3709313022762454E-5</v>
       </c>
       <c r="AG18">
-        <v>-9.8128601275419922E-6</v>
+        <v>-4.6591702850437263E-6</v>
       </c>
       <c r="AH18">
-        <v>-8.049455193061798E-3</v>
+        <v>-3.6697974996654451E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="41">
-        <v>0.18770296312766316</v>
+      <c r="B19" s="38">
+        <v>0.16014029807504901</v>
       </c>
       <c r="C19">
-        <v>2.7780879205700751E-5</v>
+        <v>-2.1923498827584511E-5</v>
       </c>
       <c r="D19">
-        <v>1.0255993846590609E-4</v>
+        <v>1.86722563590956E-5</v>
       </c>
       <c r="E19">
-        <v>-9.4903537141617547E-7</v>
+        <v>-2.756862630082573E-8</v>
       </c>
       <c r="F19">
-        <v>-5.1774444919549644E-5</v>
+        <v>-1.2533749472519212E-5</v>
       </c>
       <c r="G19">
-        <v>3.4344699642052104E-4</v>
+        <v>1.1051684733845332E-4</v>
       </c>
       <c r="H19">
-        <v>-5.1010299507062802E-5</v>
+        <v>-3.3214981508635541E-6</v>
       </c>
       <c r="I19">
-        <v>1.156396735697428E-4</v>
+        <v>1.3770076818322372E-4</v>
       </c>
       <c r="J19">
-        <v>2.3724013805094687E-5</v>
+        <v>5.8840747626688503E-5</v>
       </c>
       <c r="K19">
-        <v>2.638616920566082E-4</v>
+        <v>5.5186444124918519E-5</v>
       </c>
       <c r="L19">
-        <v>-1.678928842624235E-3</v>
+        <v>6.6940835592817926E-5</v>
       </c>
       <c r="M19">
-        <v>-1.0594458590574467E-4</v>
+        <v>-5.5436293389776953E-5</v>
       </c>
       <c r="N19">
-        <v>2.4262247426446522E-4</v>
+        <v>1.4641137070244529E-4</v>
       </c>
       <c r="O19">
-        <v>-7.8701850020517438E-5</v>
+        <v>6.8257525522385056E-6</v>
       </c>
       <c r="P19">
-        <v>4.2439538432026788E-4</v>
+        <v>3.183919478322303E-5</v>
       </c>
       <c r="Q19">
-        <v>6.0958224646374291E-3</v>
+        <v>3.4078270663167377E-3</v>
       </c>
       <c r="R19">
-        <v>6.1677973093988399E-3</v>
+        <v>3.5529897874271342E-3</v>
       </c>
       <c r="S19">
-        <v>6.4353675279038161E-3</v>
+        <v>3.8293432459748549E-3</v>
       </c>
       <c r="T19">
-        <v>7.5235986717918125E-3</v>
+        <v>4.9244173003207764E-3</v>
       </c>
       <c r="U19">
-        <v>3.1190242101198187E-4</v>
+        <v>-9.9696594104833826E-5</v>
       </c>
       <c r="V19">
-        <v>1.1215985610662214E-4</v>
+        <v>-7.1008541938393584E-5</v>
       </c>
       <c r="W19">
-        <v>6.8811648070283638E-5</v>
+        <v>-4.1083348365507149E-5</v>
       </c>
       <c r="X19">
-        <v>1.4659639536723692E-5</v>
+        <v>-8.6428748302783825E-5</v>
       </c>
       <c r="Y19">
-        <v>3.7060497499808223E-5</v>
+        <v>-9.771643842188648E-6</v>
       </c>
       <c r="Z19">
-        <v>8.8030776025204826E-7</v>
+        <v>-1.6345882371762428E-5</v>
       </c>
       <c r="AA19">
-        <v>-7.1881838400833422E-4</v>
+        <v>-1.4067172378131806E-4</v>
       </c>
       <c r="AB19">
-        <v>-7.3723532138004599E-5</v>
+        <v>-8.1763655533166266E-5</v>
       </c>
       <c r="AC19">
-        <v>-2.7294823956547332E-5</v>
+        <v>1.5904935439195141E-5</v>
       </c>
       <c r="AD19">
-        <v>1.0050286405967053E-4</v>
+        <v>6.9559538646721047E-5</v>
       </c>
       <c r="AE19">
-        <v>8.5405379673245195E-6</v>
+        <v>8.0584579235854132E-6</v>
       </c>
       <c r="AF19">
-        <v>-8.4244367766957672E-4</v>
+        <v>-1.4889437212913491E-4</v>
       </c>
       <c r="AG19">
-        <v>-3.733397539968427E-5</v>
+        <v>-5.0057072073762593E-5</v>
       </c>
       <c r="AH19">
-        <v>-9.1356856210567869E-3</v>
+        <v>-4.7605309573818463E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="43">
-        <v>-3.9642105531081898E-2</v>
+      <c r="B20" s="38">
+        <v>-3.501652449415784E-2</v>
       </c>
       <c r="C20">
-        <v>1.2098599662989835E-5</v>
+        <v>-1.5840744043522951E-5</v>
       </c>
       <c r="D20">
-        <v>2.2198182605843539E-5</v>
+        <v>-1.5084395861254279E-6</v>
       </c>
       <c r="E20">
-        <v>-2.251318452114249E-7</v>
+        <v>4.2763933223505174E-8</v>
       </c>
       <c r="F20">
-        <v>9.8633166500601544E-5</v>
+        <v>1.3167381407566887E-4</v>
       </c>
       <c r="G20">
-        <v>7.935908036896193E-5</v>
+        <v>-3.4383000366098766E-5</v>
       </c>
       <c r="H20">
-        <v>1.2879312960827511E-5</v>
+        <v>2.4219941243844184E-5</v>
       </c>
       <c r="I20">
-        <v>1.0888482939671343E-4</v>
+        <v>1.0099203508079872E-4</v>
       </c>
       <c r="J20">
-        <v>-6.9915125277718521E-6</v>
+        <v>8.3600379723594378E-5</v>
       </c>
       <c r="K20">
-        <v>1.0417138051483727E-4</v>
+        <v>5.2769921137823525E-5</v>
       </c>
       <c r="L20">
-        <v>-2.834385863511308E-4</v>
+        <v>1.4587059313632913E-4</v>
       </c>
       <c r="M20">
-        <v>-2.9463059988328079E-6</v>
+        <v>5.3473035034097701E-5</v>
       </c>
       <c r="N20">
-        <v>5.1096876189821584E-5</v>
+        <v>5.9130161145322344E-5</v>
       </c>
       <c r="O20">
-        <v>-3.2434851413640621E-5</v>
+        <v>-4.5789038649276221E-6</v>
       </c>
       <c r="P20">
-        <v>4.1658463825562403E-5</v>
+        <v>-5.0995602545465774E-5</v>
       </c>
       <c r="Q20">
-        <v>3.2612079106849804E-4</v>
+        <v>-1.2588117597152354E-4</v>
       </c>
       <c r="R20">
-        <v>2.792809819745167E-4</v>
+        <v>-8.7527212304665822E-5</v>
       </c>
       <c r="S20">
-        <v>3.2205022169095937E-4</v>
+        <v>-9.9541216228124545E-5</v>
       </c>
       <c r="T20">
-        <v>3.1190242101198187E-4</v>
+        <v>-9.9696594104833826E-5</v>
       </c>
       <c r="U20">
-        <v>1.0120359147064552E-3</v>
+        <v>1.0158731132574252E-3</v>
       </c>
       <c r="V20">
-        <v>5.6973254774931648E-4</v>
+        <v>5.813295111976542E-4</v>
       </c>
       <c r="W20">
-        <v>5.5429232471915636E-4</v>
+        <v>5.9668071872875288E-4</v>
       </c>
       <c r="X20">
-        <v>5.4913776648846764E-4</v>
+        <v>6.1220163830072384E-4</v>
       </c>
       <c r="Y20">
-        <v>-1.4463532062136798E-5</v>
+        <v>-2.8338519565757787E-5</v>
       </c>
       <c r="Z20">
-        <v>1.1743783432162689E-5</v>
+        <v>5.8393408688578349E-6</v>
       </c>
       <c r="AA20">
-        <v>-6.265513873940682E-5</v>
+        <v>1.0656496909548584E-4</v>
       </c>
       <c r="AB20">
-        <v>-5.1961492663540876E-5</v>
+        <v>-5.9276113539097266E-5</v>
       </c>
       <c r="AC20">
-        <v>-2.436692865999648E-5</v>
+        <v>-9.9821541883961143E-6</v>
       </c>
       <c r="AD20">
-        <v>-3.3237757132746344E-5</v>
+        <v>-2.8203891738341996E-5</v>
       </c>
       <c r="AE20">
-        <v>-1.0591213257138776E-6</v>
+        <v>-4.1077524336397339E-6</v>
       </c>
       <c r="AF20">
-        <v>-1.6570574964089096E-4</v>
+        <v>9.1212932078938358E-5</v>
       </c>
       <c r="AG20">
-        <v>1.6299071873143763E-5</v>
+        <v>1.6335431158314074E-5</v>
       </c>
       <c r="AH20">
-        <v>-1.3246680892160276E-3</v>
+        <v>-4.6949757222860817E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="45">
-        <v>-4.543121401769154E-2</v>
+      <c r="B21" s="38">
+        <v>-4.02370351802269E-2</v>
       </c>
       <c r="C21">
-        <v>1.7360704589079108E-5</v>
+        <v>3.428607753602349E-7</v>
       </c>
       <c r="D21">
-        <v>-6.3534743826387872E-6</v>
+        <v>-1.7773091032660448E-5</v>
       </c>
       <c r="E21">
-        <v>1.2571068043487022E-7</v>
+        <v>2.4770518453236893E-7</v>
       </c>
       <c r="F21">
-        <v>2.9731754531386959E-4</v>
+        <v>3.1487986948351465E-4</v>
       </c>
       <c r="G21">
-        <v>3.8173341185931861E-4</v>
+        <v>3.2146133830892188E-4</v>
       </c>
       <c r="H21">
-        <v>6.0388958464525363E-5</v>
+        <v>7.3890610862375236E-5</v>
       </c>
       <c r="I21">
-        <v>4.2332194407335952E-4</v>
+        <v>3.7164053050896609E-4</v>
       </c>
       <c r="J21">
-        <v>2.2630312282522961E-4</v>
+        <v>2.0800919217396817E-4</v>
       </c>
       <c r="K21">
-        <v>4.5366869551931321E-4</v>
+        <v>4.466868135523679E-4</v>
       </c>
       <c r="L21">
-        <v>3.0442971523934648E-4</v>
+        <v>3.5983673626866381E-4</v>
       </c>
       <c r="M21">
-        <v>5.5508755485227752E-4</v>
+        <v>4.988396089586726E-4</v>
       </c>
       <c r="N21">
-        <v>3.9970975442887125E-4</v>
+        <v>3.8877699133514306E-4</v>
       </c>
       <c r="O21">
-        <v>-3.4715965665872538E-5</v>
+        <v>-2.0181807083701603E-5</v>
       </c>
       <c r="P21">
-        <v>5.7025342010960748E-5</v>
+        <v>1.5832554673048479E-5</v>
       </c>
       <c r="Q21">
-        <v>9.6840141789974782E-5</v>
+        <v>-9.2762782948857037E-5</v>
       </c>
       <c r="R21">
-        <v>8.9829705567851252E-5</v>
+        <v>-5.3259432133181614E-5</v>
       </c>
       <c r="S21">
-        <v>2.8034468140183651E-5</v>
+        <v>-1.3036468124629104E-4</v>
       </c>
       <c r="T21">
-        <v>1.1215985610662214E-4</v>
+        <v>-7.1008541938393584E-5</v>
       </c>
       <c r="U21">
-        <v>5.6973254774931648E-4</v>
+        <v>5.813295111976542E-4</v>
       </c>
       <c r="V21">
-        <v>1.5154764790730039E-3</v>
+        <v>1.5171451200689757E-3</v>
       </c>
       <c r="W21">
-        <v>1.2664719223526614E-3</v>
+        <v>1.2648827026940685E-3</v>
       </c>
       <c r="X21">
-        <v>1.3399628481759948E-3</v>
+        <v>1.3450834890493817E-3</v>
       </c>
       <c r="Y21">
-        <v>-9.4654210679086378E-5</v>
+        <v>-9.6535345479415593E-5</v>
       </c>
       <c r="Z21">
-        <v>-1.8424273596773016E-5</v>
+        <v>-2.6642680056280122E-5</v>
       </c>
       <c r="AA21">
-        <v>-6.913238501588605E-5</v>
+        <v>1.1633136887157414E-5</v>
       </c>
       <c r="AB21">
-        <v>-1.9821593520098427E-4</v>
+        <v>-2.0838407905430817E-4</v>
       </c>
       <c r="AC21">
-        <v>-3.2100686124428656E-5</v>
+        <v>-2.8743008927630681E-5</v>
       </c>
       <c r="AD21">
-        <v>-1.2586641276107551E-5</v>
+        <v>-1.0636340515064426E-5</v>
       </c>
       <c r="AE21">
-        <v>-4.0016540575413877E-6</v>
+        <v>-5.4006124209891068E-6</v>
       </c>
       <c r="AF21">
-        <v>-1.4753973548841466E-4</v>
+        <v>-1.4749834336640457E-5</v>
       </c>
       <c r="AG21">
-        <v>-5.5148521986285231E-5</v>
+        <v>-5.5123365420984183E-5</v>
       </c>
       <c r="AH21">
-        <v>-1.4030229220498166E-3</v>
+        <v>-9.8867820574509045E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A22" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="47">
-        <v>9.0090961930919203E-3</v>
+      <c r="B22" s="38">
+        <v>-3.881347305644745E-3</v>
       </c>
       <c r="C22">
-        <v>-9.2793961306231263E-6</v>
+        <v>-3.2138066265636529E-5</v>
       </c>
       <c r="D22">
-        <v>-4.1561952613704462E-6</v>
+        <v>-1.7725428851976158E-5</v>
       </c>
       <c r="E22">
-        <v>1.1910685540199171E-7</v>
+        <v>2.5616557819447479E-7</v>
       </c>
       <c r="F22">
-        <v>4.3947856825448414E-4</v>
+        <v>4.3253707584346994E-4</v>
       </c>
       <c r="G22">
-        <v>5.5009022115652131E-4</v>
+        <v>4.8632484079167186E-4</v>
       </c>
       <c r="H22">
-        <v>1.8477890355789422E-4</v>
+        <v>1.8472645389788257E-4</v>
       </c>
       <c r="I22">
-        <v>5.7161569426428921E-4</v>
+        <v>5.4424387010272492E-4</v>
       </c>
       <c r="J22">
-        <v>5.4043205573054169E-4</v>
+        <v>5.7406931778274811E-4</v>
       </c>
       <c r="K22">
-        <v>6.0199828231807426E-4</v>
+        <v>5.8373464004820316E-4</v>
       </c>
       <c r="L22">
-        <v>5.318297115206261E-4</v>
+        <v>5.57798561796076E-4</v>
       </c>
       <c r="M22">
-        <v>7.7786868514355639E-4</v>
+        <v>6.856433321663876E-4</v>
       </c>
       <c r="N22">
-        <v>6.3604261809904208E-4</v>
+        <v>6.2806160884849339E-4</v>
       </c>
       <c r="O22">
-        <v>7.8520444765874236E-5</v>
+        <v>1.0048167739524259E-4</v>
       </c>
       <c r="P22">
-        <v>9.4169323221917397E-5</v>
+        <v>7.2218339928240211E-5</v>
       </c>
       <c r="Q22">
-        <v>5.1642819483582085E-5</v>
+        <v>-5.4033641786654517E-5</v>
       </c>
       <c r="R22">
-        <v>4.2067995173445619E-5</v>
+        <v>-1.8176483037295773E-5</v>
       </c>
       <c r="S22">
-        <v>-2.940272922092365E-5</v>
+        <v>-1.1579194471208749E-4</v>
       </c>
       <c r="T22">
-        <v>6.8811648070283638E-5</v>
+        <v>-4.1083348365507149E-5</v>
       </c>
       <c r="U22">
-        <v>5.5429232471915636E-4</v>
+        <v>5.9668071872875288E-4</v>
       </c>
       <c r="V22">
-        <v>1.2664719223526614E-3</v>
+        <v>1.2648827026940685E-3</v>
       </c>
       <c r="W22">
-        <v>1.9077550868522339E-3</v>
+        <v>1.9105590169133206E-3</v>
       </c>
       <c r="X22">
-        <v>1.636686612072241E-3</v>
+        <v>1.6423708713589138E-3</v>
       </c>
       <c r="Y22">
-        <v>-6.9959470249461928E-5</v>
+        <v>-7.1103173480543353E-5</v>
       </c>
       <c r="Z22">
-        <v>7.10851849226857E-7</v>
+        <v>-8.2245225317856437E-6</v>
       </c>
       <c r="AA22">
-        <v>-9.5968411136447898E-5</v>
+        <v>-3.3682328036077408E-5</v>
       </c>
       <c r="AB22">
-        <v>-2.0172288162884067E-4</v>
+        <v>-2.1461889760550736E-4</v>
       </c>
       <c r="AC22">
-        <v>-4.6008027757492347E-5</v>
+        <v>-3.0904589787286583E-5</v>
       </c>
       <c r="AD22">
-        <v>-2.4458355001293433E-5</v>
+        <v>-2.9126565764760052E-5</v>
       </c>
       <c r="AE22">
-        <v>-2.8876580405595302E-6</v>
+        <v>-4.5520603148301633E-6</v>
       </c>
       <c r="AF22">
-        <v>-1.8678132626107416E-4</v>
+        <v>-6.8161253642254511E-5</v>
       </c>
       <c r="AG22">
-        <v>-5.8427970889886934E-5</v>
+        <v>-6.0785059325890332E-5</v>
       </c>
       <c r="AH22">
-        <v>-1.9450576633701158E-3</v>
+        <v>-1.5333210253611991E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="49">
-        <v>6.4082551922669886E-2</v>
+      <c r="B23" s="38">
+        <v>3.805806987920729E-2</v>
       </c>
       <c r="C23">
-        <v>-7.089001106372751E-6</v>
+        <v>-2.7153992286396879E-5</v>
       </c>
       <c r="D23">
-        <v>-1.5207856862799456E-5</v>
+        <v>-2.6832264878845274E-5</v>
       </c>
       <c r="E23">
-        <v>2.0042060489345799E-7</v>
+        <v>3.2423004978606971E-7</v>
       </c>
       <c r="F23">
-        <v>4.9234959880652737E-4</v>
+        <v>5.3990332216988712E-4</v>
       </c>
       <c r="G23">
-        <v>7.923783680604242E-4</v>
+        <v>6.8591481507435798E-4</v>
       </c>
       <c r="H23">
-        <v>4.7839724239335624E-4</v>
+        <v>4.724673710286998E-4</v>
       </c>
       <c r="I23">
-        <v>7.1774835012900808E-4</v>
+        <v>6.2478990679459313E-4</v>
       </c>
       <c r="J23">
-        <v>7.803990256382053E-4</v>
+        <v>8.0977191829111408E-4</v>
       </c>
       <c r="K23">
-        <v>8.2153715682737249E-4</v>
+        <v>7.8361098591835728E-4</v>
       </c>
       <c r="L23">
-        <v>9.0153106086200458E-4</v>
+        <v>8.9737561584387433E-4</v>
       </c>
       <c r="M23">
-        <v>7.7192801148681309E-4</v>
+        <v>6.8706747879231783E-4</v>
       </c>
       <c r="N23">
-        <v>6.9667285271236823E-4</v>
+        <v>6.8831969895167579E-4</v>
       </c>
       <c r="O23">
-        <v>2.0819522245047893E-4</v>
+        <v>2.2480254162542107E-4</v>
       </c>
       <c r="P23">
-        <v>2.0585698259415754E-4</v>
+        <v>1.8241408358552944E-4</v>
       </c>
       <c r="Q23">
-        <v>4.3203529037960046E-5</v>
+        <v>-5.6471694608827699E-5</v>
       </c>
       <c r="R23">
-        <v>5.3177711136095495E-5</v>
+        <v>-4.31946801037527E-6</v>
       </c>
       <c r="S23">
-        <v>-9.4543161090406523E-5</v>
+        <v>-1.8635472954370985E-4</v>
       </c>
       <c r="T23">
-        <v>1.4659639536723692E-5</v>
+        <v>-8.6428748302783825E-5</v>
       </c>
       <c r="U23">
-        <v>5.4913776648846764E-4</v>
+        <v>6.1220163830072384E-4</v>
       </c>
       <c r="V23">
-        <v>1.3399628481759948E-3</v>
+        <v>1.3450834890493817E-3</v>
       </c>
       <c r="W23">
-        <v>1.636686612072241E-3</v>
+        <v>1.6423708713589138E-3</v>
       </c>
       <c r="X23">
-        <v>2.77291469831948E-3</v>
+        <v>2.7568481167001861E-3</v>
       </c>
       <c r="Y23">
-        <v>-1.0289468920614046E-4</v>
+        <v>-1.0335704860065258E-4</v>
       </c>
       <c r="Z23">
-        <v>1.3216410736421018E-4</v>
+        <v>1.1576144370683129E-4</v>
       </c>
       <c r="AA23">
-        <v>1.5597453457851624E-4</v>
+        <v>2.0992559469369589E-4</v>
       </c>
       <c r="AB23">
-        <v>-2.466246444536341E-4</v>
+        <v>-2.6004663333747881E-4</v>
       </c>
       <c r="AC23">
-        <v>-9.0200423828135318E-6</v>
+        <v>-9.9817814837424893E-6</v>
       </c>
       <c r="AD23">
-        <v>2.1536848189526757E-5</v>
+        <v>1.5731992713049353E-5</v>
       </c>
       <c r="AE23">
-        <v>1.6920821362444442E-6</v>
+        <v>1.5917604861093399E-7</v>
       </c>
       <c r="AF23">
-        <v>2.0927560466284722E-4</v>
+        <v>3.1196921778907242E-4</v>
       </c>
       <c r="AG23">
-        <v>-8.6819056284933877E-5</v>
+        <v>-9.5161998228145345E-5</v>
       </c>
       <c r="AH23">
-        <v>-2.2521442176866276E-3</v>
+        <v>-1.8692673049336269E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="51">
-        <v>1.1179440465276E-3</v>
+      <c r="B24" s="38">
+        <v>5.664086714726675E-3</v>
       </c>
       <c r="C24">
-        <v>9.7878751075113931E-6</v>
+        <v>8.0515421347049005E-6</v>
       </c>
       <c r="D24">
-        <v>1.2608819795081817E-6</v>
+        <v>5.1918775570460752E-7</v>
       </c>
       <c r="E24">
-        <v>-1.3474318859143832E-8</v>
+        <v>-7.5615373483454625E-9</v>
       </c>
       <c r="F24">
-        <v>-2.2051679413343791E-4</v>
+        <v>-2.1635937740960531E-4</v>
       </c>
       <c r="G24">
-        <v>-4.1425740108425057E-5</v>
+        <v>-3.7349350146862023E-5</v>
       </c>
       <c r="H24">
-        <v>-4.2311381177184145E-5</v>
+        <v>-3.9699879976002196E-5</v>
       </c>
       <c r="I24">
-        <v>-2.0392020664317944E-4</v>
+        <v>-1.791520235219863E-4</v>
       </c>
       <c r="J24">
-        <v>-6.1969893848274222E-5</v>
+        <v>-5.0371644623542834E-5</v>
       </c>
       <c r="K24">
-        <v>-6.5685079364036263E-5</v>
+        <v>-6.529180612947682E-5</v>
       </c>
       <c r="L24">
-        <v>-1.8226593008873862E-4</v>
+        <v>-2.341532135862371E-4</v>
       </c>
       <c r="M24">
-        <v>-3.9262659128674049E-5</v>
+        <v>-4.1611690133029898E-5</v>
       </c>
       <c r="N24">
-        <v>-2.9757289642358742E-5</v>
+        <v>-2.6599524330350141E-5</v>
       </c>
       <c r="O24">
-        <v>1.3424519631258153E-5</v>
+        <v>1.1519968285874962E-5</v>
       </c>
       <c r="P24">
-        <v>2.8108800088894086E-5</v>
+        <v>1.8629891985236596E-5</v>
       </c>
       <c r="Q24">
-        <v>3.8195797884196033E-5</v>
+        <v>-6.3420942375914052E-6</v>
       </c>
       <c r="R24">
-        <v>4.6573796021439543E-5</v>
+        <v>-1.4434844579493559E-6</v>
       </c>
       <c r="S24">
-        <v>5.4749016120563801E-5</v>
+        <v>9.2564692295668712E-6</v>
       </c>
       <c r="T24">
-        <v>3.7060497499808223E-5</v>
+        <v>-9.771643842188648E-6</v>
       </c>
       <c r="U24">
-        <v>-1.4463532062136798E-5</v>
+        <v>-2.8338519565757787E-5</v>
       </c>
       <c r="V24">
-        <v>-9.4654210679086378E-5</v>
+        <v>-9.6535345479415593E-5</v>
       </c>
       <c r="W24">
-        <v>-6.9959470249461928E-5</v>
+        <v>-7.1103173480543353E-5</v>
       </c>
       <c r="X24">
-        <v>-1.0289468920614046E-4</v>
+        <v>-1.0335704860065258E-4</v>
       </c>
       <c r="Y24">
-        <v>8.1618283879069317E-5</v>
+        <v>8.1698854214131981E-5</v>
       </c>
       <c r="Z24">
-        <v>2.0833497991119667E-6</v>
+        <v>2.4102877113365254E-6</v>
       </c>
       <c r="AA24">
-        <v>-1.3832512968236712E-5</v>
+        <v>-7.0380238409838087E-6</v>
       </c>
       <c r="AB24">
-        <v>8.8276169895982133E-6</v>
+        <v>1.0836776883040305E-5</v>
       </c>
       <c r="AC24">
-        <v>-6.0014958386543946E-7</v>
+        <v>3.8725227381425674E-6</v>
       </c>
       <c r="AD24">
-        <v>1.9858049387092169E-6</v>
+        <v>2.569093492204676E-6</v>
       </c>
       <c r="AE24">
-        <v>4.1871687183983314E-6</v>
+        <v>4.164501402546201E-6</v>
       </c>
       <c r="AF24">
-        <v>-4.1581508665258549E-5</v>
+        <v>-3.6407157048884685E-5</v>
       </c>
       <c r="AG24">
-        <v>-1.1563476093250875E-5</v>
+        <v>-9.7284431197457737E-6</v>
       </c>
       <c r="AH24">
-        <v>-6.4628561406752187E-5</v>
+        <v>-8.5128889759942168E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="53">
-        <v>4.3911171337576018</v>
+      <c r="B25" s="38">
+        <v>4.3881566025756431</v>
       </c>
       <c r="C25">
-        <v>-6.1205457242536241E-6</v>
+        <v>-1.0205046965530909E-5</v>
       </c>
       <c r="D25">
-        <v>-8.2687164796980766E-6</v>
+        <v>-8.1333625158732075E-6</v>
       </c>
       <c r="E25">
-        <v>4.7124408692850468E-8</v>
+        <v>4.7555092811607297E-8</v>
       </c>
       <c r="F25">
-        <v>-3.3607188787137675E-5</v>
+        <v>-3.0239507218456736E-5</v>
       </c>
       <c r="G25">
-        <v>-8.5266714189329224E-6</v>
+        <v>-1.9885634365762668E-5</v>
       </c>
       <c r="H25">
-        <v>2.8420276270288712E-5</v>
+        <v>4.2808629502101054E-5</v>
       </c>
       <c r="I25">
-        <v>1.7837974699363388E-4</v>
+        <v>1.9066378968074667E-4</v>
       </c>
       <c r="J25">
-        <v>-3.8148550516794614E-5</v>
+        <v>-2.0095609045942399E-5</v>
       </c>
       <c r="K25">
-        <v>-6.4246964760740976E-5</v>
+        <v>-5.821300778029295E-5</v>
       </c>
       <c r="L25">
-        <v>-2.0788511863088636E-5</v>
+        <v>-4.5275792717046738E-5</v>
       </c>
       <c r="M25">
-        <v>-8.9511593020511078E-5</v>
+        <v>-9.9796331324579078E-5</v>
       </c>
       <c r="N25">
-        <v>-3.2876253668686007E-5</v>
+        <v>-3.5321640385382441E-5</v>
       </c>
       <c r="O25">
-        <v>-6.0804608705071153E-5</v>
+        <v>-6.2128115490988963E-5</v>
       </c>
       <c r="P25">
-        <v>-7.5565394094769146E-5</v>
+        <v>-7.9618278410355069E-5</v>
       </c>
       <c r="Q25">
-        <v>5.5444621098579339E-5</v>
+        <v>2.7065457217272993E-5</v>
       </c>
       <c r="R25">
-        <v>6.6774193905188585E-5</v>
+        <v>3.9087850740341388E-5</v>
       </c>
       <c r="S25">
-        <v>2.1585363705380663E-5</v>
+        <v>-1.0713185267097647E-5</v>
       </c>
       <c r="T25">
-        <v>8.8030776025204826E-7</v>
+        <v>-1.6345882371762428E-5</v>
       </c>
       <c r="U25">
-        <v>1.1743783432162689E-5</v>
+        <v>5.8393408688578349E-6</v>
       </c>
       <c r="V25">
-        <v>-1.8424273596773016E-5</v>
+        <v>-2.6642680056280122E-5</v>
       </c>
       <c r="W25">
-        <v>7.10851849226857E-7</v>
+        <v>-8.2245225317856437E-6</v>
       </c>
       <c r="X25">
-        <v>1.3216410736421018E-4</v>
+        <v>1.1576144370683129E-4</v>
       </c>
       <c r="Y25">
-        <v>2.0833497991119667E-6</v>
+        <v>2.4102877113365254E-6</v>
       </c>
       <c r="Z25">
-        <v>5.505458240172359E-4</v>
+        <v>5.4694162233036596E-4</v>
       </c>
       <c r="AA25">
-        <v>7.2812132137620405E-5</v>
+        <v>7.3676593770786151E-5</v>
       </c>
       <c r="AB25">
-        <v>1.4007640845728822E-7</v>
+        <v>2.7738856455448524E-7</v>
       </c>
       <c r="AC25">
-        <v>1.6551590848596857E-5</v>
+        <v>1.7008787428221725E-5</v>
       </c>
       <c r="AD25">
-        <v>3.2798095096846203E-6</v>
+        <v>3.6208315899611031E-6</v>
       </c>
       <c r="AE25">
-        <v>-5.3695452548606846E-6</v>
+        <v>-4.7128633799487875E-6</v>
       </c>
       <c r="AF25">
-        <v>6.3308592868180206E-5</v>
+        <v>5.8651720196229915E-5</v>
       </c>
       <c r="AG25">
-        <v>-2.227859928540947E-5</v>
+        <v>-2.3075294598929105E-5</v>
       </c>
       <c r="AH25">
-        <v>1.1149280408208101E-4</v>
+        <v>1.3243718570342974E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A26" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="55">
-        <v>-8.9848668630906469E-3</v>
+      <c r="B26" s="38">
+        <v>-1.1613804443431301E-2</v>
       </c>
       <c r="C26">
-        <v>-4.056772450564697E-7</v>
+        <v>-1.7689634487173019E-5</v>
       </c>
       <c r="D26">
-        <v>-1.9867687695990341E-5</v>
+        <v>-1.8397904489040462E-5</v>
       </c>
       <c r="E26">
-        <v>1.862815858672165E-7</v>
+        <v>1.9060474720314273E-7</v>
       </c>
       <c r="F26">
-        <v>1.0477412167395625E-4</v>
+        <v>1.4686935196862243E-4</v>
       </c>
       <c r="G26">
-        <v>4.6695138995545243E-5</v>
+        <v>1.8511991698582438E-5</v>
       </c>
       <c r="H26">
-        <v>2.7528092111360665E-4</v>
+        <v>3.0388947663734884E-4</v>
       </c>
       <c r="I26">
-        <v>5.1303277659873483E-4</v>
+        <v>4.5996614135651115E-4</v>
       </c>
       <c r="J26">
-        <v>1.2885175055347292E-4</v>
+        <v>1.7189041247273453E-4</v>
       </c>
       <c r="K26">
-        <v>4.6155742009692711E-5</v>
+        <v>9.6741080698260263E-5</v>
       </c>
       <c r="L26">
-        <v>3.9948604829765082E-4</v>
+        <v>-2.1940515186037843E-5</v>
       </c>
       <c r="M26">
-        <v>3.2438049678014174E-5</v>
+        <v>4.7475255631971702E-6</v>
       </c>
       <c r="N26">
-        <v>-1.3985877289548294E-5</v>
+        <v>-2.0650844614895371E-5</v>
       </c>
       <c r="O26">
-        <v>3.5395475209260122E-5</v>
+        <v>4.094663567218344E-5</v>
       </c>
       <c r="P26">
-        <v>-1.0051573970878145E-4</v>
+        <v>-8.8914509201160671E-5</v>
       </c>
       <c r="Q26">
-        <v>-6.0140615803797829E-4</v>
+        <v>-8.1321952506481542E-5</v>
       </c>
       <c r="R26">
-        <v>-6.015593214503481E-4</v>
+        <v>-8.3701324050491129E-6</v>
       </c>
       <c r="S26">
-        <v>-5.4616065148323603E-4</v>
+        <v>7.8938083454248038E-6</v>
       </c>
       <c r="T26">
-        <v>-7.1881838400833422E-4</v>
+        <v>-1.4067172378131806E-4</v>
       </c>
       <c r="U26">
-        <v>-6.265513873940682E-5</v>
+        <v>1.0656496909548584E-4</v>
       </c>
       <c r="V26">
-        <v>-6.913238501588605E-5</v>
+        <v>1.1633136887157414E-5</v>
       </c>
       <c r="W26">
-        <v>-9.5968411136447898E-5</v>
+        <v>-3.3682328036077408E-5</v>
       </c>
       <c r="X26">
-        <v>1.5597453457851624E-4</v>
+        <v>2.0992559469369589E-4</v>
       </c>
       <c r="Y26">
-        <v>-1.3832512968236712E-5</v>
+        <v>-7.0380238409838087E-6</v>
       </c>
       <c r="Z26">
-        <v>7.2812132137620405E-5</v>
+        <v>7.3676593770786151E-5</v>
       </c>
       <c r="AA26">
-        <v>1.3205639971403651E-3</v>
+        <v>1.3330880485569237E-3</v>
       </c>
       <c r="AB26">
-        <v>4.3346096116163437E-4</v>
+        <v>4.353340350473776E-4</v>
       </c>
       <c r="AC26">
-        <v>4.6962277898969507E-4</v>
+        <v>4.6563049386740707E-4</v>
       </c>
       <c r="AD26">
-        <v>4.4041681731466588E-4</v>
+        <v>4.3887794286015546E-4</v>
       </c>
       <c r="AE26">
-        <v>-6.9817459452872557E-6</v>
+        <v>-8.2133228193059251E-6</v>
       </c>
       <c r="AF26">
-        <v>4.5236629114979107E-4</v>
+        <v>4.7089425590331505E-4</v>
       </c>
       <c r="AG26">
-        <v>-1.1993367501697211E-5</v>
+        <v>-1.1123730411835136E-5</v>
       </c>
       <c r="AH26">
-        <v>5.4853041133687773E-4</v>
+        <v>-1.3663071325335742E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="57">
-        <v>-0.11880608055347677</v>
+      <c r="B27" s="38">
+        <v>-0.11987247711523175</v>
       </c>
       <c r="C27">
-        <v>9.3958191388533599E-6</v>
+        <v>4.612929186166963E-6</v>
       </c>
       <c r="D27">
-        <v>9.3830642327975356E-6</v>
+        <v>1.0447901649068521E-5</v>
       </c>
       <c r="E27">
-        <v>-1.381567093656694E-7</v>
+        <v>-1.4672956866600413E-7</v>
       </c>
       <c r="F27">
-        <v>-8.9264406866626901E-5</v>
+        <v>-7.6569608895826194E-5</v>
       </c>
       <c r="G27">
-        <v>8.5076966754507296E-5</v>
+        <v>8.8908170665578088E-5</v>
       </c>
       <c r="H27">
-        <v>7.8478269833157652E-6</v>
+        <v>4.4070149807506898E-6</v>
       </c>
       <c r="I27">
-        <v>-5.9195190628703312E-5</v>
+        <v>-1.1806564953034779E-4</v>
       </c>
       <c r="J27">
-        <v>8.2484571566148867E-5</v>
+        <v>5.8821881373327103E-5</v>
       </c>
       <c r="K27">
-        <v>6.4195978308986303E-6</v>
+        <v>1.4600923072762787E-5</v>
       </c>
       <c r="L27">
-        <v>2.6968541413126723E-5</v>
+        <v>-1.0920512550130761E-4</v>
       </c>
       <c r="M27">
-        <v>5.2909892606047742E-5</v>
+        <v>4.5800296727457413E-5</v>
       </c>
       <c r="N27">
-        <v>6.8715826441091568E-6</v>
+        <v>-2.4085914463144176E-6</v>
       </c>
       <c r="O27">
-        <v>2.9423655930054839E-5</v>
+        <v>2.9208941476129718E-5</v>
       </c>
       <c r="P27">
-        <v>-5.5430539821281185E-5</v>
+        <v>-6.0230418948652989E-5</v>
       </c>
       <c r="Q27">
-        <v>-1.3954848571941063E-5</v>
+        <v>-3.6292188235961809E-5</v>
       </c>
       <c r="R27">
-        <v>-4.4849389135949175E-5</v>
+        <v>-6.5249161864832598E-5</v>
       </c>
       <c r="S27">
-        <v>-1.6066073749834708E-5</v>
+        <v>-2.1729824573275391E-5</v>
       </c>
       <c r="T27">
-        <v>-7.3723532138004599E-5</v>
+        <v>-8.1763655533166266E-5</v>
       </c>
       <c r="U27">
-        <v>-5.1961492663540876E-5</v>
+        <v>-5.9276113539097266E-5</v>
       </c>
       <c r="V27">
-        <v>-1.9821593520098427E-4</v>
+        <v>-2.0838407905430817E-4</v>
       </c>
       <c r="W27">
-        <v>-2.0172288162884067E-4</v>
+        <v>-2.1461889760550736E-4</v>
       </c>
       <c r="X27">
-        <v>-2.466246444536341E-4</v>
+        <v>-2.6004663333747881E-4</v>
       </c>
       <c r="Y27">
-        <v>8.8276169895982133E-6</v>
+        <v>1.0836776883040305E-5</v>
       </c>
       <c r="Z27">
-        <v>1.4007640845728822E-7</v>
+        <v>2.7738856455448524E-7</v>
       </c>
       <c r="AA27">
-        <v>4.3346096116163437E-4</v>
+        <v>4.353340350473776E-4</v>
       </c>
       <c r="AB27">
-        <v>1.7660531735836091E-3</v>
+        <v>1.7573715068071745E-3</v>
       </c>
       <c r="AC27">
-        <v>4.5128431105817828E-4</v>
+        <v>4.4855881530537361E-4</v>
       </c>
       <c r="AD27">
-        <v>4.5358141256762627E-4</v>
+        <v>4.5066720605911912E-4</v>
       </c>
       <c r="AE27">
-        <v>-1.0717255603139212E-5</v>
+        <v>-1.0830828258510588E-5</v>
       </c>
       <c r="AF27">
-        <v>1.4261992985888149E-4</v>
+        <v>1.5125049528586388E-4</v>
       </c>
       <c r="AG27">
-        <v>2.5560497861403463E-5</v>
+        <v>2.5687920337640692E-5</v>
       </c>
       <c r="AH27">
-        <v>-2.3543709926007717E-4</v>
+        <v>-2.3207207920807114E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A28" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="59">
-        <v>-6.1023844091567983E-2</v>
+      <c r="B28" s="38">
+        <v>-6.5778258794065014E-2</v>
       </c>
       <c r="C28">
-        <v>-3.545632903946866E-6</v>
+        <v>-7.9311031574697379E-6</v>
       </c>
       <c r="D28">
-        <v>-4.6001721137547974E-6</v>
+        <v>-2.3432938846477044E-6</v>
       </c>
       <c r="E28">
-        <v>3.336980444128973E-8</v>
+        <v>1.2311374896594582E-8</v>
       </c>
       <c r="F28">
-        <v>-1.9368041539139479E-4</v>
+        <v>-1.7238271619967905E-4</v>
       </c>
       <c r="G28">
-        <v>2.0312529209368809E-5</v>
+        <v>2.5286114352692546E-5</v>
       </c>
       <c r="H28">
-        <v>4.3795471930631147E-5</v>
+        <v>4.0779667238832129E-5</v>
       </c>
       <c r="I28">
-        <v>7.7292504382442623E-5</v>
+        <v>1.9614943429843598E-5</v>
       </c>
       <c r="J28">
-        <v>2.7262341816099809E-5</v>
+        <v>3.7500102589792906E-6</v>
       </c>
       <c r="K28">
-        <v>2.1527058578578321E-5</v>
+        <v>4.3845543146300544E-5</v>
       </c>
       <c r="L28">
-        <v>1.2705992111152414E-4</v>
+        <v>-1.0800691103895562E-4</v>
       </c>
       <c r="M28">
-        <v>-6.9256314348566507E-5</v>
+        <v>-7.2491134002944911E-5</v>
       </c>
       <c r="N28">
-        <v>-2.8592980036730819E-5</v>
+        <v>-3.1048504886437689E-5</v>
       </c>
       <c r="O28">
-        <v>4.5997019198112162E-6</v>
+        <v>7.5366144045245143E-6</v>
       </c>
       <c r="P28">
-        <v>-4.1656840097896856E-5</v>
+        <v>-3.8375340942774648E-5</v>
       </c>
       <c r="Q28">
-        <v>-4.4549353012039315E-5</v>
+        <v>-2.8108093008049825E-6</v>
       </c>
       <c r="R28">
-        <v>-5.2374833074170137E-5</v>
+        <v>-9.6954628974193374E-6</v>
       </c>
       <c r="S28">
-        <v>-5.0311236005917757E-5</v>
+        <v>-3.2451264433821592E-6</v>
       </c>
       <c r="T28">
-        <v>-2.7294823956547332E-5</v>
+        <v>1.5904935439195141E-5</v>
       </c>
       <c r="U28">
-        <v>-2.436692865999648E-5</v>
+        <v>-9.9821541883961143E-6</v>
       </c>
       <c r="V28">
-        <v>-3.2100686124428656E-5</v>
+        <v>-2.8743008927630681E-5</v>
       </c>
       <c r="W28">
-        <v>-4.6008027757492347E-5</v>
+        <v>-3.0904589787286583E-5</v>
       </c>
       <c r="X28">
-        <v>-9.0200423828135318E-6</v>
+        <v>-9.9817814837424893E-6</v>
       </c>
       <c r="Y28">
-        <v>-6.0014958386543946E-7</v>
+        <v>3.8725227381425674E-6</v>
       </c>
       <c r="Z28">
-        <v>1.6551590848596857E-5</v>
+        <v>1.7008787428221725E-5</v>
       </c>
       <c r="AA28">
-        <v>4.6962277898969507E-4</v>
+        <v>4.6563049386740707E-4</v>
       </c>
       <c r="AB28">
-        <v>4.5128431105817828E-4</v>
+        <v>4.4855881530537361E-4</v>
       </c>
       <c r="AC28">
-        <v>9.4650220600377675E-4</v>
+        <v>9.4523226400343972E-4</v>
       </c>
       <c r="AD28">
-        <v>4.5463521122047622E-4</v>
+        <v>4.5193118042711496E-4</v>
       </c>
       <c r="AE28">
-        <v>-4.9184956327936189E-6</v>
+        <v>-4.9699210799387094E-6</v>
       </c>
       <c r="AF28">
-        <v>1.5721199215748072E-5</v>
+        <v>1.473082398504189E-5</v>
       </c>
       <c r="AG28">
-        <v>4.8551935683966055E-5</v>
+        <v>4.7474081734393037E-5</v>
       </c>
       <c r="AH28">
-        <v>-1.8074030115727835E-4</v>
+        <v>-2.8211535403920018E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A29" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="61">
-        <v>-6.8109524606375345E-3</v>
+      <c r="B29" s="38">
+        <v>-8.674398423029998E-3</v>
       </c>
       <c r="C29">
-        <v>1.2427165550104781E-5</v>
+        <v>6.3496126118559745E-6</v>
       </c>
       <c r="D29">
-        <v>3.2828042794734653E-6</v>
+        <v>4.5155970790922975E-6</v>
       </c>
       <c r="E29">
-        <v>-4.6230390851904865E-8</v>
+        <v>-5.5003523428832741E-8</v>
       </c>
       <c r="F29">
-        <v>-7.3417235927266864E-5</v>
+        <v>-5.0332282732335636E-5</v>
       </c>
       <c r="G29">
-        <v>-2.1713485628197242E-5</v>
+        <v>-2.8405712424238184E-5</v>
       </c>
       <c r="H29">
-        <v>-7.6480983198290957E-5</v>
+        <v>-6.5293459625085401E-5</v>
       </c>
       <c r="I29">
-        <v>6.8670440425905657E-7</v>
+        <v>-3.7827204830434124E-5</v>
       </c>
       <c r="J29">
-        <v>-5.8193357564931687E-5</v>
+        <v>-3.8218019447430556E-5</v>
       </c>
       <c r="K29">
-        <v>-2.9849512646699103E-5</v>
+        <v>-1.887191945801125E-5</v>
       </c>
       <c r="L29">
-        <v>-3.3682198314806573E-5</v>
+        <v>-1.5209831411845418E-4</v>
       </c>
       <c r="M29">
-        <v>-4.0071936086135502E-5</v>
+        <v>-5.997029590319009E-6</v>
       </c>
       <c r="N29">
-        <v>8.9646194075640082E-6</v>
+        <v>-7.7963127592529219E-6</v>
       </c>
       <c r="O29">
-        <v>5.817743494932319E-5</v>
+        <v>5.376536666589865E-5</v>
       </c>
       <c r="P29">
-        <v>4.8647158228234033E-5</v>
+        <v>3.7479989587589673E-5</v>
       </c>
       <c r="Q29">
-        <v>3.157012582836636E-5</v>
+        <v>7.4357286008350188E-6</v>
       </c>
       <c r="R29">
-        <v>7.0398482313889835E-5</v>
+        <v>4.7125377417273399E-5</v>
       </c>
       <c r="S29">
-        <v>1.0022237687663273E-4</v>
+        <v>7.2611698492275399E-5</v>
       </c>
       <c r="T29">
-        <v>1.0050286405967053E-4</v>
+        <v>6.9559538646721047E-5</v>
       </c>
       <c r="U29">
-        <v>-3.3237757132746344E-5</v>
+        <v>-2.8203891738341996E-5</v>
       </c>
       <c r="V29">
-        <v>-1.2586641276107551E-5</v>
+        <v>-1.0636340515064426E-5</v>
       </c>
       <c r="W29">
-        <v>-2.4458355001293433E-5</v>
+        <v>-2.9126565764760052E-5</v>
       </c>
       <c r="X29">
-        <v>2.1536848189526757E-5</v>
+        <v>1.5731992713049353E-5</v>
       </c>
       <c r="Y29">
-        <v>1.9858049387092169E-6</v>
+        <v>2.569093492204676E-6</v>
       </c>
       <c r="Z29">
-        <v>3.2798095096846203E-6</v>
+        <v>3.6208315899611031E-6</v>
       </c>
       <c r="AA29">
-        <v>4.4041681731466588E-4</v>
+        <v>4.3887794286015546E-4</v>
       </c>
       <c r="AB29">
-        <v>4.5358141256762627E-4</v>
+        <v>4.5066720605911912E-4</v>
       </c>
       <c r="AC29">
-        <v>4.5463521122047622E-4</v>
+        <v>4.5193118042711496E-4</v>
       </c>
       <c r="AD29">
-        <v>7.7765032150264543E-4</v>
+        <v>7.7203388697401581E-4</v>
       </c>
       <c r="AE29">
-        <v>-2.3049871885038386E-6</v>
+        <v>-2.5443289049845921E-6</v>
       </c>
       <c r="AF29">
-        <v>8.4037144580071028E-5</v>
+        <v>8.8245702668158176E-5</v>
       </c>
       <c r="AG29">
-        <v>1.722300407445023E-5</v>
+        <v>1.9852876946312251E-5</v>
       </c>
       <c r="AH29">
-        <v>-5.5357389722092008E-4</v>
+        <v>-5.4940718778208721E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A30" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="63">
-        <v>1.7411882462613033E-3</v>
+      <c r="B30" s="38">
+        <v>1.3445411150788892E-3</v>
       </c>
       <c r="C30">
-        <v>3.0761744745300646E-7</v>
+        <v>3.0977092293611811E-8</v>
       </c>
       <c r="D30">
-        <v>2.3663193246634901E-7</v>
+        <v>3.6245662912667931E-7</v>
       </c>
       <c r="E30">
-        <v>-3.2522072139534201E-9</v>
+        <v>-4.8959188265797088E-9</v>
       </c>
       <c r="F30">
-        <v>-1.0636862134422837E-6</v>
+        <v>-2.3914255136231141E-6</v>
       </c>
       <c r="G30">
-        <v>2.0475337662922901E-6</v>
+        <v>2.2080578359214394E-6</v>
       </c>
       <c r="H30">
-        <v>-2.1914488477377925E-6</v>
+        <v>-2.567455903458273E-6</v>
       </c>
       <c r="I30">
-        <v>1.3951112691775944E-5</v>
+        <v>1.2811792203293087E-5</v>
       </c>
       <c r="J30">
-        <v>3.7305054959058961E-6</v>
+        <v>6.781075355056696E-6</v>
       </c>
       <c r="K30">
-        <v>-3.4898532160764514E-6</v>
+        <v>-4.201631069943436E-6</v>
       </c>
       <c r="L30">
-        <v>-1.4985622887797283E-5</v>
+        <v>-2.0020844927266175E-5</v>
       </c>
       <c r="M30">
-        <v>9.6243274508973041E-7</v>
+        <v>1.9220223265266811E-6</v>
       </c>
       <c r="N30">
-        <v>3.4875065859819057E-6</v>
+        <v>2.5838965733139215E-6</v>
       </c>
       <c r="O30">
-        <v>2.0774350155332058E-6</v>
+        <v>1.7229577971110744E-6</v>
       </c>
       <c r="P30">
-        <v>8.3895824023987048E-6</v>
+        <v>7.9513890486140767E-6</v>
       </c>
       <c r="Q30">
-        <v>5.9624847384186024E-6</v>
+        <v>7.5249961743966527E-6</v>
       </c>
       <c r="R30">
-        <v>-4.5583375467845156E-7</v>
+        <v>-1.5207664489067278E-6</v>
       </c>
       <c r="S30">
-        <v>-1.340892547361226E-6</v>
+        <v>-3.8592124665402837E-6</v>
       </c>
       <c r="T30">
-        <v>8.5405379673245195E-6</v>
+        <v>8.0584579235854132E-6</v>
       </c>
       <c r="U30">
-        <v>-1.0591213257138776E-6</v>
+        <v>-4.1077524336397339E-6</v>
       </c>
       <c r="V30">
-        <v>-4.0016540575413877E-6</v>
+        <v>-5.4006124209891068E-6</v>
       </c>
       <c r="W30">
-        <v>-2.8876580405595302E-6</v>
+        <v>-4.5520603148301633E-6</v>
       </c>
       <c r="X30">
-        <v>1.6920821362444442E-6</v>
+        <v>1.5917604861093399E-7</v>
       </c>
       <c r="Y30">
-        <v>4.1871687183983314E-6</v>
+        <v>4.164501402546201E-6</v>
       </c>
       <c r="Z30">
-        <v>-5.3695452548606846E-6</v>
+        <v>-4.7128633799487875E-6</v>
       </c>
       <c r="AA30">
-        <v>-6.9817459452872557E-6</v>
+        <v>-8.2133228193059251E-6</v>
       </c>
       <c r="AB30">
-        <v>-1.0717255603139212E-5</v>
+        <v>-1.0830828258510588E-5</v>
       </c>
       <c r="AC30">
-        <v>-4.9184956327936189E-6</v>
+        <v>-4.9699210799387094E-6</v>
       </c>
       <c r="AD30">
-        <v>-2.3049871885038386E-6</v>
+        <v>-2.5443289049845921E-6</v>
       </c>
       <c r="AE30">
-        <v>1.0316317495519769E-5</v>
+        <v>1.0310720708363109E-5</v>
       </c>
       <c r="AF30">
-        <v>-3.0557679488588834E-5</v>
+        <v>-3.1744352937002973E-5</v>
       </c>
       <c r="AG30">
-        <v>-4.3829938822424623E-5</v>
+        <v>-4.3743031516049635E-5</v>
       </c>
       <c r="AH30">
-        <v>-1.7526933561337165E-4</v>
+        <v>-1.7332949942120459E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A31" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="65">
-        <v>-0.20723853767640249</v>
+      <c r="B31" s="38">
+        <v>-0.20477933370971102</v>
       </c>
       <c r="C31">
-        <v>4.496927203891495E-5</v>
+        <v>3.32270419110664E-5</v>
       </c>
       <c r="D31">
-        <v>-2.4683859500704828E-5</v>
+        <v>-2.5326301482947759E-5</v>
       </c>
       <c r="E31">
-        <v>2.5478794861104744E-7</v>
+        <v>2.7862920030196577E-7</v>
       </c>
       <c r="F31">
-        <v>1.6706246867416452E-4</v>
+        <v>1.6239433735017184E-4</v>
       </c>
       <c r="G31">
-        <v>-3.459793163936584E-5</v>
+        <v>-4.703733868216195E-5</v>
       </c>
       <c r="H31">
-        <v>3.1125598985604053E-4</v>
+        <v>3.3967607555305786E-4</v>
       </c>
       <c r="I31">
-        <v>-1.4805581647869045E-4</v>
+        <v>-1.7230223417134469E-4</v>
       </c>
       <c r="J31">
-        <v>4.9038183066014117E-6</v>
+        <v>-1.2288994651668377E-5</v>
       </c>
       <c r="K31">
-        <v>7.923741332107638E-6</v>
+        <v>5.4115955237877059E-5</v>
       </c>
       <c r="L31">
-        <v>3.7817401651645249E-4</v>
+        <v>1.0189970461703087E-4</v>
       </c>
       <c r="M31">
-        <v>-6.7586578846626569E-5</v>
+        <v>-9.6390245881394256E-5</v>
       </c>
       <c r="N31">
-        <v>-1.1086100281734257E-4</v>
+        <v>-1.1326044079120866E-4</v>
       </c>
       <c r="O31">
-        <v>9.1409996676747405E-5</v>
+        <v>9.4935005273254908E-5</v>
       </c>
       <c r="P31">
-        <v>2.7184180237555325E-5</v>
+        <v>4.2648919476111734E-5</v>
       </c>
       <c r="Q31">
-        <v>-7.3217274049544763E-4</v>
+        <v>-6.7387341905088792E-5</v>
       </c>
       <c r="R31">
-        <v>-6.3332607441530468E-4</v>
+        <v>1.1248230807839148E-4</v>
       </c>
       <c r="S31">
-        <v>-6.7851697374286118E-4</v>
+        <v>2.3709313022762454E-5</v>
       </c>
       <c r="T31">
-        <v>-8.4244367766957672E-4</v>
+        <v>-1.4889437212913491E-4</v>
       </c>
       <c r="U31">
-        <v>-1.6570574964089096E-4</v>
+        <v>9.1212932078938358E-5</v>
       </c>
       <c r="V31">
-        <v>-1.4753973548841466E-4</v>
+        <v>-1.4749834336640457E-5</v>
       </c>
       <c r="W31">
-        <v>-1.8678132626107416E-4</v>
+        <v>-6.8161253642254511E-5</v>
       </c>
       <c r="X31">
-        <v>2.0927560466284722E-4</v>
+        <v>3.1196921778907242E-4</v>
       </c>
       <c r="Y31">
-        <v>-4.1581508665258549E-5</v>
+        <v>-3.6407157048884685E-5</v>
       </c>
       <c r="Z31">
-        <v>6.3308592868180206E-5</v>
+        <v>5.8651720196229915E-5</v>
       </c>
       <c r="AA31">
-        <v>4.5236629114979107E-4</v>
+        <v>4.7089425590331505E-4</v>
       </c>
       <c r="AB31">
-        <v>1.4261992985888149E-4</v>
+        <v>1.5125049528586388E-4</v>
       </c>
       <c r="AC31">
-        <v>1.5721199215748072E-5</v>
+        <v>1.473082398504189E-5</v>
       </c>
       <c r="AD31">
-        <v>8.4037144580071028E-5</v>
+        <v>8.8245702668158176E-5</v>
       </c>
       <c r="AE31">
-        <v>-3.0557679488588834E-5</v>
+        <v>-3.1744352937002973E-5</v>
       </c>
       <c r="AF31">
-        <v>2.611658964122045E-3</v>
+        <v>2.6270019578037997E-3</v>
       </c>
       <c r="AG31">
-        <v>1.9679304072782553E-4</v>
+        <v>1.9367537461665349E-4</v>
       </c>
       <c r="AH31">
-        <v>1.4130712298940262E-3</v>
+        <v>5.8426338848886381E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="67">
-        <v>-7.841008418692319E-2</v>
+      <c r="B32" s="38">
+        <v>-7.355362873707956E-2</v>
       </c>
       <c r="C32">
-        <v>9.7643883036438607E-7</v>
+        <v>1.2110335424800447E-6</v>
       </c>
       <c r="D32">
-        <v>3.8381221354766721E-6</v>
+        <v>4.5151840262410841E-6</v>
       </c>
       <c r="E32">
-        <v>-3.2024672225910991E-8</v>
+        <v>-3.6515081838127517E-8</v>
       </c>
       <c r="F32">
-        <v>1.3858483880576196E-4</v>
+        <v>1.3194007397571703E-4</v>
       </c>
       <c r="G32">
-        <v>2.0030377416101962E-5</v>
+        <v>2.083220296619163E-5</v>
       </c>
       <c r="H32">
-        <v>1.6639924246453474E-4</v>
+        <v>1.5782179638358933E-4</v>
       </c>
       <c r="I32">
-        <v>-1.0785677356718918E-4</v>
+        <v>-1.2946490247114494E-4</v>
       </c>
       <c r="J32">
-        <v>5.8921211904840626E-5</v>
+        <v>2.0085313754435229E-5</v>
       </c>
       <c r="K32">
-        <v>3.7196816803828541E-5</v>
+        <v>2.9719533482842257E-5</v>
       </c>
       <c r="L32">
-        <v>9.8909800096058008E-5</v>
+        <v>9.6704351279939681E-5</v>
       </c>
       <c r="M32">
-        <v>-3.0725762118957028E-6</v>
+        <v>-8.0860940325496811E-6</v>
       </c>
       <c r="N32">
-        <v>-6.0322964043136413E-5</v>
+        <v>-5.9733467422663853E-5</v>
       </c>
       <c r="O32">
-        <v>8.50400859311901E-5</v>
+        <v>8.5421860749300009E-5</v>
       </c>
       <c r="P32">
-        <v>8.4721834231898084E-5</v>
+        <v>9.1476558443811271E-5</v>
       </c>
       <c r="Q32">
-        <v>-2.0264985222053227E-5</v>
+        <v>-3.8202984609505782E-5</v>
       </c>
       <c r="R32">
-        <v>-3.769191773252481E-5</v>
+        <v>-6.1138647521071453E-5</v>
       </c>
       <c r="S32">
-        <v>-9.8128601275419922E-6</v>
+        <v>-4.6591702850437263E-6</v>
       </c>
       <c r="T32">
-        <v>-3.733397539968427E-5</v>
+        <v>-5.0057072073762593E-5</v>
       </c>
       <c r="U32">
-        <v>1.6299071873143763E-5</v>
+        <v>1.6335431158314074E-5</v>
       </c>
       <c r="V32">
-        <v>-5.5148521986285231E-5</v>
+        <v>-5.5123365420984183E-5</v>
       </c>
       <c r="W32">
-        <v>-5.8427970889886934E-5</v>
+        <v>-6.0785059325890332E-5</v>
       </c>
       <c r="X32">
-        <v>-8.6819056284933877E-5</v>
+        <v>-9.5161998228145345E-5</v>
       </c>
       <c r="Y32">
-        <v>-1.1563476093250875E-5</v>
+        <v>-9.7284431197457737E-6</v>
       </c>
       <c r="Z32">
-        <v>-2.227859928540947E-5</v>
+        <v>-2.3075294598929105E-5</v>
       </c>
       <c r="AA32">
-        <v>-1.1993367501697211E-5</v>
+        <v>-1.1123730411835136E-5</v>
       </c>
       <c r="AB32">
-        <v>2.5560497861403463E-5</v>
+        <v>2.5687920337640692E-5</v>
       </c>
       <c r="AC32">
-        <v>4.8551935683966055E-5</v>
+        <v>4.7474081734393037E-5</v>
       </c>
       <c r="AD32">
-        <v>1.722300407445023E-5</v>
+        <v>1.9852876946312251E-5</v>
       </c>
       <c r="AE32">
-        <v>-4.3829938822424623E-5</v>
+        <v>-4.3743031516049635E-5</v>
       </c>
       <c r="AF32">
-        <v>1.9679304072782553E-4</v>
+        <v>1.9367537461665349E-4</v>
       </c>
       <c r="AG32">
-        <v>1.2492381857045101E-3</v>
+        <v>1.2483676117404231E-3</v>
       </c>
       <c r="AH32">
-        <v>4.8241131309518463E-4</v>
+        <v>4.7870682097504312E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A33" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="69">
-        <v>-1.7019253130790306</v>
+      <c r="B33" s="38">
+        <v>-1.6938198484195555</v>
       </c>
       <c r="C33">
-        <v>-4.6910158154282473E-4</v>
+        <v>-4.389932419707138E-4</v>
       </c>
       <c r="D33">
-        <v>-5.9880934276264428E-4</v>
+        <v>-5.0419684697400064E-4</v>
       </c>
       <c r="E33">
-        <v>5.5313949397190798E-6</v>
+        <v>4.5094976109574447E-6</v>
       </c>
       <c r="F33">
-        <v>-2.493404589152098E-3</v>
+        <v>-2.5091965914107684E-3</v>
       </c>
       <c r="G33">
-        <v>-2.3725246817269292E-3</v>
+        <v>-1.9787970871808299E-3</v>
       </c>
       <c r="H33">
-        <v>-1.8071975676144016E-3</v>
+        <v>-1.9366021769109106E-3</v>
       </c>
       <c r="I33">
-        <v>-3.609188875821635E-3</v>
+        <v>-3.4975229634165482E-3</v>
       </c>
       <c r="J33">
-        <v>-2.026476004516995E-3</v>
+        <v>-2.2024325942323745E-3</v>
       </c>
       <c r="K33">
-        <v>-2.9653407764467839E-3</v>
+        <v>-2.4930414776556916E-3</v>
       </c>
       <c r="L33">
-        <v>9.3887692389006162E-4</v>
+        <v>-1.3800031623558101E-3</v>
       </c>
       <c r="M33">
-        <v>-4.017761955151555E-3</v>
+        <v>-4.2386937410304254E-3</v>
       </c>
       <c r="N33">
-        <v>-1.6393827474140768E-3</v>
+        <v>-1.4919844743905264E-3</v>
       </c>
       <c r="O33">
-        <v>-5.4090441678877671E-4</v>
+        <v>-6.4282798152245023E-4</v>
       </c>
       <c r="P33">
-        <v>-1.4582929850578074E-3</v>
+        <v>-9.2485224058497933E-4</v>
       </c>
       <c r="Q33">
-        <v>-7.4408624844434328E-3</v>
+        <v>-3.0812215633848651E-3</v>
       </c>
       <c r="R33">
-        <v>-7.2941815338438895E-3</v>
+        <v>-2.8473312645004769E-3</v>
       </c>
       <c r="S33">
-        <v>-8.049455193061798E-3</v>
+        <v>-3.6697974996654451E-3</v>
       </c>
       <c r="T33">
-        <v>-9.1356856210567869E-3</v>
+        <v>-4.7605309573818463E-3</v>
       </c>
       <c r="U33">
-        <v>-1.3246680892160276E-3</v>
+        <v>-4.6949757222860817E-4</v>
       </c>
       <c r="V33">
-        <v>-1.4030229220498166E-3</v>
+        <v>-9.8867820574509045E-4</v>
       </c>
       <c r="W33">
-        <v>-1.9450576633701158E-3</v>
+        <v>-1.5333210253611991E-3</v>
       </c>
       <c r="X33">
-        <v>-2.2521442176866276E-3</v>
+        <v>-1.8692673049336269E-3</v>
       </c>
       <c r="Y33">
-        <v>-6.4628561406752187E-5</v>
+        <v>-8.5128889759942168E-7</v>
       </c>
       <c r="Z33">
-        <v>1.1149280408208101E-4</v>
+        <v>1.3243718570342974E-4</v>
       </c>
       <c r="AA33">
-        <v>5.4853041133687773E-4</v>
+        <v>-1.3663071325335742E-4</v>
       </c>
       <c r="AB33">
-        <v>-2.3543709926007717E-4</v>
+        <v>-2.3207207920807114E-4</v>
       </c>
       <c r="AC33">
-        <v>-1.8074030115727835E-4</v>
+        <v>-2.8211535403920018E-4</v>
       </c>
       <c r="AD33">
-        <v>-5.5357389722092008E-4</v>
+        <v>-5.4940718778208721E-4</v>
       </c>
       <c r="AE33">
-        <v>-1.7526933561337165E-4</v>
+        <v>-1.7332949942120459E-4</v>
       </c>
       <c r="AF33">
-        <v>1.4130712298940262E-3</v>
+        <v>5.8426338848886381E-4</v>
       </c>
       <c r="AG33">
-        <v>4.8241131309518463E-4</v>
+        <v>4.7870682097504312E-4</v>
       </c>
       <c r="AH33">
-        <v>3.0489985420751833E-2</v>
+        <v>2.3788177326206944E-2</v>
       </c>
     </row>
   </sheetData>
